--- a/design/chitiet/Cart.xlsx
+++ b/design/chitiet/Cart.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="101">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -399,9 +399,6 @@
       </rPr>
       <t xml:space="preserve">: INI file / W: work table / V: view / S: stored procedures / L: SQL loader / F: file)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Tú </t>
   </si>
   <si>
     <t xml:space="preserve">7. Giao diện màn hình</t>
@@ -2137,9 +2134,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
+      <xdr:colOff>35640</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2153,7 +2150,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="675360" cy="969480"/>
+          <a:ext cx="675000" cy="969120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2174,9 +2171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
+      <xdr:colOff>155520</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2186,7 +2183,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2177280" y="24338880"/>
-          <a:ext cx="955440" cy="645480"/>
+          <a:ext cx="955080" cy="645120"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2245,9 +2242,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2256,8 +2253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2582640" y="23725440"/>
-          <a:ext cx="1207800" cy="618120"/>
+          <a:off x="2582640" y="23725800"/>
+          <a:ext cx="1207440" cy="617760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2302,9 +2299,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>121680</xdr:colOff>
+      <xdr:colOff>121320</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2314,7 +2311,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2779200" cy="2607840"/>
+          <a:ext cx="2778840" cy="2607480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2346,9 +2343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>73800</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2358,7 +2355,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1188000" cy="426600"/>
+          <a:ext cx="1187640" cy="426240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2416,9 +2413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64440</xdr:colOff>
+      <xdr:colOff>64080</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2428,7 +2425,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="994680" cy="397800"/>
+          <a:ext cx="994320" cy="397440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2590,9 +2587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>178560</xdr:colOff>
+      <xdr:colOff>178200</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2602,7 +2599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="913320" cy="398160"/>
+          <a:ext cx="912960" cy="397800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2658,9 +2655,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2674,7 +2671,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="675360" cy="969480"/>
+          <a:ext cx="675000" cy="969120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2695,9 +2692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>30960</xdr:colOff>
+      <xdr:colOff>30600</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2706,8 +2703,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3805200" y="23690880"/>
-          <a:ext cx="1248840" cy="579240"/>
+          <a:off x="3805560" y="23691240"/>
+          <a:ext cx="1248480" cy="578880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2752,9 +2749,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>167760</xdr:colOff>
+      <xdr:colOff>167400</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2764,7 +2761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4608000" y="24268680"/>
-          <a:ext cx="955440" cy="645480"/>
+          <a:ext cx="955080" cy="645120"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2823,9 +2820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2835,7 +2832,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3351240" y="24373800"/>
-          <a:ext cx="955440" cy="645480"/>
+          <a:ext cx="955080" cy="645120"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2894,9 +2891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>51840</xdr:colOff>
+      <xdr:colOff>51480</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2905,8 +2902,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3741480" y="23745240"/>
-          <a:ext cx="31320" cy="685800"/>
+          <a:off x="3741480" y="23745600"/>
+          <a:ext cx="30960" cy="685440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2956,9 +2953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>93240</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2968,7 +2965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4816440" cy="417240"/>
+          <a:ext cx="4816080" cy="416880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3004,9 +3001,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>82800</xdr:colOff>
+      <xdr:colOff>82440</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3020,7 +3017,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="186120" y="1038240"/>
-          <a:ext cx="8730720" cy="5398920"/>
+          <a:ext cx="8730360" cy="5398560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3043,7 +3040,7 @@
   <dimension ref="A1:AX160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E149" activeCellId="1" sqref="161:162 E149"/>
+      <selection pane="topLeft" activeCell="E149" activeCellId="0" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10950,8 +10947,8 @@
   </sheetPr>
   <dimension ref="A1:BJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A162" activeCellId="0" sqref="161:162"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T50" activeCellId="0" sqref="T50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11019,7 +11016,7 @@
       </c>
       <c r="AN1" s="6"/>
       <c r="AO1" s="7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="AP1" s="7"/>
       <c r="AQ1" s="7"/>
@@ -11200,7 +11197,7 @@
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="B5" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
@@ -11664,7 +11661,7 @@
       </c>
       <c r="AN41" s="6"/>
       <c r="AO41" s="7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
@@ -11673,7 +11670,7 @@
       </c>
       <c r="AS41" s="6"/>
       <c r="AT41" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AU41" s="8"/>
       <c r="AV41" s="8"/>
@@ -11801,7 +11798,7 @@
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -11834,7 +11831,7 @@
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="C47" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM47" s="19"/>
       <c r="AN47" s="19"/>
@@ -11852,7 +11849,7 @@
         <v>49</v>
       </c>
       <c r="D48" s="72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" s="72"/>
       <c r="F48" s="72"/>
@@ -11860,18 +11857,18 @@
       <c r="H48" s="72"/>
       <c r="I48" s="72"/>
       <c r="J48" s="104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K48" s="104"/>
       <c r="L48" s="104"/>
       <c r="M48" s="104"/>
       <c r="N48" s="104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O48" s="104"/>
       <c r="P48" s="104"/>
       <c r="Q48" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R48" s="72"/>
       <c r="S48" s="72"/>
@@ -11880,13 +11877,13 @@
       </c>
       <c r="U48" s="72"/>
       <c r="V48" s="73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W48" s="73"/>
       <c r="X48" s="73"/>
       <c r="Y48" s="73"/>
       <c r="Z48" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA48" s="105"/>
       <c r="AB48" s="105"/>
@@ -12177,7 +12174,7 @@
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
       <c r="C55" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -12231,7 +12228,7 @@
         <v>49</v>
       </c>
       <c r="D56" s="72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" s="72"/>
       <c r="F56" s="72"/>
@@ -12243,7 +12240,7 @@
       <c r="L56" s="72"/>
       <c r="M56" s="72"/>
       <c r="N56" s="145" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O56" s="145"/>
       <c r="P56" s="145"/>
@@ -12289,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="147" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57" s="97"/>
       <c r="F57" s="97"/>
@@ -12301,7 +12298,7 @@
       <c r="L57" s="97"/>
       <c r="M57" s="148"/>
       <c r="N57" s="149" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O57" s="150"/>
       <c r="P57" s="150"/>
@@ -13593,7 +13590,7 @@
       </c>
       <c r="AN82" s="6"/>
       <c r="AO82" s="7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
@@ -13739,7 +13736,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
       <c r="B86" s="59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -13772,7 +13769,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="C87" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -13805,7 +13802,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="D88" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -13867,7 +13864,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="C90" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -13900,7 +13897,7 @@
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
       <c r="D91" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
@@ -13932,7 +13929,7 @@
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
       <c r="D92" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -13964,7 +13961,7 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="D93" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
@@ -14887,7 +14884,7 @@
       </c>
       <c r="AN122" s="6"/>
       <c r="AO122" s="7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="AP122" s="7"/>
       <c r="AQ122" s="7"/>
@@ -14987,7 +14984,7 @@
       <c r="Y124" s="13"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB124" s="14"/>
       <c r="AC124" s="14"/>
@@ -15003,7 +15000,7 @@
       <c r="AK124" s="15"/>
       <c r="AL124" s="15"/>
       <c r="AM124" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN124" s="16"/>
       <c r="AO124" s="16"/>
@@ -15049,7 +15046,7 @@
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="B126" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -15082,7 +15079,7 @@
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="C127" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
@@ -15115,7 +15112,7 @@
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
       <c r="D128" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
@@ -15178,7 +15175,7 @@
       <c r="A130" s="17"/>
       <c r="D130" s="19"/>
       <c r="E130" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AV130" s="19"/>
       <c r="AW130" s="20"/>
@@ -15190,7 +15187,7 @@
         <v>49</v>
       </c>
       <c r="F131" s="72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G131" s="72"/>
       <c r="H131" s="72"/>
@@ -15198,18 +15195,18 @@
       <c r="J131" s="72"/>
       <c r="K131" s="72"/>
       <c r="L131" s="104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M131" s="104"/>
       <c r="N131" s="104"/>
       <c r="O131" s="104"/>
       <c r="P131" s="104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q131" s="104"/>
       <c r="R131" s="104"/>
       <c r="S131" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T131" s="72"/>
       <c r="U131" s="72"/>
@@ -15218,13 +15215,13 @@
       </c>
       <c r="W131" s="72"/>
       <c r="X131" s="73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y131" s="73"/>
       <c r="Z131" s="73"/>
       <c r="AA131" s="73"/>
       <c r="AB131" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC131" s="105"/>
       <c r="AD131" s="105"/>
@@ -15455,7 +15452,7 @@
       <c r="A136" s="17"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
@@ -15510,7 +15507,7 @@
         <v>49</v>
       </c>
       <c r="F137" s="72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G137" s="72"/>
       <c r="H137" s="72"/>
@@ -15522,7 +15519,7 @@
       <c r="N137" s="72"/>
       <c r="O137" s="72"/>
       <c r="P137" s="145" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q137" s="145"/>
       <c r="R137" s="145"/>
@@ -15568,7 +15565,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="147" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G138" s="97"/>
       <c r="H138" s="97"/>
@@ -15580,7 +15577,7 @@
       <c r="N138" s="97"/>
       <c r="O138" s="148"/>
       <c r="P138" s="149" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q138" s="150"/>
       <c r="R138" s="150"/>
@@ -15720,7 +15717,7 @@
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
       <c r="C141" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D141" s="19"/>
       <c r="E141" s="143"/>
@@ -15771,7 +15768,7 @@
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
       <c r="D142" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E142" s="143"/>
       <c r="F142" s="19"/>
@@ -15822,7 +15819,7 @@
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
       <c r="D143" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E143" s="143"/>
       <c r="F143" s="19"/>
@@ -15874,7 +15871,7 @@
       <c r="A144" s="17"/>
       <c r="D144" s="19"/>
       <c r="E144" s="177" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F144" s="19"/>
       <c r="G144" s="19"/>
@@ -15928,7 +15925,7 @@
         <v>49</v>
       </c>
       <c r="F145" s="179" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G145" s="179"/>
       <c r="H145" s="179"/>
@@ -15938,7 +15935,7 @@
       <c r="L145" s="179"/>
       <c r="M145" s="179"/>
       <c r="N145" s="179" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O145" s="179"/>
       <c r="P145" s="179"/>
@@ -15962,7 +15959,7 @@
       <c r="AH145" s="179"/>
       <c r="AI145" s="179"/>
       <c r="AJ145" s="179" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK145" s="179"/>
       <c r="AL145" s="179"/>
@@ -16288,7 +16285,7 @@
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
       <c r="D152" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E152" s="207"/>
       <c r="F152" s="208"/>
@@ -16340,7 +16337,7 @@
       <c r="A153" s="17"/>
       <c r="D153" s="19"/>
       <c r="E153" s="209" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F153" s="209"/>
       <c r="G153" s="209"/>
@@ -16349,7 +16346,7 @@
       <c r="J153" s="209"/>
       <c r="K153" s="209"/>
       <c r="L153" s="210" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M153" s="210"/>
       <c r="N153" s="210"/>
@@ -16685,13 +16682,13 @@
       <c r="A160" s="17"/>
       <c r="D160" s="177"/>
       <c r="E160" s="217" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F160" s="218"/>
       <c r="G160" s="218"/>
       <c r="H160" s="219"/>
       <c r="I160" s="209" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J160" s="209"/>
       <c r="K160" s="209"/>
@@ -16720,7 +16717,7 @@
       <c r="AH160" s="209"/>
       <c r="AI160" s="209"/>
       <c r="AJ160" s="209" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK160" s="209"/>
       <c r="AL160" s="209"/>
@@ -17052,7 +17049,7 @@
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="17"/>
       <c r="D168" s="177" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E168" s="24"/>
       <c r="F168" s="24"/>

--- a/design/chitiet/Cart.xlsx
+++ b/design/chitiet/Cart.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="111">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -401,6 +401,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Màn hình GIỏ hàng</t>
+  </si>
+  <si>
     <t xml:space="preserve">7. Giao diện màn hình</t>
   </si>
   <si>
@@ -431,6 +434,36 @@
     <t xml:space="preserve">Format</t>
   </si>
   <si>
+    <t xml:space="preserve">image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextView </t>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number </t>
+  </si>
+  <si>
     <t xml:space="preserve">[Vùng nút]</t>
   </si>
   <si>
@@ -438,6 +471,39 @@
   </si>
   <si>
     <t xml:space="preserve">Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">số lượng của mỗi sản phẩm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nút xóa sản phẩm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Vùng hiển thị ban đầu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giỏ hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tóm tắt đơn hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tạm tính </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phí giai hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng cộng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header </t>
+  </si>
+  <si>
+    <t xml:space="preserve">componets </t>
   </si>
   <si>
     <t xml:space="preserve">9. Khái quát chức năng</t>
@@ -461,10 +527,7 @@
     <t xml:space="preserve">trường hợp phát sinh lỗi thì hiển thị nội dung lỗi, không thực hiện di chuyển màn hình</t>
   </si>
   <si>
-    <t xml:space="preserve">Add product </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Màn hình đăng nhập</t>
+    <t xml:space="preserve">Màn hình giỏ hàng</t>
   </si>
   <si>
     <t xml:space="preserve">10. Xử lý chi tiết</t>
@@ -473,46 +536,13 @@
     <t xml:space="preserve">1. Thực hiện khởi tạo màn hình ban đầu</t>
   </si>
   <si>
-    <t xml:space="preserve">đặt hàng </t>
+    <t xml:space="preserve">(2) Xử lý xóa sản phẩm </t>
   </si>
   <si>
-    <t xml:space="preserve">(2) Xử lý thêm san phảm </t>
+    <t xml:space="preserve">(3) Xử lý cập nhật số lượng </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Nhấn nút thêm thì thực hiện xử lý.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Xử lý check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. Check hạng mục</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nội dung check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Xử lý đăng nhập</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đối tượng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Truy xuất</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thông báo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">(4) xử lý đặt hàng </t>
   </si>
 </sst>
 </file>
@@ -527,7 +557,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\年m\月d\日;@"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -639,32 +669,8 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="9"/>
-      <color rgb="FF660E7A"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF008000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,20 +701,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="52">
+  <borders count="50">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1019,13 +1013,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right/>
       <top/>
       <bottom style="thin"/>
@@ -1063,13 +1050,6 @@
       <left/>
       <right style="thin"/>
       <top style="hair"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -1111,7 +1091,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="168">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1580,10 +1560,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="29" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1620,14 +1596,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="21" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="35" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1656,13 +1624,17 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="21" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="37" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="40" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1744,8 +1716,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -1768,15 +1740,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1784,261 +1752,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="49" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="49" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="50" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="50" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="50" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="50" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="35" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="51" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="41" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2060,66 +1776,6 @@
     <cellStyle name="標準_基本要件仕様書_20061109" xfId="21"/>
     <cellStyle name="標準_基本設計書(FWIH105)" xfId="22"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFA9D18E"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660E7A"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -2964,8 +2620,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4816080" cy="416880"/>
+          <a:off x="1788840" y="1451880"/>
+          <a:ext cx="4816080" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2997,13 +2653,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>82440</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10945,13 +10601,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ1048576"/>
+  <dimension ref="A1:AMJ183"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T50" activeCellId="0" sqref="T50"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A123" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C163" activeCellId="0" sqref="C163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="2.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="59" width="2.64"/>
@@ -11132,7 +10788,7 @@
       <c r="AK3" s="15"/>
       <c r="AL3" s="15"/>
       <c r="AM3" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="AN3" s="16"/>
       <c r="AO3" s="16"/>
@@ -11194,10 +10850,10 @@
       <c r="AU4" s="19"/>
       <c r="AW4" s="20"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="B5" s="59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
@@ -11670,7 +11326,7 @@
       </c>
       <c r="AS41" s="6"/>
       <c r="AT41" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AU41" s="8"/>
       <c r="AV41" s="8"/>
@@ -11777,7 +11433,7 @@
       <c r="AK43" s="15"/>
       <c r="AL43" s="15"/>
       <c r="AM43" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="AN43" s="16"/>
       <c r="AO43" s="16"/>
@@ -11798,7 +11454,7 @@
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -11831,7 +11487,7 @@
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="C47" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AM47" s="19"/>
       <c r="AN47" s="19"/>
@@ -11849,7 +11505,7 @@
         <v>49</v>
       </c>
       <c r="D48" s="72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E48" s="72"/>
       <c r="F48" s="72"/>
@@ -11857,18 +11513,18 @@
       <c r="H48" s="72"/>
       <c r="I48" s="72"/>
       <c r="J48" s="104" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K48" s="104"/>
       <c r="L48" s="104"/>
       <c r="M48" s="104"/>
       <c r="N48" s="104" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O48" s="104"/>
       <c r="P48" s="104"/>
       <c r="Q48" s="72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R48" s="72"/>
       <c r="S48" s="72"/>
@@ -11877,13 +11533,13 @@
       </c>
       <c r="U48" s="72"/>
       <c r="V48" s="73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W48" s="73"/>
       <c r="X48" s="73"/>
       <c r="Y48" s="73"/>
       <c r="Z48" s="105" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA48" s="105"/>
       <c r="AB48" s="105"/>
@@ -11914,27 +11570,39 @@
     </row>
     <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="17"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="108"/>
+      <c r="C49" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="108" t="s">
+        <v>74</v>
+      </c>
       <c r="E49" s="109"/>
       <c r="F49" s="109"/>
       <c r="G49" s="110"/>
       <c r="H49" s="110"/>
       <c r="I49" s="111"/>
       <c r="J49" s="112"/>
-      <c r="K49" s="110"/>
+      <c r="K49" s="110" t="s">
+        <v>75</v>
+      </c>
       <c r="L49" s="110"/>
       <c r="M49" s="110"/>
       <c r="N49" s="112"/>
       <c r="O49" s="110"/>
       <c r="P49" s="110"/>
       <c r="Q49" s="112"/>
-      <c r="R49" s="110"/>
+      <c r="R49" s="110" t="s">
+        <v>76</v>
+      </c>
       <c r="S49" s="113"/>
-      <c r="T49" s="107"/>
+      <c r="T49" s="107" t="s">
+        <v>57</v>
+      </c>
       <c r="U49" s="107"/>
       <c r="V49" s="108"/>
-      <c r="W49" s="109"/>
+      <c r="W49" s="109" t="s">
+        <v>77</v>
+      </c>
       <c r="X49" s="109"/>
       <c r="Y49" s="113"/>
       <c r="Z49" s="114"/>
@@ -11965,532 +11633,581 @@
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="17"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="120"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="120"/>
-      <c r="S50" s="123"/>
-      <c r="T50" s="117"/>
-      <c r="U50" s="117"/>
-      <c r="V50" s="118"/>
-      <c r="W50" s="119"/>
-      <c r="X50" s="119"/>
-      <c r="Y50" s="123"/>
-      <c r="Z50" s="124"/>
-      <c r="AA50" s="119"/>
-      <c r="AB50" s="119"/>
-      <c r="AC50" s="119"/>
-      <c r="AD50" s="118"/>
-      <c r="AE50" s="119"/>
-      <c r="AF50" s="119"/>
-      <c r="AG50" s="119"/>
-      <c r="AH50" s="119"/>
-      <c r="AI50" s="119"/>
-      <c r="AJ50" s="119"/>
-      <c r="AK50" s="119"/>
-      <c r="AL50" s="119"/>
-      <c r="AM50" s="119"/>
-      <c r="AN50" s="119"/>
-      <c r="AO50" s="119"/>
-      <c r="AP50" s="119"/>
-      <c r="AQ50" s="119"/>
-      <c r="AR50" s="119"/>
-      <c r="AS50" s="119"/>
-      <c r="AT50" s="119"/>
-      <c r="AU50" s="119"/>
-      <c r="AV50" s="125"/>
+      <c r="C50" s="107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="121"/>
+      <c r="K50" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" s="119"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="119"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="121"/>
+      <c r="R50" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="S50" s="122"/>
+      <c r="T50" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="U50" s="107"/>
+      <c r="V50" s="108"/>
+      <c r="W50" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="X50" s="109"/>
+      <c r="Y50" s="113"/>
+      <c r="Z50" s="123"/>
+      <c r="AA50" s="118"/>
+      <c r="AB50" s="118"/>
+      <c r="AC50" s="118"/>
+      <c r="AD50" s="117"/>
+      <c r="AE50" s="118"/>
+      <c r="AF50" s="118"/>
+      <c r="AG50" s="118"/>
+      <c r="AH50" s="118"/>
+      <c r="AI50" s="118"/>
+      <c r="AJ50" s="118"/>
+      <c r="AK50" s="118"/>
+      <c r="AL50" s="118"/>
+      <c r="AM50" s="118"/>
+      <c r="AN50" s="118"/>
+      <c r="AO50" s="118"/>
+      <c r="AP50" s="118"/>
+      <c r="AQ50" s="118"/>
+      <c r="AR50" s="118"/>
+      <c r="AS50" s="118"/>
+      <c r="AT50" s="118"/>
+      <c r="AU50" s="118"/>
+      <c r="AV50" s="124"/>
       <c r="AW50" s="20"/>
       <c r="AX50" s="116"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="17"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="120"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="120"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="120"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="120"/>
-      <c r="S51" s="123"/>
-      <c r="T51" s="126"/>
-      <c r="U51" s="127"/>
-      <c r="V51" s="118"/>
-      <c r="W51" s="119"/>
-      <c r="X51" s="119"/>
-      <c r="Y51" s="123"/>
-      <c r="Z51" s="126"/>
-      <c r="AA51" s="119"/>
-      <c r="AB51" s="119"/>
-      <c r="AC51" s="119"/>
-      <c r="AD51" s="118"/>
-      <c r="AE51" s="119"/>
-      <c r="AF51" s="119"/>
-      <c r="AG51" s="119"/>
-      <c r="AH51" s="119"/>
-      <c r="AI51" s="119"/>
-      <c r="AJ51" s="119"/>
-      <c r="AK51" s="119"/>
-      <c r="AL51" s="119"/>
-      <c r="AM51" s="119"/>
-      <c r="AN51" s="119"/>
-      <c r="AO51" s="119"/>
-      <c r="AP51" s="119"/>
-      <c r="AQ51" s="119"/>
-      <c r="AR51" s="119"/>
-      <c r="AS51" s="119"/>
-      <c r="AT51" s="119"/>
-      <c r="AU51" s="119"/>
-      <c r="AV51" s="125"/>
+      <c r="C51" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="L51" s="119"/>
+      <c r="M51" s="119"/>
+      <c r="N51" s="121"/>
+      <c r="O51" s="119"/>
+      <c r="P51" s="119"/>
+      <c r="Q51" s="121"/>
+      <c r="R51" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="S51" s="122"/>
+      <c r="T51" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="U51" s="107"/>
+      <c r="V51" s="108"/>
+      <c r="W51" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="X51" s="109"/>
+      <c r="Y51" s="113"/>
+      <c r="Z51" s="125"/>
+      <c r="AA51" s="118"/>
+      <c r="AB51" s="118"/>
+      <c r="AC51" s="118"/>
+      <c r="AD51" s="117"/>
+      <c r="AE51" s="118"/>
+      <c r="AF51" s="118"/>
+      <c r="AG51" s="118"/>
+      <c r="AH51" s="118"/>
+      <c r="AI51" s="118"/>
+      <c r="AJ51" s="118"/>
+      <c r="AK51" s="118"/>
+      <c r="AL51" s="118"/>
+      <c r="AM51" s="118"/>
+      <c r="AN51" s="118"/>
+      <c r="AO51" s="118"/>
+      <c r="AP51" s="118"/>
+      <c r="AQ51" s="118"/>
+      <c r="AR51" s="118"/>
+      <c r="AS51" s="118"/>
+      <c r="AT51" s="118"/>
+      <c r="AU51" s="118"/>
+      <c r="AV51" s="124"/>
       <c r="AW51" s="20"/>
       <c r="AX51" s="116"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="17"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="131"/>
-      <c r="L52" s="131"/>
-      <c r="M52" s="131"/>
-      <c r="N52" s="133"/>
-      <c r="O52" s="131"/>
-      <c r="P52" s="131"/>
-      <c r="Q52" s="133"/>
-      <c r="R52" s="131"/>
-      <c r="S52" s="134"/>
-      <c r="T52" s="135"/>
-      <c r="U52" s="136"/>
-      <c r="V52" s="129"/>
-      <c r="W52" s="130"/>
-      <c r="X52" s="130"/>
-      <c r="Y52" s="134"/>
-      <c r="Z52" s="135"/>
-      <c r="AA52" s="130"/>
-      <c r="AB52" s="130"/>
-      <c r="AC52" s="130"/>
-      <c r="AD52" s="129"/>
-      <c r="AE52" s="130"/>
-      <c r="AF52" s="130"/>
-      <c r="AG52" s="130"/>
-      <c r="AH52" s="130"/>
-      <c r="AI52" s="130"/>
-      <c r="AJ52" s="130"/>
-      <c r="AK52" s="130"/>
-      <c r="AL52" s="130"/>
-      <c r="AM52" s="130"/>
-      <c r="AN52" s="130"/>
-      <c r="AO52" s="130"/>
-      <c r="AP52" s="130"/>
-      <c r="AQ52" s="130"/>
-      <c r="AR52" s="130"/>
-      <c r="AS52" s="130"/>
-      <c r="AT52" s="130"/>
-      <c r="AU52" s="130"/>
-      <c r="AV52" s="137"/>
+      <c r="C52" s="107" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="130"/>
+      <c r="K52" s="128" t="s">
+        <v>83</v>
+      </c>
+      <c r="L52" s="128"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="130"/>
+      <c r="O52" s="128"/>
+      <c r="P52" s="128"/>
+      <c r="Q52" s="130"/>
+      <c r="R52" s="128" t="s">
+        <v>76</v>
+      </c>
+      <c r="S52" s="131"/>
+      <c r="T52" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="U52" s="107"/>
+      <c r="V52" s="108"/>
+      <c r="W52" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="X52" s="109"/>
+      <c r="Y52" s="113"/>
+      <c r="Z52" s="132"/>
+      <c r="AA52" s="127"/>
+      <c r="AB52" s="127"/>
+      <c r="AC52" s="127"/>
+      <c r="AD52" s="126"/>
+      <c r="AE52" s="127"/>
+      <c r="AF52" s="127"/>
+      <c r="AG52" s="127"/>
+      <c r="AH52" s="127"/>
+      <c r="AI52" s="127"/>
+      <c r="AJ52" s="127"/>
+      <c r="AK52" s="127"/>
+      <c r="AL52" s="127"/>
+      <c r="AM52" s="127"/>
+      <c r="AN52" s="127"/>
+      <c r="AO52" s="127"/>
+      <c r="AP52" s="127"/>
+      <c r="AQ52" s="127"/>
+      <c r="AR52" s="127"/>
+      <c r="AS52" s="127"/>
+      <c r="AT52" s="127"/>
+      <c r="AU52" s="127"/>
+      <c r="AV52" s="133"/>
       <c r="AW52" s="20"/>
       <c r="AX52" s="116"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="17"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="140"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="140"/>
-      <c r="K53" s="140"/>
-      <c r="L53" s="140"/>
-      <c r="M53" s="140"/>
-      <c r="N53" s="140"/>
-      <c r="O53" s="140"/>
-      <c r="P53" s="140"/>
-      <c r="Q53" s="140"/>
-      <c r="R53" s="140"/>
-      <c r="S53" s="139"/>
-      <c r="T53" s="138"/>
-      <c r="U53" s="141"/>
-      <c r="V53" s="139"/>
-      <c r="W53" s="139"/>
-      <c r="X53" s="139"/>
-      <c r="Y53" s="139"/>
-      <c r="Z53" s="138"/>
-      <c r="AA53" s="139"/>
-      <c r="AB53" s="139"/>
-      <c r="AC53" s="139"/>
-      <c r="AD53" s="139"/>
-      <c r="AE53" s="139"/>
-      <c r="AF53" s="139"/>
-      <c r="AG53" s="139"/>
-      <c r="AH53" s="139"/>
-      <c r="AI53" s="139"/>
-      <c r="AJ53" s="139"/>
-      <c r="AK53" s="139"/>
-      <c r="AL53" s="139"/>
-      <c r="AM53" s="139"/>
-      <c r="AN53" s="139"/>
-      <c r="AO53" s="139"/>
-      <c r="AP53" s="139"/>
-      <c r="AQ53" s="139"/>
-      <c r="AR53" s="139"/>
-      <c r="AS53" s="139"/>
-      <c r="AT53" s="139"/>
-      <c r="AU53" s="139"/>
-      <c r="AV53" s="142"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="130"/>
+      <c r="R53" s="128"/>
+      <c r="S53" s="131"/>
+      <c r="T53" s="132"/>
+      <c r="U53" s="135"/>
+      <c r="V53" s="126"/>
+      <c r="W53" s="127"/>
+      <c r="X53" s="127"/>
+      <c r="Y53" s="131"/>
+      <c r="Z53" s="132"/>
+      <c r="AA53" s="127"/>
+      <c r="AB53" s="127"/>
+      <c r="AC53" s="127"/>
+      <c r="AD53" s="126"/>
+      <c r="AE53" s="127"/>
+      <c r="AF53" s="127"/>
+      <c r="AG53" s="127"/>
+      <c r="AH53" s="127"/>
+      <c r="AI53" s="127"/>
+      <c r="AJ53" s="127"/>
+      <c r="AK53" s="127"/>
+      <c r="AL53" s="127"/>
+      <c r="AM53" s="127"/>
+      <c r="AN53" s="127"/>
+      <c r="AO53" s="127"/>
+      <c r="AP53" s="127"/>
+      <c r="AQ53" s="127"/>
+      <c r="AR53" s="127"/>
+      <c r="AS53" s="127"/>
+      <c r="AT53" s="127"/>
+      <c r="AU53" s="127"/>
+      <c r="AV53" s="133"/>
       <c r="AW53" s="20"/>
       <c r="AX53" s="116"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="17"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="138"/>
+      <c r="H54" s="138"/>
+      <c r="I54" s="138"/>
+      <c r="J54" s="138"/>
+      <c r="K54" s="138"/>
+      <c r="L54" s="138"/>
+      <c r="M54" s="138"/>
+      <c r="N54" s="138"/>
+      <c r="O54" s="138"/>
+      <c r="P54" s="138"/>
+      <c r="Q54" s="138"/>
+      <c r="R54" s="138"/>
+      <c r="S54" s="137"/>
+      <c r="T54" s="136"/>
+      <c r="U54" s="139"/>
+      <c r="V54" s="137"/>
+      <c r="W54" s="137"/>
+      <c r="X54" s="137"/>
+      <c r="Y54" s="137"/>
+      <c r="Z54" s="136"/>
+      <c r="AA54" s="137"/>
+      <c r="AB54" s="137"/>
+      <c r="AC54" s="137"/>
+      <c r="AD54" s="137"/>
+      <c r="AE54" s="137"/>
+      <c r="AF54" s="137"/>
+      <c r="AG54" s="137"/>
+      <c r="AH54" s="137"/>
+      <c r="AI54" s="137"/>
+      <c r="AJ54" s="137"/>
+      <c r="AK54" s="137"/>
+      <c r="AL54" s="137"/>
+      <c r="AM54" s="137"/>
+      <c r="AN54" s="137"/>
+      <c r="AO54" s="137"/>
+      <c r="AP54" s="137"/>
+      <c r="AQ54" s="137"/>
+      <c r="AR54" s="137"/>
+      <c r="AS54" s="137"/>
+      <c r="AT54" s="137"/>
+      <c r="AU54" s="137"/>
+      <c r="AV54" s="140"/>
       <c r="AW54" s="20"/>
+      <c r="AX54" s="116"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
-      <c r="C55" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="143"/>
-      <c r="X55" s="143"/>
-      <c r="Y55" s="143"/>
-      <c r="Z55" s="143"/>
-      <c r="AA55" s="19"/>
-      <c r="AB55" s="19"/>
-      <c r="AC55" s="19"/>
-      <c r="AD55" s="19"/>
-      <c r="AE55" s="143"/>
-      <c r="AF55" s="143"/>
-      <c r="AG55" s="19"/>
-      <c r="AH55" s="19"/>
-      <c r="AI55" s="19"/>
-      <c r="AJ55" s="19"/>
-      <c r="AK55" s="19"/>
-      <c r="AL55" s="19"/>
-      <c r="AM55" s="19"/>
-      <c r="AN55" s="19"/>
-      <c r="AO55" s="19"/>
-      <c r="AP55" s="19"/>
-      <c r="AQ55" s="19"/>
-      <c r="AR55" s="19"/>
-      <c r="AS55" s="19"/>
-      <c r="AT55" s="19"/>
-      <c r="AU55" s="19"/>
       <c r="AW55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
-      <c r="C56" s="144" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="145" t="s">
-        <v>71</v>
-      </c>
-      <c r="O56" s="145"/>
-      <c r="P56" s="145"/>
-      <c r="Q56" s="145"/>
-      <c r="R56" s="145"/>
-      <c r="S56" s="145"/>
-      <c r="T56" s="145"/>
-      <c r="U56" s="145"/>
-      <c r="V56" s="145"/>
-      <c r="W56" s="145"/>
-      <c r="X56" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y56" s="73"/>
-      <c r="Z56" s="73"/>
-      <c r="AA56" s="73"/>
-      <c r="AB56" s="73"/>
-      <c r="AC56" s="73"/>
-      <c r="AD56" s="73"/>
-      <c r="AE56" s="73"/>
-      <c r="AF56" s="73"/>
-      <c r="AG56" s="73"/>
-      <c r="AH56" s="73"/>
-      <c r="AI56" s="73"/>
-      <c r="AJ56" s="73"/>
-      <c r="AK56" s="73"/>
-      <c r="AL56" s="73"/>
-      <c r="AM56" s="73"/>
-      <c r="AN56" s="73"/>
-      <c r="AO56" s="73"/>
-      <c r="AP56" s="73"/>
-      <c r="AQ56" s="73"/>
-      <c r="AR56" s="73"/>
-      <c r="AS56" s="73"/>
-      <c r="AT56" s="73"/>
-      <c r="AU56" s="73"/>
-      <c r="AV56" s="73"/>
+      <c r="C56" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="141"/>
+      <c r="X56" s="141"/>
+      <c r="Y56" s="141"/>
+      <c r="Z56" s="141"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="141"/>
+      <c r="AF56" s="141"/>
+      <c r="AG56" s="19"/>
+      <c r="AH56" s="19"/>
+      <c r="AI56" s="19"/>
+      <c r="AJ56" s="19"/>
+      <c r="AK56" s="19"/>
+      <c r="AL56" s="19"/>
+      <c r="AM56" s="19"/>
+      <c r="AN56" s="19"/>
+      <c r="AO56" s="19"/>
+      <c r="AP56" s="19"/>
+      <c r="AQ56" s="19"/>
+      <c r="AR56" s="19"/>
+      <c r="AS56" s="19"/>
+      <c r="AT56" s="19"/>
+      <c r="AU56" s="19"/>
       <c r="AW56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="17"/>
-      <c r="C57" s="146" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="147" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="97"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="97"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="97"/>
-      <c r="L57" s="97"/>
-      <c r="M57" s="148"/>
-      <c r="N57" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="O57" s="150"/>
-      <c r="P57" s="150"/>
-      <c r="Q57" s="150"/>
-      <c r="R57" s="150"/>
-      <c r="S57" s="150"/>
-      <c r="T57" s="150"/>
-      <c r="U57" s="150"/>
-      <c r="V57" s="150"/>
-      <c r="W57" s="151"/>
-      <c r="X57" s="149"/>
-      <c r="Y57" s="152"/>
-      <c r="Z57" s="152"/>
-      <c r="AA57" s="152"/>
-      <c r="AB57" s="150"/>
-      <c r="AC57" s="150"/>
-      <c r="AD57" s="150"/>
-      <c r="AE57" s="150"/>
-      <c r="AF57" s="152"/>
-      <c r="AG57" s="152"/>
-      <c r="AH57" s="150"/>
-      <c r="AI57" s="150"/>
-      <c r="AJ57" s="150"/>
-      <c r="AK57" s="150"/>
-      <c r="AL57" s="150"/>
-      <c r="AM57" s="150"/>
-      <c r="AN57" s="150"/>
-      <c r="AO57" s="150"/>
-      <c r="AP57" s="150"/>
-      <c r="AQ57" s="150"/>
-      <c r="AR57" s="150"/>
-      <c r="AS57" s="150"/>
-      <c r="AT57" s="150"/>
-      <c r="AU57" s="150"/>
-      <c r="AV57" s="151"/>
+      <c r="C57" s="142" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="O57" s="143"/>
+      <c r="P57" s="143"/>
+      <c r="Q57" s="143"/>
+      <c r="R57" s="143"/>
+      <c r="S57" s="143"/>
+      <c r="T57" s="143"/>
+      <c r="U57" s="143"/>
+      <c r="V57" s="143"/>
+      <c r="W57" s="143"/>
+      <c r="X57" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y57" s="73"/>
+      <c r="Z57" s="73"/>
+      <c r="AA57" s="73"/>
+      <c r="AB57" s="73"/>
+      <c r="AC57" s="73"/>
+      <c r="AD57" s="73"/>
+      <c r="AE57" s="73"/>
+      <c r="AF57" s="73"/>
+      <c r="AG57" s="73"/>
+      <c r="AH57" s="73"/>
+      <c r="AI57" s="73"/>
+      <c r="AJ57" s="73"/>
+      <c r="AK57" s="73"/>
+      <c r="AL57" s="73"/>
+      <c r="AM57" s="73"/>
+      <c r="AN57" s="73"/>
+      <c r="AO57" s="73"/>
+      <c r="AP57" s="73"/>
+      <c r="AQ57" s="73"/>
+      <c r="AR57" s="73"/>
+      <c r="AS57" s="73"/>
+      <c r="AT57" s="73"/>
+      <c r="AU57" s="73"/>
+      <c r="AV57" s="73"/>
       <c r="AW57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
-      <c r="C58" s="153"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="155"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="156"/>
-      <c r="N58" s="154"/>
-      <c r="O58" s="155"/>
-      <c r="P58" s="155"/>
-      <c r="Q58" s="155"/>
-      <c r="R58" s="155"/>
-      <c r="S58" s="155"/>
-      <c r="T58" s="155"/>
-      <c r="U58" s="155"/>
-      <c r="V58" s="155"/>
-      <c r="W58" s="156"/>
-      <c r="X58" s="154"/>
-      <c r="Y58" s="157"/>
-      <c r="Z58" s="157"/>
-      <c r="AA58" s="157"/>
-      <c r="AB58" s="155"/>
-      <c r="AC58" s="155"/>
-      <c r="AD58" s="155"/>
-      <c r="AE58" s="155"/>
-      <c r="AF58" s="157"/>
-      <c r="AG58" s="157"/>
-      <c r="AH58" s="155"/>
-      <c r="AI58" s="155"/>
-      <c r="AJ58" s="155"/>
-      <c r="AK58" s="155"/>
-      <c r="AL58" s="155"/>
-      <c r="AM58" s="155"/>
-      <c r="AN58" s="155"/>
-      <c r="AO58" s="155"/>
-      <c r="AP58" s="155"/>
-      <c r="AQ58" s="155"/>
-      <c r="AR58" s="155"/>
-      <c r="AS58" s="155"/>
-      <c r="AT58" s="155"/>
-      <c r="AU58" s="155"/>
-      <c r="AV58" s="156"/>
+      <c r="C58" s="144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="145" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="97"/>
+      <c r="H58" s="97"/>
+      <c r="I58" s="97"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="97"/>
+      <c r="L58" s="97"/>
+      <c r="M58" s="146"/>
+      <c r="N58" s="147" t="s">
+        <v>86</v>
+      </c>
+      <c r="O58" s="148"/>
+      <c r="P58" s="148"/>
+      <c r="Q58" s="148"/>
+      <c r="R58" s="148"/>
+      <c r="S58" s="148"/>
+      <c r="T58" s="148"/>
+      <c r="U58" s="148"/>
+      <c r="V58" s="148"/>
+      <c r="W58" s="149"/>
+      <c r="X58" s="147"/>
+      <c r="Y58" s="150"/>
+      <c r="Z58" s="150"/>
+      <c r="AA58" s="150"/>
+      <c r="AB58" s="148"/>
+      <c r="AC58" s="148"/>
+      <c r="AD58" s="148"/>
+      <c r="AE58" s="148"/>
+      <c r="AF58" s="150"/>
+      <c r="AG58" s="150"/>
+      <c r="AH58" s="148"/>
+      <c r="AI58" s="148"/>
+      <c r="AJ58" s="148"/>
+      <c r="AK58" s="148"/>
+      <c r="AL58" s="148"/>
+      <c r="AM58" s="148"/>
+      <c r="AN58" s="148"/>
+      <c r="AO58" s="148"/>
+      <c r="AP58" s="148"/>
+      <c r="AQ58" s="148"/>
+      <c r="AR58" s="148"/>
+      <c r="AS58" s="148"/>
+      <c r="AT58" s="148"/>
+      <c r="AU58" s="148"/>
+      <c r="AV58" s="149"/>
       <c r="AW58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
-      <c r="C59" s="158"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="160"/>
-      <c r="F59" s="160"/>
-      <c r="G59" s="160"/>
-      <c r="H59" s="160"/>
-      <c r="I59" s="160"/>
-      <c r="J59" s="160"/>
-      <c r="K59" s="160"/>
-      <c r="L59" s="160"/>
-      <c r="M59" s="161"/>
-      <c r="N59" s="162"/>
-      <c r="O59" s="163"/>
-      <c r="P59" s="163"/>
-      <c r="Q59" s="163"/>
-      <c r="R59" s="163"/>
-      <c r="S59" s="163"/>
-      <c r="T59" s="163"/>
-      <c r="U59" s="163"/>
-      <c r="V59" s="163"/>
-      <c r="W59" s="164"/>
-      <c r="X59" s="162"/>
-      <c r="Y59" s="165"/>
-      <c r="Z59" s="165"/>
-      <c r="AA59" s="165"/>
-      <c r="AB59" s="163"/>
-      <c r="AC59" s="163"/>
-      <c r="AD59" s="163"/>
-      <c r="AE59" s="163"/>
-      <c r="AF59" s="165"/>
-      <c r="AG59" s="165"/>
-      <c r="AH59" s="163"/>
-      <c r="AI59" s="163"/>
-      <c r="AJ59" s="163"/>
-      <c r="AK59" s="163"/>
-      <c r="AL59" s="163"/>
-      <c r="AM59" s="163"/>
-      <c r="AN59" s="163"/>
-      <c r="AO59" s="163"/>
-      <c r="AP59" s="163"/>
-      <c r="AQ59" s="163"/>
-      <c r="AR59" s="163"/>
-      <c r="AS59" s="163"/>
-      <c r="AT59" s="163"/>
-      <c r="AU59" s="163"/>
-      <c r="AV59" s="166"/>
+      <c r="C59" s="151" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" s="152" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="153"/>
+      <c r="F59" s="153"/>
+      <c r="G59" s="153"/>
+      <c r="H59" s="153"/>
+      <c r="I59" s="153"/>
+      <c r="J59" s="153"/>
+      <c r="K59" s="153"/>
+      <c r="L59" s="153"/>
+      <c r="M59" s="154"/>
+      <c r="N59" s="152" t="s">
+        <v>88</v>
+      </c>
+      <c r="O59" s="153"/>
+      <c r="P59" s="153"/>
+      <c r="Q59" s="153"/>
+      <c r="R59" s="153"/>
+      <c r="S59" s="153"/>
+      <c r="T59" s="153"/>
+      <c r="U59" s="153"/>
+      <c r="V59" s="153"/>
+      <c r="W59" s="154"/>
+      <c r="X59" s="152"/>
+      <c r="Y59" s="155"/>
+      <c r="Z59" s="155"/>
+      <c r="AA59" s="155"/>
+      <c r="AB59" s="153"/>
+      <c r="AC59" s="153"/>
+      <c r="AD59" s="153"/>
+      <c r="AE59" s="153"/>
+      <c r="AF59" s="155"/>
+      <c r="AG59" s="155"/>
+      <c r="AH59" s="153"/>
+      <c r="AI59" s="153"/>
+      <c r="AJ59" s="153"/>
+      <c r="AK59" s="153"/>
+      <c r="AL59" s="153"/>
+      <c r="AM59" s="153"/>
+      <c r="AN59" s="153"/>
+      <c r="AO59" s="153"/>
+      <c r="AP59" s="153"/>
+      <c r="AQ59" s="153"/>
+      <c r="AR59" s="153"/>
+      <c r="AS59" s="153"/>
+      <c r="AT59" s="153"/>
+      <c r="AU59" s="153"/>
+      <c r="AV59" s="154"/>
       <c r="AW59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="17"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="143"/>
-      <c r="Z60" s="143"/>
-      <c r="AA60" s="143"/>
-      <c r="AB60" s="19"/>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="19"/>
-      <c r="AF60" s="143"/>
-      <c r="AG60" s="143"/>
-      <c r="AH60" s="19"/>
-      <c r="AI60" s="19"/>
-      <c r="AJ60" s="19"/>
-      <c r="AK60" s="19"/>
-      <c r="AL60" s="19"/>
-      <c r="AM60" s="19"/>
-      <c r="AN60" s="19"/>
-      <c r="AO60" s="19"/>
-      <c r="AP60" s="19"/>
-      <c r="AQ60" s="19"/>
-      <c r="AR60" s="19"/>
-      <c r="AS60" s="19"/>
-      <c r="AT60" s="19"/>
-      <c r="AU60" s="19"/>
+      <c r="C60" s="151" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" s="156" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="157"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="157"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="157"/>
+      <c r="M60" s="158"/>
+      <c r="N60" s="159" t="s">
+        <v>86</v>
+      </c>
+      <c r="O60" s="160"/>
+      <c r="P60" s="160"/>
+      <c r="Q60" s="160"/>
+      <c r="R60" s="160"/>
+      <c r="S60" s="160"/>
+      <c r="T60" s="160"/>
+      <c r="U60" s="160"/>
+      <c r="V60" s="160"/>
+      <c r="W60" s="161"/>
+      <c r="X60" s="159"/>
+      <c r="Y60" s="162"/>
+      <c r="Z60" s="162"/>
+      <c r="AA60" s="162"/>
+      <c r="AB60" s="160"/>
+      <c r="AC60" s="160"/>
+      <c r="AD60" s="160"/>
+      <c r="AE60" s="160"/>
+      <c r="AF60" s="162"/>
+      <c r="AG60" s="162"/>
+      <c r="AH60" s="160"/>
+      <c r="AI60" s="160"/>
+      <c r="AJ60" s="160"/>
+      <c r="AK60" s="160"/>
+      <c r="AL60" s="160"/>
+      <c r="AM60" s="160"/>
+      <c r="AN60" s="160"/>
+      <c r="AO60" s="160"/>
+      <c r="AP60" s="160"/>
+      <c r="AQ60" s="160"/>
+      <c r="AR60" s="160"/>
+      <c r="AS60" s="160"/>
+      <c r="AT60" s="160"/>
+      <c r="AU60" s="160"/>
+      <c r="AV60" s="163"/>
       <c r="AW60" s="20"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="17"/>
       <c r="B61" s="28"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="167"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
@@ -12511,15 +12228,15 @@
       <c r="V61" s="19"/>
       <c r="W61" s="19"/>
       <c r="X61" s="19"/>
-      <c r="Y61" s="143"/>
-      <c r="Z61" s="143"/>
-      <c r="AA61" s="143"/>
+      <c r="Y61" s="141"/>
+      <c r="Z61" s="141"/>
+      <c r="AA61" s="141"/>
       <c r="AB61" s="19"/>
       <c r="AC61" s="19"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
-      <c r="AF61" s="143"/>
-      <c r="AG61" s="143"/>
+      <c r="AF61" s="141"/>
+      <c r="AG61" s="141"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
       <c r="AJ61" s="19"/>
@@ -12539,8 +12256,8 @@
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="17"/>
       <c r="B62" s="28"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="167"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
@@ -12561,15 +12278,15 @@
       <c r="V62" s="19"/>
       <c r="W62" s="19"/>
       <c r="X62" s="19"/>
-      <c r="Y62" s="143"/>
-      <c r="Z62" s="143"/>
-      <c r="AA62" s="143"/>
+      <c r="Y62" s="141"/>
+      <c r="Z62" s="141"/>
+      <c r="AA62" s="141"/>
       <c r="AB62" s="19"/>
       <c r="AC62" s="19"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
-      <c r="AF62" s="143"/>
-      <c r="AG62" s="143"/>
+      <c r="AF62" s="141"/>
+      <c r="AG62" s="141"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
       <c r="AJ62" s="19"/>
@@ -12589,8 +12306,8 @@
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="17"/>
       <c r="B63" s="28"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="167"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
@@ -12611,15 +12328,15 @@
       <c r="V63" s="19"/>
       <c r="W63" s="19"/>
       <c r="X63" s="19"/>
-      <c r="Y63" s="143"/>
-      <c r="Z63" s="143"/>
-      <c r="AA63" s="143"/>
+      <c r="Y63" s="141"/>
+      <c r="Z63" s="141"/>
+      <c r="AA63" s="141"/>
       <c r="AB63" s="19"/>
       <c r="AC63" s="19"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
-      <c r="AF63" s="143"/>
-      <c r="AG63" s="143"/>
+      <c r="AF63" s="141"/>
+      <c r="AG63" s="141"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
       <c r="AJ63" s="19"/>
@@ -12638,9 +12355,10 @@
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="17"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="143"/>
-      <c r="D64" s="167"/>
+      <c r="C64" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
@@ -12659,17 +12377,17 @@
       <c r="T64" s="19"/>
       <c r="U64" s="19"/>
       <c r="V64" s="19"/>
-      <c r="W64" s="19"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="143"/>
-      <c r="Z64" s="143"/>
-      <c r="AA64" s="143"/>
+      <c r="W64" s="141"/>
+      <c r="X64" s="141"/>
+      <c r="Y64" s="141"/>
+      <c r="Z64" s="141"/>
+      <c r="AA64" s="19"/>
       <c r="AB64" s="19"/>
       <c r="AC64" s="19"/>
       <c r="AD64" s="19"/>
-      <c r="AE64" s="19"/>
-      <c r="AF64" s="143"/>
-      <c r="AG64" s="143"/>
+      <c r="AE64" s="141"/>
+      <c r="AF64" s="141"/>
+      <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
       <c r="AJ64" s="19"/>
@@ -12688,359 +12406,406 @@
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="143"/>
-      <c r="D65" s="167"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="19"/>
-      <c r="W65" s="19"/>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="143"/>
-      <c r="Z65" s="143"/>
-      <c r="AA65" s="143"/>
-      <c r="AB65" s="19"/>
-      <c r="AC65" s="19"/>
-      <c r="AD65" s="19"/>
-      <c r="AE65" s="19"/>
-      <c r="AF65" s="143"/>
-      <c r="AG65" s="143"/>
-      <c r="AH65" s="19"/>
-      <c r="AI65" s="19"/>
-      <c r="AJ65" s="19"/>
-      <c r="AK65" s="19"/>
-      <c r="AL65" s="19"/>
-      <c r="AM65" s="19"/>
-      <c r="AN65" s="19"/>
-      <c r="AO65" s="19"/>
-      <c r="AP65" s="19"/>
-      <c r="AQ65" s="19"/>
-      <c r="AR65" s="19"/>
-      <c r="AS65" s="19"/>
-      <c r="AT65" s="19"/>
-      <c r="AU65" s="19"/>
+      <c r="C65" s="142" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="72"/>
+      <c r="N65" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="O65" s="143"/>
+      <c r="P65" s="143"/>
+      <c r="Q65" s="143"/>
+      <c r="R65" s="143"/>
+      <c r="S65" s="143"/>
+      <c r="T65" s="143"/>
+      <c r="U65" s="143"/>
+      <c r="V65" s="143"/>
+      <c r="W65" s="143"/>
+      <c r="X65" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y65" s="73"/>
+      <c r="Z65" s="73"/>
+      <c r="AA65" s="73"/>
+      <c r="AB65" s="73"/>
+      <c r="AC65" s="73"/>
+      <c r="AD65" s="73"/>
+      <c r="AE65" s="73"/>
+      <c r="AF65" s="73"/>
+      <c r="AG65" s="73"/>
+      <c r="AH65" s="73"/>
+      <c r="AI65" s="73"/>
+      <c r="AJ65" s="73"/>
+      <c r="AK65" s="73"/>
+      <c r="AL65" s="73"/>
+      <c r="AM65" s="73"/>
+      <c r="AN65" s="73"/>
+      <c r="AO65" s="73"/>
+      <c r="AP65" s="73"/>
+      <c r="AQ65" s="73"/>
+      <c r="AR65" s="73"/>
+      <c r="AS65" s="73"/>
+      <c r="AT65" s="73"/>
+      <c r="AU65" s="73"/>
+      <c r="AV65" s="73"/>
       <c r="AW65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="143"/>
-      <c r="D66" s="167"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19"/>
-      <c r="W66" s="19"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="143"/>
-      <c r="Z66" s="143"/>
-      <c r="AA66" s="143"/>
-      <c r="AB66" s="19"/>
-      <c r="AC66" s="19"/>
-      <c r="AD66" s="19"/>
-      <c r="AE66" s="19"/>
-      <c r="AF66" s="143"/>
-      <c r="AG66" s="143"/>
-      <c r="AH66" s="19"/>
-      <c r="AI66" s="19"/>
-      <c r="AJ66" s="19"/>
-      <c r="AK66" s="19"/>
-      <c r="AL66" s="19"/>
-      <c r="AM66" s="19"/>
-      <c r="AN66" s="19"/>
-      <c r="AO66" s="19"/>
-      <c r="AP66" s="19"/>
-      <c r="AQ66" s="19"/>
-      <c r="AR66" s="19"/>
-      <c r="AS66" s="19"/>
-      <c r="AT66" s="19"/>
-      <c r="AU66" s="19"/>
+      <c r="C66" s="144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="97"/>
+      <c r="K66" s="97"/>
+      <c r="L66" s="97"/>
+      <c r="M66" s="146"/>
+      <c r="N66" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="O66" s="148"/>
+      <c r="P66" s="148"/>
+      <c r="Q66" s="148"/>
+      <c r="R66" s="148"/>
+      <c r="S66" s="148"/>
+      <c r="T66" s="148"/>
+      <c r="U66" s="148"/>
+      <c r="V66" s="148"/>
+      <c r="W66" s="149"/>
+      <c r="X66" s="147"/>
+      <c r="Y66" s="150"/>
+      <c r="Z66" s="150"/>
+      <c r="AA66" s="150"/>
+      <c r="AB66" s="148"/>
+      <c r="AC66" s="148"/>
+      <c r="AD66" s="148"/>
+      <c r="AE66" s="148"/>
+      <c r="AF66" s="150"/>
+      <c r="AG66" s="150"/>
+      <c r="AH66" s="148"/>
+      <c r="AI66" s="148"/>
+      <c r="AJ66" s="148"/>
+      <c r="AK66" s="148"/>
+      <c r="AL66" s="148"/>
+      <c r="AM66" s="148"/>
+      <c r="AN66" s="148"/>
+      <c r="AO66" s="148"/>
+      <c r="AP66" s="148"/>
+      <c r="AQ66" s="148"/>
+      <c r="AR66" s="148"/>
+      <c r="AS66" s="148"/>
+      <c r="AT66" s="148"/>
+      <c r="AU66" s="148"/>
+      <c r="AV66" s="149"/>
       <c r="AW66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="17"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="167"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
-      <c r="V67" s="19"/>
-      <c r="W67" s="19"/>
-      <c r="X67" s="19"/>
-      <c r="Y67" s="143"/>
-      <c r="Z67" s="143"/>
-      <c r="AA67" s="143"/>
-      <c r="AB67" s="19"/>
-      <c r="AC67" s="19"/>
-      <c r="AD67" s="19"/>
-      <c r="AE67" s="19"/>
-      <c r="AF67" s="143"/>
-      <c r="AG67" s="143"/>
-      <c r="AH67" s="19"/>
-      <c r="AI67" s="19"/>
-      <c r="AJ67" s="19"/>
-      <c r="AK67" s="19"/>
-      <c r="AL67" s="19"/>
-      <c r="AM67" s="19"/>
-      <c r="AN67" s="19"/>
-      <c r="AO67" s="19"/>
-      <c r="AP67" s="19"/>
-      <c r="AQ67" s="19"/>
-      <c r="AR67" s="19"/>
-      <c r="AS67" s="19"/>
-      <c r="AT67" s="19"/>
-      <c r="AU67" s="19"/>
+      <c r="C67" s="144" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" s="152" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="153"/>
+      <c r="F67" s="153"/>
+      <c r="G67" s="153"/>
+      <c r="H67" s="153"/>
+      <c r="I67" s="153"/>
+      <c r="J67" s="153"/>
+      <c r="K67" s="153"/>
+      <c r="L67" s="153"/>
+      <c r="M67" s="154"/>
+      <c r="N67" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="O67" s="148"/>
+      <c r="P67" s="148"/>
+      <c r="Q67" s="148"/>
+      <c r="R67" s="148"/>
+      <c r="S67" s="148"/>
+      <c r="T67" s="148"/>
+      <c r="U67" s="148"/>
+      <c r="V67" s="148"/>
+      <c r="W67" s="149"/>
+      <c r="X67" s="152"/>
+      <c r="Y67" s="155"/>
+      <c r="Z67" s="155"/>
+      <c r="AA67" s="155"/>
+      <c r="AB67" s="153"/>
+      <c r="AC67" s="153"/>
+      <c r="AD67" s="153"/>
+      <c r="AE67" s="153"/>
+      <c r="AF67" s="155"/>
+      <c r="AG67" s="155"/>
+      <c r="AH67" s="153"/>
+      <c r="AI67" s="153"/>
+      <c r="AJ67" s="153"/>
+      <c r="AK67" s="153"/>
+      <c r="AL67" s="153"/>
+      <c r="AM67" s="153"/>
+      <c r="AN67" s="153"/>
+      <c r="AO67" s="153"/>
+      <c r="AP67" s="153"/>
+      <c r="AQ67" s="153"/>
+      <c r="AR67" s="153"/>
+      <c r="AS67" s="153"/>
+      <c r="AT67" s="153"/>
+      <c r="AU67" s="153"/>
+      <c r="AV67" s="154"/>
       <c r="AW67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="17"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="143"/>
-      <c r="D68" s="167"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="143"/>
-      <c r="Z68" s="143"/>
-      <c r="AA68" s="143"/>
-      <c r="AB68" s="19"/>
-      <c r="AC68" s="19"/>
-      <c r="AD68" s="19"/>
-      <c r="AE68" s="19"/>
-      <c r="AF68" s="143"/>
-      <c r="AG68" s="143"/>
-      <c r="AH68" s="19"/>
-      <c r="AI68" s="19"/>
-      <c r="AJ68" s="19"/>
-      <c r="AK68" s="19"/>
-      <c r="AL68" s="19"/>
-      <c r="AM68" s="19"/>
-      <c r="AN68" s="19"/>
-      <c r="AO68" s="19"/>
-      <c r="AP68" s="19"/>
-      <c r="AQ68" s="19"/>
-      <c r="AR68" s="19"/>
-      <c r="AS68" s="19"/>
-      <c r="AT68" s="19"/>
-      <c r="AU68" s="19"/>
+      <c r="C68" s="144" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="157"/>
+      <c r="F68" s="157"/>
+      <c r="G68" s="157"/>
+      <c r="H68" s="157"/>
+      <c r="I68" s="157"/>
+      <c r="J68" s="157"/>
+      <c r="K68" s="157"/>
+      <c r="L68" s="157"/>
+      <c r="M68" s="158"/>
+      <c r="N68" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="O68" s="148"/>
+      <c r="P68" s="148"/>
+      <c r="Q68" s="148"/>
+      <c r="R68" s="148"/>
+      <c r="S68" s="148"/>
+      <c r="T68" s="148"/>
+      <c r="U68" s="148"/>
+      <c r="V68" s="148"/>
+      <c r="W68" s="149"/>
+      <c r="X68" s="159"/>
+      <c r="Y68" s="162"/>
+      <c r="Z68" s="162"/>
+      <c r="AA68" s="162"/>
+      <c r="AB68" s="160"/>
+      <c r="AC68" s="160"/>
+      <c r="AD68" s="160"/>
+      <c r="AE68" s="160"/>
+      <c r="AF68" s="162"/>
+      <c r="AG68" s="162"/>
+      <c r="AH68" s="160"/>
+      <c r="AI68" s="160"/>
+      <c r="AJ68" s="160"/>
+      <c r="AK68" s="160"/>
+      <c r="AL68" s="160"/>
+      <c r="AM68" s="160"/>
+      <c r="AN68" s="160"/>
+      <c r="AO68" s="160"/>
+      <c r="AP68" s="160"/>
+      <c r="AQ68" s="160"/>
+      <c r="AR68" s="160"/>
+      <c r="AS68" s="160"/>
+      <c r="AT68" s="160"/>
+      <c r="AU68" s="160"/>
+      <c r="AV68" s="163"/>
       <c r="AW68" s="20"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="17"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="143"/>
-      <c r="D69" s="167"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
-      <c r="T69" s="19"/>
-      <c r="U69" s="19"/>
-      <c r="V69" s="19"/>
-      <c r="W69" s="19"/>
-      <c r="X69" s="19"/>
-      <c r="Y69" s="143"/>
-      <c r="Z69" s="143"/>
-      <c r="AA69" s="143"/>
-      <c r="AB69" s="19"/>
-      <c r="AC69" s="19"/>
-      <c r="AD69" s="19"/>
-      <c r="AE69" s="19"/>
-      <c r="AF69" s="143"/>
-      <c r="AG69" s="143"/>
-      <c r="AH69" s="19"/>
-      <c r="AI69" s="19"/>
-      <c r="AJ69" s="19"/>
-      <c r="AK69" s="19"/>
-      <c r="AL69" s="19"/>
-      <c r="AM69" s="19"/>
-      <c r="AN69" s="19"/>
-      <c r="AO69" s="19"/>
-      <c r="AP69" s="19"/>
-      <c r="AQ69" s="19"/>
-      <c r="AR69" s="19"/>
-      <c r="AS69" s="19"/>
-      <c r="AT69" s="19"/>
-      <c r="AU69" s="19"/>
+      <c r="C69" s="144" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" s="145" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="97"/>
+      <c r="J69" s="97"/>
+      <c r="K69" s="97"/>
+      <c r="L69" s="97"/>
+      <c r="M69" s="146"/>
+      <c r="N69" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="O69" s="148"/>
+      <c r="P69" s="148"/>
+      <c r="Q69" s="148"/>
+      <c r="R69" s="148"/>
+      <c r="S69" s="148"/>
+      <c r="T69" s="148"/>
+      <c r="U69" s="148"/>
+      <c r="V69" s="148"/>
+      <c r="W69" s="149"/>
+      <c r="X69" s="147"/>
+      <c r="Y69" s="150"/>
+      <c r="Z69" s="150"/>
+      <c r="AA69" s="150"/>
+      <c r="AB69" s="148"/>
+      <c r="AC69" s="148"/>
+      <c r="AD69" s="148"/>
+      <c r="AE69" s="148"/>
+      <c r="AF69" s="150"/>
+      <c r="AG69" s="150"/>
+      <c r="AH69" s="148"/>
+      <c r="AI69" s="148"/>
+      <c r="AJ69" s="148"/>
+      <c r="AK69" s="148"/>
+      <c r="AL69" s="148"/>
+      <c r="AM69" s="148"/>
+      <c r="AN69" s="148"/>
+      <c r="AO69" s="148"/>
+      <c r="AP69" s="148"/>
+      <c r="AQ69" s="148"/>
+      <c r="AR69" s="148"/>
+      <c r="AS69" s="148"/>
+      <c r="AT69" s="148"/>
+      <c r="AU69" s="148"/>
+      <c r="AV69" s="149"/>
       <c r="AW69" s="20"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="17"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="143"/>
-      <c r="D70" s="167"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="19"/>
-      <c r="U70" s="19"/>
-      <c r="V70" s="19"/>
-      <c r="W70" s="19"/>
-      <c r="X70" s="19"/>
-      <c r="Y70" s="143"/>
-      <c r="Z70" s="143"/>
-      <c r="AA70" s="143"/>
-      <c r="AB70" s="19"/>
-      <c r="AC70" s="19"/>
-      <c r="AD70" s="19"/>
-      <c r="AE70" s="19"/>
-      <c r="AF70" s="143"/>
-      <c r="AG70" s="143"/>
-      <c r="AH70" s="19"/>
-      <c r="AI70" s="19"/>
-      <c r="AJ70" s="19"/>
-      <c r="AK70" s="19"/>
-      <c r="AL70" s="19"/>
-      <c r="AM70" s="19"/>
-      <c r="AN70" s="19"/>
-      <c r="AO70" s="19"/>
-      <c r="AP70" s="19"/>
-      <c r="AQ70" s="19"/>
-      <c r="AR70" s="19"/>
-      <c r="AS70" s="19"/>
-      <c r="AT70" s="19"/>
-      <c r="AU70" s="19"/>
+      <c r="C70" s="144" t="n">
+        <v>5</v>
+      </c>
+      <c r="D70" s="152" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="153"/>
+      <c r="F70" s="153"/>
+      <c r="G70" s="153"/>
+      <c r="H70" s="153"/>
+      <c r="I70" s="153"/>
+      <c r="J70" s="153"/>
+      <c r="K70" s="153"/>
+      <c r="L70" s="153"/>
+      <c r="M70" s="154"/>
+      <c r="N70" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="O70" s="148"/>
+      <c r="P70" s="148"/>
+      <c r="Q70" s="148"/>
+      <c r="R70" s="148"/>
+      <c r="S70" s="148"/>
+      <c r="T70" s="148"/>
+      <c r="U70" s="148"/>
+      <c r="V70" s="148"/>
+      <c r="W70" s="149"/>
+      <c r="X70" s="152"/>
+      <c r="Y70" s="155"/>
+      <c r="Z70" s="155"/>
+      <c r="AA70" s="155"/>
+      <c r="AB70" s="153"/>
+      <c r="AC70" s="153"/>
+      <c r="AD70" s="153"/>
+      <c r="AE70" s="153"/>
+      <c r="AF70" s="155"/>
+      <c r="AG70" s="155"/>
+      <c r="AH70" s="153"/>
+      <c r="AI70" s="153"/>
+      <c r="AJ70" s="153"/>
+      <c r="AK70" s="153"/>
+      <c r="AL70" s="153"/>
+      <c r="AM70" s="153"/>
+      <c r="AN70" s="153"/>
+      <c r="AO70" s="153"/>
+      <c r="AP70" s="153"/>
+      <c r="AQ70" s="153"/>
+      <c r="AR70" s="153"/>
+      <c r="AS70" s="153"/>
+      <c r="AT70" s="153"/>
+      <c r="AU70" s="153"/>
+      <c r="AV70" s="154"/>
       <c r="AW70" s="20"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="17"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="143"/>
-      <c r="D71" s="167"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="19"/>
-      <c r="U71" s="19"/>
-      <c r="V71" s="19"/>
-      <c r="W71" s="19"/>
-      <c r="X71" s="19"/>
-      <c r="Y71" s="143"/>
-      <c r="Z71" s="143"/>
-      <c r="AA71" s="143"/>
-      <c r="AB71" s="19"/>
-      <c r="AC71" s="19"/>
-      <c r="AD71" s="19"/>
-      <c r="AE71" s="19"/>
-      <c r="AF71" s="143"/>
-      <c r="AG71" s="143"/>
-      <c r="AH71" s="19"/>
-      <c r="AI71" s="19"/>
-      <c r="AJ71" s="19"/>
-      <c r="AK71" s="19"/>
-      <c r="AL71" s="19"/>
-      <c r="AM71" s="19"/>
-      <c r="AN71" s="19"/>
-      <c r="AO71" s="19"/>
-      <c r="AP71" s="19"/>
-      <c r="AQ71" s="19"/>
-      <c r="AR71" s="19"/>
-      <c r="AS71" s="19"/>
-      <c r="AT71" s="19"/>
-      <c r="AU71" s="19"/>
+      <c r="C71" s="144" t="n">
+        <v>6</v>
+      </c>
+      <c r="D71" s="156" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="157"/>
+      <c r="F71" s="157"/>
+      <c r="G71" s="157"/>
+      <c r="H71" s="157"/>
+      <c r="I71" s="157"/>
+      <c r="J71" s="157"/>
+      <c r="K71" s="157"/>
+      <c r="L71" s="157"/>
+      <c r="M71" s="158"/>
+      <c r="N71" s="159" t="s">
+        <v>97</v>
+      </c>
+      <c r="O71" s="160"/>
+      <c r="P71" s="160"/>
+      <c r="Q71" s="160"/>
+      <c r="R71" s="160"/>
+      <c r="S71" s="160"/>
+      <c r="T71" s="160"/>
+      <c r="U71" s="160"/>
+      <c r="V71" s="160"/>
+      <c r="W71" s="161"/>
+      <c r="X71" s="159"/>
+      <c r="Y71" s="162"/>
+      <c r="Z71" s="162"/>
+      <c r="AA71" s="162"/>
+      <c r="AB71" s="160"/>
+      <c r="AC71" s="160"/>
+      <c r="AD71" s="160"/>
+      <c r="AE71" s="160"/>
+      <c r="AF71" s="162"/>
+      <c r="AG71" s="162"/>
+      <c r="AH71" s="160"/>
+      <c r="AI71" s="160"/>
+      <c r="AJ71" s="160"/>
+      <c r="AK71" s="160"/>
+      <c r="AL71" s="160"/>
+      <c r="AM71" s="160"/>
+      <c r="AN71" s="160"/>
+      <c r="AO71" s="160"/>
+      <c r="AP71" s="160"/>
+      <c r="AQ71" s="160"/>
+      <c r="AR71" s="160"/>
+      <c r="AS71" s="160"/>
+      <c r="AT71" s="160"/>
+      <c r="AU71" s="160"/>
+      <c r="AV71" s="163"/>
       <c r="AW71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="17"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="143"/>
-      <c r="D72" s="167"/>
+      <c r="C72" s="141"/>
+      <c r="D72" s="164"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -13061,15 +12826,15 @@
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
       <c r="X72" s="19"/>
-      <c r="Y72" s="143"/>
-      <c r="Z72" s="143"/>
-      <c r="AA72" s="143"/>
+      <c r="Y72" s="141"/>
+      <c r="Z72" s="141"/>
+      <c r="AA72" s="141"/>
       <c r="AB72" s="19"/>
       <c r="AC72" s="19"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
-      <c r="AF72" s="143"/>
-      <c r="AG72" s="143"/>
+      <c r="AF72" s="141"/>
+      <c r="AG72" s="141"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
       <c r="AJ72" s="19"/>
@@ -13089,8 +12854,8 @@
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="17"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="143"/>
-      <c r="D73" s="167"/>
+      <c r="C73" s="141"/>
+      <c r="D73" s="164"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
@@ -13111,15 +12876,15 @@
       <c r="V73" s="19"/>
       <c r="W73" s="19"/>
       <c r="X73" s="19"/>
-      <c r="Y73" s="143"/>
-      <c r="Z73" s="143"/>
-      <c r="AA73" s="143"/>
+      <c r="Y73" s="141"/>
+      <c r="Z73" s="141"/>
+      <c r="AA73" s="141"/>
       <c r="AB73" s="19"/>
       <c r="AC73" s="19"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
-      <c r="AF73" s="143"/>
-      <c r="AG73" s="143"/>
+      <c r="AF73" s="141"/>
+      <c r="AG73" s="141"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
       <c r="AJ73" s="19"/>
@@ -13139,8 +12904,8 @@
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="17"/>
       <c r="B74" s="28"/>
-      <c r="C74" s="143"/>
-      <c r="D74" s="167"/>
+      <c r="C74" s="141"/>
+      <c r="D74" s="164"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -13161,15 +12926,15 @@
       <c r="V74" s="19"/>
       <c r="W74" s="19"/>
       <c r="X74" s="19"/>
-      <c r="Y74" s="143"/>
-      <c r="Z74" s="143"/>
-      <c r="AA74" s="143"/>
+      <c r="Y74" s="141"/>
+      <c r="Z74" s="141"/>
+      <c r="AA74" s="141"/>
       <c r="AB74" s="19"/>
       <c r="AC74" s="19"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
-      <c r="AF74" s="143"/>
-      <c r="AG74" s="143"/>
+      <c r="AF74" s="141"/>
+      <c r="AG74" s="141"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
       <c r="AJ74" s="19"/>
@@ -13189,8 +12954,8 @@
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="17"/>
       <c r="B75" s="28"/>
-      <c r="C75" s="143"/>
-      <c r="D75" s="167"/>
+      <c r="C75" s="141"/>
+      <c r="D75" s="164"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
@@ -13211,15 +12976,15 @@
       <c r="V75" s="19"/>
       <c r="W75" s="19"/>
       <c r="X75" s="19"/>
-      <c r="Y75" s="143"/>
-      <c r="Z75" s="143"/>
-      <c r="AA75" s="143"/>
+      <c r="Y75" s="141"/>
+      <c r="Z75" s="141"/>
+      <c r="AA75" s="141"/>
       <c r="AB75" s="19"/>
       <c r="AC75" s="19"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
-      <c r="AF75" s="143"/>
-      <c r="AG75" s="143"/>
+      <c r="AF75" s="141"/>
+      <c r="AG75" s="141"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
       <c r="AJ75" s="19"/>
@@ -13239,8 +13004,8 @@
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="17"/>
       <c r="B76" s="28"/>
-      <c r="C76" s="143"/>
-      <c r="D76" s="167"/>
+      <c r="C76" s="141"/>
+      <c r="D76" s="164"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -13261,15 +13026,15 @@
       <c r="V76" s="19"/>
       <c r="W76" s="19"/>
       <c r="X76" s="19"/>
-      <c r="Y76" s="143"/>
-      <c r="Z76" s="143"/>
-      <c r="AA76" s="143"/>
+      <c r="Y76" s="141"/>
+      <c r="Z76" s="141"/>
+      <c r="AA76" s="141"/>
       <c r="AB76" s="19"/>
       <c r="AC76" s="19"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
-      <c r="AF76" s="143"/>
-      <c r="AG76" s="143"/>
+      <c r="AF76" s="141"/>
+      <c r="AG76" s="141"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
       <c r="AJ76" s="19"/>
@@ -13289,8 +13054,8 @@
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="17"/>
       <c r="B77" s="28"/>
-      <c r="C77" s="143"/>
-      <c r="D77" s="167"/>
+      <c r="C77" s="141"/>
+      <c r="D77" s="164"/>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
@@ -13311,15 +13076,15 @@
       <c r="V77" s="19"/>
       <c r="W77" s="19"/>
       <c r="X77" s="19"/>
-      <c r="Y77" s="143"/>
-      <c r="Z77" s="143"/>
-      <c r="AA77" s="143"/>
+      <c r="Y77" s="141"/>
+      <c r="Z77" s="141"/>
+      <c r="AA77" s="141"/>
       <c r="AB77" s="19"/>
       <c r="AC77" s="19"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
-      <c r="AF77" s="143"/>
-      <c r="AG77" s="143"/>
+      <c r="AF77" s="141"/>
+      <c r="AG77" s="141"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
       <c r="AJ77" s="19"/>
@@ -13339,8 +13104,8 @@
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="17"/>
       <c r="B78" s="28"/>
-      <c r="C78" s="143"/>
-      <c r="D78" s="167"/>
+      <c r="C78" s="141"/>
+      <c r="D78" s="164"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -13361,15 +13126,15 @@
       <c r="V78" s="19"/>
       <c r="W78" s="19"/>
       <c r="X78" s="19"/>
-      <c r="Y78" s="143"/>
-      <c r="Z78" s="143"/>
-      <c r="AA78" s="143"/>
+      <c r="Y78" s="141"/>
+      <c r="Z78" s="141"/>
+      <c r="AA78" s="141"/>
       <c r="AB78" s="19"/>
       <c r="AC78" s="19"/>
       <c r="AD78" s="19"/>
       <c r="AE78" s="19"/>
-      <c r="AF78" s="143"/>
-      <c r="AG78" s="143"/>
+      <c r="AF78" s="141"/>
+      <c r="AG78" s="141"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
       <c r="AJ78" s="19"/>
@@ -13389,8 +13154,8 @@
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="17"/>
       <c r="B79" s="28"/>
-      <c r="C79" s="143"/>
-      <c r="D79" s="167"/>
+      <c r="C79" s="141"/>
+      <c r="D79" s="164"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -13411,15 +13176,15 @@
       <c r="V79" s="19"/>
       <c r="W79" s="19"/>
       <c r="X79" s="19"/>
-      <c r="Y79" s="143"/>
-      <c r="Z79" s="143"/>
-      <c r="AA79" s="143"/>
+      <c r="Y79" s="141"/>
+      <c r="Z79" s="141"/>
+      <c r="AA79" s="141"/>
       <c r="AB79" s="19"/>
       <c r="AC79" s="19"/>
       <c r="AD79" s="19"/>
       <c r="AE79" s="19"/>
-      <c r="AF79" s="143"/>
-      <c r="AG79" s="143"/>
+      <c r="AF79" s="141"/>
+      <c r="AG79" s="141"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
       <c r="AJ79" s="19"/>
@@ -13439,8 +13204,8 @@
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="17"/>
       <c r="B80" s="28"/>
-      <c r="C80" s="143"/>
-      <c r="D80" s="167"/>
+      <c r="C80" s="141"/>
+      <c r="D80" s="164"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -13461,15 +13226,15 @@
       <c r="V80" s="19"/>
       <c r="W80" s="19"/>
       <c r="X80" s="19"/>
-      <c r="Y80" s="143"/>
-      <c r="Z80" s="143"/>
-      <c r="AA80" s="143"/>
+      <c r="Y80" s="141"/>
+      <c r="Z80" s="141"/>
+      <c r="AA80" s="141"/>
       <c r="AB80" s="19"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19"/>
       <c r="AE80" s="19"/>
-      <c r="AF80" s="143"/>
-      <c r="AG80" s="143"/>
+      <c r="AF80" s="141"/>
+      <c r="AG80" s="141"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
       <c r="AJ80" s="19"/>
@@ -13489,8 +13254,8 @@
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="17"/>
       <c r="B81" s="28"/>
-      <c r="C81" s="143"/>
-      <c r="D81" s="167"/>
+      <c r="C81" s="141"/>
+      <c r="D81" s="164"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -13511,15 +13276,15 @@
       <c r="V81" s="19"/>
       <c r="W81" s="19"/>
       <c r="X81" s="19"/>
-      <c r="Y81" s="143"/>
-      <c r="Z81" s="143"/>
-      <c r="AA81" s="143"/>
+      <c r="Y81" s="141"/>
+      <c r="Z81" s="141"/>
+      <c r="AA81" s="141"/>
       <c r="AB81" s="19"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="19"/>
       <c r="AE81" s="19"/>
-      <c r="AF81" s="143"/>
-      <c r="AG81" s="143"/>
+      <c r="AF81" s="141"/>
+      <c r="AG81" s="141"/>
       <c r="AH81" s="19"/>
       <c r="AI81" s="19"/>
       <c r="AJ81" s="19"/>
@@ -13537,76 +13302,59 @@
       <c r="AW81" s="20"/>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="17"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="141"/>
+      <c r="D82" s="164"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19"/>
+      <c r="Y82" s="141"/>
+      <c r="Z82" s="141"/>
+      <c r="AA82" s="141"/>
+      <c r="AB82" s="19"/>
+      <c r="AC82" s="19"/>
+      <c r="AD82" s="19"/>
+      <c r="AE82" s="19"/>
+      <c r="AF82" s="141"/>
+      <c r="AG82" s="141"/>
+      <c r="AH82" s="19"/>
+      <c r="AI82" s="19"/>
+      <c r="AJ82" s="19"/>
+      <c r="AK82" s="19"/>
+      <c r="AL82" s="19"/>
+      <c r="AM82" s="19"/>
+      <c r="AN82" s="19"/>
+      <c r="AO82" s="19"/>
+      <c r="AP82" s="19"/>
+      <c r="AQ82" s="19"/>
+      <c r="AR82" s="19"/>
+      <c r="AS82" s="19"/>
+      <c r="AT82" s="19"/>
+      <c r="AU82" s="19"/>
+      <c r="AW82" s="20"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
-      <c r="AA82" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5"/>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="5"/>
-      <c r="AH82" s="5"/>
-      <c r="AI82" s="5"/>
-      <c r="AJ82" s="5"/>
-      <c r="AK82" s="5"/>
-      <c r="AL82" s="5"/>
-      <c r="AM82" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN82" s="6"/>
-      <c r="AO82" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP82" s="7"/>
-      <c r="AQ82" s="7"/>
-      <c r="AR82" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS82" s="6"/>
-      <c r="AT82" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU82" s="8"/>
-      <c r="AV82" s="8"/>
-      <c r="AW82" s="8"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -13615,24 +13363,32 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
-      <c r="J83" s="3"/>
+      <c r="J83" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
+      <c r="P83" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
-      <c r="V83" s="4"/>
+      <c r="V83" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
-      <c r="AA83" s="5"/>
+      <c r="AA83" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
@@ -13644,21 +13400,25 @@
       <c r="AJ83" s="5"/>
       <c r="AK83" s="5"/>
       <c r="AL83" s="5"/>
-      <c r="AM83" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN83" s="10"/>
-      <c r="AO83" s="11"/>
-      <c r="AP83" s="11"/>
-      <c r="AQ83" s="11"/>
-      <c r="AR83" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS83" s="10"/>
-      <c r="AT83" s="12"/>
-      <c r="AU83" s="12"/>
-      <c r="AV83" s="12"/>
-      <c r="AW83" s="12"/>
+      <c r="AM83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN83" s="6"/>
+      <c r="AO83" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP83" s="7"/>
+      <c r="AQ83" s="7"/>
+      <c r="AR83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS83" s="6"/>
+      <c r="AT83" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU83" s="8"/>
+      <c r="AV83" s="8"/>
+      <c r="AW83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
@@ -13682,78 +13442,100 @@
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
-      <c r="V84" s="13" t="s">
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="5"/>
+      <c r="AG84" s="5"/>
+      <c r="AH84" s="5"/>
+      <c r="AI84" s="5"/>
+      <c r="AJ84" s="5"/>
+      <c r="AK84" s="5"/>
+      <c r="AL84" s="5"/>
+      <c r="AM84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN84" s="10"/>
+      <c r="AO84" s="11"/>
+      <c r="AP84" s="11"/>
+      <c r="AQ84" s="11"/>
+      <c r="AR84" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS84" s="10"/>
+      <c r="AT84" s="12"/>
+      <c r="AU84" s="12"/>
+      <c r="AV84" s="12"/>
+      <c r="AW84" s="12"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="W84" s="13"/>
-      <c r="X84" s="13"/>
-      <c r="Y84" s="13"/>
-      <c r="Z84" s="13"/>
-      <c r="AA84" s="14" t="s">
+      <c r="W85" s="13"/>
+      <c r="X85" s="13"/>
+      <c r="Y85" s="13"/>
+      <c r="Z85" s="13"/>
+      <c r="AA85" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB84" s="14"/>
-      <c r="AC84" s="14"/>
-      <c r="AD84" s="14"/>
-      <c r="AE84" s="14"/>
-      <c r="AF84" s="14"/>
-      <c r="AG84" s="14"/>
-      <c r="AH84" s="15" t="s">
+      <c r="AB85" s="14"/>
+      <c r="AC85" s="14"/>
+      <c r="AD85" s="14"/>
+      <c r="AE85" s="14"/>
+      <c r="AF85" s="14"/>
+      <c r="AG85" s="14"/>
+      <c r="AH85" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AI84" s="15"/>
-      <c r="AJ84" s="15"/>
-      <c r="AK84" s="15"/>
-      <c r="AL84" s="15"/>
-      <c r="AM84" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN84" s="16"/>
-      <c r="AO84" s="16"/>
-      <c r="AP84" s="16"/>
-      <c r="AQ84" s="16"/>
-      <c r="AR84" s="16"/>
-      <c r="AS84" s="16"/>
-      <c r="AT84" s="16"/>
-      <c r="AU84" s="16"/>
-      <c r="AV84" s="16"/>
-      <c r="AW84" s="16"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="17"/>
-      <c r="AM85" s="19"/>
-      <c r="AN85" s="19"/>
-      <c r="AO85" s="19"/>
-      <c r="AP85" s="19"/>
-      <c r="AQ85" s="19"/>
-      <c r="AR85" s="19"/>
-      <c r="AS85" s="19"/>
-      <c r="AT85" s="19"/>
-      <c r="AU85" s="19"/>
-      <c r="AV85" s="19"/>
-      <c r="AW85" s="20"/>
+      <c r="AI85" s="15"/>
+      <c r="AJ85" s="15"/>
+      <c r="AK85" s="15"/>
+      <c r="AL85" s="15"/>
+      <c r="AM85" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN85" s="16"/>
+      <c r="AO85" s="16"/>
+      <c r="AP85" s="16"/>
+      <c r="AQ85" s="16"/>
+      <c r="AR85" s="16"/>
+      <c r="AS85" s="16"/>
+      <c r="AT85" s="16"/>
+      <c r="AU85" s="16"/>
+      <c r="AV85" s="16"/>
+      <c r="AW85" s="16"/>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
-      <c r="B86" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
       <c r="AM86" s="19"/>
       <c r="AN86" s="19"/>
       <c r="AO86" s="19"/>
@@ -13768,8 +13550,8 @@
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
-      <c r="C87" s="9" t="s">
-        <v>77</v>
+      <c r="B87" s="59" t="s">
+        <v>98</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -13801,9 +13583,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
-      <c r="D88" s="19" t="s">
-        <v>78</v>
-      </c>
+      <c r="C88" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
@@ -13833,7 +13616,9 @@
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="17"/>
-      <c r="D89" s="19"/>
+      <c r="D89" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
@@ -13863,9 +13648,6 @@
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
-      <c r="C90" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
@@ -13896,9 +13678,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
-      <c r="D91" s="19" t="s">
-        <v>80</v>
-      </c>
+      <c r="C91" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
@@ -13929,7 +13712,7 @@
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
       <c r="D92" s="19" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -13961,7 +13744,7 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="D93" s="19" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
@@ -13992,7 +13775,9 @@
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="17"/>
-      <c r="D94" s="19"/>
+      <c r="D94" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
@@ -14831,76 +14616,39 @@
       <c r="AW121" s="20"/>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="17"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="19"/>
+      <c r="S122" s="19"/>
+      <c r="AM122" s="19"/>
+      <c r="AN122" s="19"/>
+      <c r="AO122" s="19"/>
+      <c r="AP122" s="19"/>
+      <c r="AQ122" s="19"/>
+      <c r="AR122" s="19"/>
+      <c r="AS122" s="19"/>
+      <c r="AT122" s="19"/>
+      <c r="AU122" s="19"/>
+      <c r="AV122" s="19"/>
+      <c r="AW122" s="20"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
-      <c r="M122" s="3"/>
-      <c r="N122" s="3"/>
-      <c r="O122" s="3"/>
-      <c r="P122" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
-      <c r="S122" s="3"/>
-      <c r="T122" s="3"/>
-      <c r="U122" s="3"/>
-      <c r="V122" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="W122" s="4"/>
-      <c r="X122" s="4"/>
-      <c r="Y122" s="4"/>
-      <c r="Z122" s="4"/>
-      <c r="AA122" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB122" s="5"/>
-      <c r="AC122" s="5"/>
-      <c r="AD122" s="5"/>
-      <c r="AE122" s="5"/>
-      <c r="AF122" s="5"/>
-      <c r="AG122" s="5"/>
-      <c r="AH122" s="5"/>
-      <c r="AI122" s="5"/>
-      <c r="AJ122" s="5"/>
-      <c r="AK122" s="5"/>
-      <c r="AL122" s="5"/>
-      <c r="AM122" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN122" s="6"/>
-      <c r="AO122" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP122" s="7"/>
-      <c r="AQ122" s="7"/>
-      <c r="AR122" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS122" s="6"/>
-      <c r="AT122" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU122" s="8"/>
-      <c r="AV122" s="8"/>
-      <c r="AW122" s="8"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -14909,24 +14657,32 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
-      <c r="J123" s="3"/>
+      <c r="J123" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-      <c r="P123" s="3"/>
+      <c r="P123" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
       <c r="U123" s="3"/>
-      <c r="V123" s="4"/>
+      <c r="V123" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="W123" s="4"/>
       <c r="X123" s="4"/>
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
-      <c r="AA123" s="5"/>
+      <c r="AA123" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="AB123" s="5"/>
       <c r="AC123" s="5"/>
       <c r="AD123" s="5"/>
@@ -14938,21 +14694,25 @@
       <c r="AJ123" s="5"/>
       <c r="AK123" s="5"/>
       <c r="AL123" s="5"/>
-      <c r="AM123" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN123" s="10"/>
-      <c r="AO123" s="11"/>
-      <c r="AP123" s="11"/>
-      <c r="AQ123" s="11"/>
-      <c r="AR123" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS123" s="10"/>
-      <c r="AT123" s="12"/>
-      <c r="AU123" s="12"/>
-      <c r="AV123" s="12"/>
-      <c r="AW123" s="12"/>
+      <c r="AM123" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN123" s="6"/>
+      <c r="AO123" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP123" s="7"/>
+      <c r="AQ123" s="7"/>
+      <c r="AR123" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS123" s="6"/>
+      <c r="AT123" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU123" s="8"/>
+      <c r="AV123" s="8"/>
+      <c r="AW123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
@@ -14976,78 +14736,100 @@
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
       <c r="U124" s="3"/>
-      <c r="V124" s="13" t="s">
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
+      <c r="AA124" s="5"/>
+      <c r="AB124" s="5"/>
+      <c r="AC124" s="5"/>
+      <c r="AD124" s="5"/>
+      <c r="AE124" s="5"/>
+      <c r="AF124" s="5"/>
+      <c r="AG124" s="5"/>
+      <c r="AH124" s="5"/>
+      <c r="AI124" s="5"/>
+      <c r="AJ124" s="5"/>
+      <c r="AK124" s="5"/>
+      <c r="AL124" s="5"/>
+      <c r="AM124" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN124" s="10"/>
+      <c r="AO124" s="11"/>
+      <c r="AP124" s="11"/>
+      <c r="AQ124" s="11"/>
+      <c r="AR124" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS124" s="10"/>
+      <c r="AT124" s="12"/>
+      <c r="AU124" s="12"/>
+      <c r="AV124" s="12"/>
+      <c r="AW124" s="12"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="W124" s="13"/>
-      <c r="X124" s="13"/>
-      <c r="Y124" s="13"/>
-      <c r="Z124" s="13"/>
-      <c r="AA124" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB124" s="14"/>
-      <c r="AC124" s="14"/>
-      <c r="AD124" s="14"/>
-      <c r="AE124" s="14"/>
-      <c r="AF124" s="14"/>
-      <c r="AG124" s="14"/>
-      <c r="AH124" s="15" t="s">
+      <c r="W125" s="13"/>
+      <c r="X125" s="13"/>
+      <c r="Y125" s="13"/>
+      <c r="Z125" s="13"/>
+      <c r="AA125" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB125" s="14"/>
+      <c r="AC125" s="14"/>
+      <c r="AD125" s="14"/>
+      <c r="AE125" s="14"/>
+      <c r="AF125" s="14"/>
+      <c r="AG125" s="14"/>
+      <c r="AH125" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AI124" s="15"/>
-      <c r="AJ124" s="15"/>
-      <c r="AK124" s="15"/>
-      <c r="AL124" s="15"/>
-      <c r="AM124" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN124" s="16"/>
-      <c r="AO124" s="16"/>
-      <c r="AP124" s="16"/>
-      <c r="AQ124" s="16"/>
-      <c r="AR124" s="16"/>
-      <c r="AS124" s="16"/>
-      <c r="AT124" s="16"/>
-      <c r="AU124" s="16"/>
-      <c r="AV124" s="16"/>
-      <c r="AW124" s="16"/>
-    </row>
-    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="17"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="19"/>
-      <c r="K125" s="19"/>
-      <c r="L125" s="19"/>
-      <c r="M125" s="19"/>
-      <c r="N125" s="19"/>
-      <c r="O125" s="19"/>
-      <c r="P125" s="19"/>
-      <c r="Q125" s="19"/>
-      <c r="R125" s="19"/>
-      <c r="S125" s="19"/>
-      <c r="AM125" s="19"/>
-      <c r="AN125" s="19"/>
-      <c r="AO125" s="19"/>
-      <c r="AP125" s="19"/>
-      <c r="AQ125" s="19"/>
-      <c r="AR125" s="19"/>
-      <c r="AS125" s="19"/>
-      <c r="AT125" s="19"/>
-      <c r="AU125" s="19"/>
-      <c r="AV125" s="19"/>
-      <c r="AW125" s="20"/>
+      <c r="AI125" s="15"/>
+      <c r="AJ125" s="15"/>
+      <c r="AK125" s="15"/>
+      <c r="AL125" s="15"/>
+      <c r="AM125" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN125" s="16"/>
+      <c r="AO125" s="16"/>
+      <c r="AP125" s="16"/>
+      <c r="AQ125" s="16"/>
+      <c r="AR125" s="16"/>
+      <c r="AS125" s="16"/>
+      <c r="AT125" s="16"/>
+      <c r="AU125" s="16"/>
+      <c r="AV125" s="16"/>
+      <c r="AW125" s="16"/>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
-      <c r="B126" s="59" t="s">
-        <v>85</v>
-      </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
       <c r="F126" s="19"/>
@@ -15078,8 +14860,8 @@
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
-      <c r="C127" s="9" t="s">
-        <v>77</v>
+      <c r="B127" s="59" t="s">
+        <v>106</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
@@ -15111,9 +14893,10 @@
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
-      <c r="D128" s="19" t="s">
-        <v>86</v>
-      </c>
+      <c r="C128" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D128" s="19"/>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
@@ -15140,10 +14923,25 @@
       <c r="AU128" s="19"/>
       <c r="AV128" s="19"/>
       <c r="AW128" s="20"/>
+      <c r="AX128" s="0"/>
+      <c r="AY128" s="0"/>
+      <c r="AZ128" s="0"/>
+      <c r="BA128" s="0"/>
+      <c r="BB128" s="0"/>
+      <c r="BC128" s="0"/>
+      <c r="BD128" s="0"/>
+      <c r="BE128" s="0"/>
+      <c r="BF128" s="0"/>
+      <c r="BG128" s="0"/>
+      <c r="BH128" s="0"/>
+      <c r="BI128" s="0"/>
+      <c r="BJ128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
-      <c r="D129" s="19"/>
+      <c r="D129" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
       <c r="G129" s="19"/>
@@ -15170,65 +14968,98 @@
       <c r="AU129" s="19"/>
       <c r="AV129" s="19"/>
       <c r="AW129" s="20"/>
+      <c r="AX129" s="0"/>
+      <c r="AY129" s="0"/>
+      <c r="AZ129" s="0"/>
+      <c r="BA129" s="0"/>
+      <c r="BB129" s="0"/>
+      <c r="BC129" s="0"/>
+      <c r="BD129" s="0"/>
+      <c r="BE129" s="0"/>
+      <c r="BF129" s="0"/>
+      <c r="BG129" s="0"/>
+      <c r="BH129" s="0"/>
+      <c r="BI129" s="0"/>
+      <c r="BJ129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV130" s="19"/>
+      <c r="C130" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM130" s="19"/>
+      <c r="AN130" s="19"/>
+      <c r="AO130" s="19"/>
+      <c r="AP130" s="19"/>
+      <c r="AR130" s="19"/>
+      <c r="AS130" s="19"/>
+      <c r="AT130" s="19"/>
+      <c r="AU130" s="19"/>
       <c r="AW130" s="20"/>
+      <c r="AX130" s="0"/>
+      <c r="AY130" s="0"/>
+      <c r="AZ130" s="0"/>
+      <c r="BA130" s="0"/>
+      <c r="BB130" s="0"/>
+      <c r="BC130" s="0"/>
+      <c r="BD130" s="0"/>
+      <c r="BE130" s="0"/>
+      <c r="BF130" s="0"/>
+      <c r="BG130" s="0"/>
+      <c r="BH130" s="0"/>
+      <c r="BI130" s="0"/>
+      <c r="BJ130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="17"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="72" t="s">
+      <c r="C131" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="F131" s="72" t="s">
-        <v>67</v>
-      </c>
+      <c r="D131" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E131" s="72"/>
+      <c r="F131" s="72"/>
       <c r="G131" s="72"/>
       <c r="H131" s="72"/>
       <c r="I131" s="72"/>
-      <c r="J131" s="72"/>
-      <c r="K131" s="72"/>
-      <c r="L131" s="104" t="s">
-        <v>68</v>
-      </c>
+      <c r="J131" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="K131" s="104"/>
+      <c r="L131" s="104"/>
       <c r="M131" s="104"/>
-      <c r="N131" s="104"/>
+      <c r="N131" s="104" t="s">
+        <v>70</v>
+      </c>
       <c r="O131" s="104"/>
-      <c r="P131" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q131" s="104"/>
-      <c r="R131" s="104"/>
-      <c r="S131" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="T131" s="72"/>
+      <c r="P131" s="104"/>
+      <c r="Q131" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="R131" s="72"/>
+      <c r="S131" s="72"/>
+      <c r="T131" s="72" t="s">
+        <v>52</v>
+      </c>
       <c r="U131" s="72"/>
-      <c r="V131" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="W131" s="72"/>
-      <c r="X131" s="73" t="s">
-        <v>71</v>
-      </c>
+      <c r="V131" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="W131" s="73"/>
+      <c r="X131" s="73"/>
       <c r="Y131" s="73"/>
-      <c r="Z131" s="73"/>
-      <c r="AA131" s="73"/>
-      <c r="AB131" s="105" t="s">
-        <v>72</v>
-      </c>
+      <c r="Z131" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA131" s="105"/>
+      <c r="AB131" s="105"/>
       <c r="AC131" s="105"/>
-      <c r="AD131" s="105"/>
-      <c r="AE131" s="105"/>
-      <c r="AF131" s="73" t="s">
+      <c r="AD131" s="73" t="s">
         <v>53</v>
       </c>
+      <c r="AE131" s="73"/>
+      <c r="AF131" s="73"/>
       <c r="AG131" s="73"/>
       <c r="AH131" s="73"/>
       <c r="AI131" s="73"/>
@@ -15245,40 +15076,65 @@
       <c r="AT131" s="73"/>
       <c r="AU131" s="73"/>
       <c r="AV131" s="73"/>
-      <c r="AW131" s="73"/>
-      <c r="AX131" s="73"/>
+      <c r="AW131" s="20"/>
+      <c r="AX131" s="0"/>
+      <c r="AY131" s="0"/>
+      <c r="AZ131" s="0"/>
+      <c r="BA131" s="0"/>
+      <c r="BB131" s="0"/>
+      <c r="BC131" s="0"/>
+      <c r="BD131" s="0"/>
+      <c r="BE131" s="0"/>
+      <c r="BF131" s="0"/>
+      <c r="BG131" s="0"/>
+      <c r="BH131" s="0"/>
+      <c r="BI131" s="0"/>
+      <c r="BJ131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="17"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="107"/>
-      <c r="F132" s="108"/>
-      <c r="G132" s="109"/>
-      <c r="H132" s="109"/>
-      <c r="I132" s="110"/>
-      <c r="J132" s="110"/>
-      <c r="K132" s="111"/>
-      <c r="L132" s="112"/>
+      <c r="C132" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="E132" s="109"/>
+      <c r="F132" s="109"/>
+      <c r="G132" s="110"/>
+      <c r="H132" s="110"/>
+      <c r="I132" s="111"/>
+      <c r="J132" s="112"/>
+      <c r="K132" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="L132" s="110"/>
       <c r="M132" s="110"/>
-      <c r="N132" s="110"/>
+      <c r="N132" s="112"/>
       <c r="O132" s="110"/>
-      <c r="P132" s="112"/>
-      <c r="Q132" s="110"/>
-      <c r="R132" s="110"/>
-      <c r="S132" s="112"/>
-      <c r="T132" s="110"/>
-      <c r="U132" s="113"/>
-      <c r="V132" s="107"/>
-      <c r="W132" s="107"/>
-      <c r="X132" s="108"/>
-      <c r="Y132" s="109"/>
-      <c r="Z132" s="109"/>
-      <c r="AA132" s="113"/>
-      <c r="AB132" s="114"/>
+      <c r="P132" s="110"/>
+      <c r="Q132" s="112"/>
+      <c r="R132" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="S132" s="113"/>
+      <c r="T132" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="U132" s="107"/>
+      <c r="V132" s="108"/>
+      <c r="W132" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="X132" s="109"/>
+      <c r="Y132" s="113"/>
+      <c r="Z132" s="114"/>
+      <c r="AA132" s="109"/>
+      <c r="AB132" s="109"/>
       <c r="AC132" s="109"/>
-      <c r="AD132" s="109"/>
+      <c r="AD132" s="108"/>
       <c r="AE132" s="109"/>
-      <c r="AF132" s="108"/>
+      <c r="AF132" s="109"/>
       <c r="AG132" s="109"/>
       <c r="AH132" s="109"/>
       <c r="AI132" s="109"/>
@@ -15294,585 +15150,738 @@
       <c r="AS132" s="109"/>
       <c r="AT132" s="109"/>
       <c r="AU132" s="109"/>
-      <c r="AV132" s="109"/>
-      <c r="AW132" s="109"/>
-      <c r="AX132" s="115"/>
+      <c r="AV132" s="115"/>
+      <c r="AW132" s="20"/>
+      <c r="AX132" s="0"/>
+      <c r="AY132" s="0"/>
+      <c r="AZ132" s="0"/>
+      <c r="BA132" s="0"/>
+      <c r="BB132" s="0"/>
+      <c r="BC132" s="0"/>
+      <c r="BD132" s="0"/>
+      <c r="BE132" s="0"/>
+      <c r="BF132" s="0"/>
+      <c r="BG132" s="0"/>
+      <c r="BH132" s="0"/>
+      <c r="BI132" s="0"/>
+      <c r="BJ132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="17"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="107"/>
+      <c r="C133" s="107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="E133" s="118"/>
       <c r="F133" s="118"/>
       <c r="G133" s="119"/>
       <c r="H133" s="119"/>
       <c r="I133" s="120"/>
-      <c r="J133" s="120"/>
-      <c r="K133" s="121"/>
-      <c r="L133" s="122"/>
-      <c r="M133" s="120"/>
-      <c r="N133" s="120"/>
-      <c r="O133" s="120"/>
-      <c r="P133" s="122"/>
-      <c r="Q133" s="120"/>
-      <c r="R133" s="120"/>
+      <c r="J133" s="121"/>
+      <c r="K133" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="L133" s="119"/>
+      <c r="M133" s="119"/>
+      <c r="N133" s="121"/>
+      <c r="O133" s="119"/>
+      <c r="P133" s="119"/>
+      <c r="Q133" s="121"/>
+      <c r="R133" s="119" t="s">
+        <v>76</v>
+      </c>
       <c r="S133" s="122"/>
-      <c r="T133" s="120"/>
-      <c r="U133" s="123"/>
-      <c r="V133" s="126"/>
-      <c r="W133" s="127"/>
-      <c r="X133" s="118"/>
-      <c r="Y133" s="119"/>
-      <c r="Z133" s="119"/>
-      <c r="AA133" s="123"/>
-      <c r="AB133" s="126"/>
-      <c r="AC133" s="119"/>
-      <c r="AD133" s="119"/>
-      <c r="AE133" s="119"/>
+      <c r="T133" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="U133" s="107"/>
+      <c r="V133" s="108"/>
+      <c r="W133" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="X133" s="109"/>
+      <c r="Y133" s="113"/>
+      <c r="Z133" s="123"/>
+      <c r="AA133" s="118"/>
+      <c r="AB133" s="118"/>
+      <c r="AC133" s="118"/>
+      <c r="AD133" s="117"/>
+      <c r="AE133" s="118"/>
       <c r="AF133" s="118"/>
-      <c r="AG133" s="119"/>
-      <c r="AH133" s="119"/>
-      <c r="AI133" s="119"/>
-      <c r="AJ133" s="119"/>
-      <c r="AK133" s="119"/>
-      <c r="AL133" s="119"/>
-      <c r="AM133" s="119"/>
-      <c r="AN133" s="119"/>
-      <c r="AO133" s="119"/>
-      <c r="AP133" s="119"/>
-      <c r="AQ133" s="119"/>
-      <c r="AR133" s="119"/>
-      <c r="AS133" s="119"/>
-      <c r="AT133" s="119"/>
-      <c r="AU133" s="119"/>
-      <c r="AV133" s="119"/>
-      <c r="AW133" s="119"/>
-      <c r="AX133" s="125"/>
+      <c r="AG133" s="118"/>
+      <c r="AH133" s="118"/>
+      <c r="AI133" s="118"/>
+      <c r="AJ133" s="118"/>
+      <c r="AK133" s="118"/>
+      <c r="AL133" s="118"/>
+      <c r="AM133" s="118"/>
+      <c r="AN133" s="118"/>
+      <c r="AO133" s="118"/>
+      <c r="AP133" s="118"/>
+      <c r="AQ133" s="118"/>
+      <c r="AR133" s="118"/>
+      <c r="AS133" s="118"/>
+      <c r="AT133" s="118"/>
+      <c r="AU133" s="118"/>
+      <c r="AV133" s="124"/>
+      <c r="AW133" s="20"/>
+      <c r="AX133" s="0"/>
+      <c r="AY133" s="0"/>
+      <c r="AZ133" s="0"/>
+      <c r="BA133" s="0"/>
+      <c r="BB133" s="0"/>
+      <c r="BC133" s="0"/>
+      <c r="BD133" s="0"/>
+      <c r="BE133" s="0"/>
+      <c r="BF133" s="0"/>
+      <c r="BG133" s="0"/>
+      <c r="BH133" s="0"/>
+      <c r="BI133" s="0"/>
+      <c r="BJ133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="17"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="107"/>
-      <c r="F134" s="168"/>
-      <c r="G134" s="169"/>
-      <c r="H134" s="169"/>
-      <c r="I134" s="170"/>
-      <c r="J134" s="170"/>
-      <c r="K134" s="171"/>
-      <c r="L134" s="172"/>
-      <c r="M134" s="170"/>
-      <c r="N134" s="170"/>
-      <c r="O134" s="170"/>
-      <c r="P134" s="172"/>
-      <c r="Q134" s="170"/>
-      <c r="R134" s="170"/>
-      <c r="S134" s="172"/>
-      <c r="T134" s="170"/>
-      <c r="U134" s="173"/>
-      <c r="V134" s="174"/>
-      <c r="W134" s="175"/>
-      <c r="X134" s="168"/>
-      <c r="Y134" s="169"/>
-      <c r="Z134" s="169"/>
-      <c r="AA134" s="173"/>
-      <c r="AB134" s="174"/>
-      <c r="AC134" s="169"/>
-      <c r="AD134" s="169"/>
-      <c r="AE134" s="169"/>
-      <c r="AF134" s="168"/>
-      <c r="AG134" s="169"/>
-      <c r="AH134" s="169"/>
-      <c r="AI134" s="169"/>
-      <c r="AJ134" s="169"/>
-      <c r="AK134" s="169"/>
-      <c r="AL134" s="169"/>
-      <c r="AM134" s="169"/>
-      <c r="AN134" s="169"/>
-      <c r="AO134" s="169"/>
-      <c r="AP134" s="169"/>
-      <c r="AQ134" s="169"/>
-      <c r="AR134" s="169"/>
-      <c r="AS134" s="169"/>
-      <c r="AT134" s="169"/>
-      <c r="AU134" s="169"/>
-      <c r="AV134" s="169"/>
-      <c r="AW134" s="169"/>
-      <c r="AX134" s="176"/>
+      <c r="C134" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="E134" s="118"/>
+      <c r="F134" s="118"/>
+      <c r="G134" s="119"/>
+      <c r="H134" s="119"/>
+      <c r="I134" s="120"/>
+      <c r="J134" s="121"/>
+      <c r="K134" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="L134" s="119"/>
+      <c r="M134" s="119"/>
+      <c r="N134" s="121"/>
+      <c r="O134" s="119"/>
+      <c r="P134" s="119"/>
+      <c r="Q134" s="121"/>
+      <c r="R134" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="S134" s="122"/>
+      <c r="T134" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="U134" s="107"/>
+      <c r="V134" s="108"/>
+      <c r="W134" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="X134" s="109"/>
+      <c r="Y134" s="113"/>
+      <c r="Z134" s="125"/>
+      <c r="AA134" s="118"/>
+      <c r="AB134" s="118"/>
+      <c r="AC134" s="118"/>
+      <c r="AD134" s="117"/>
+      <c r="AE134" s="118"/>
+      <c r="AF134" s="118"/>
+      <c r="AG134" s="118"/>
+      <c r="AH134" s="118"/>
+      <c r="AI134" s="118"/>
+      <c r="AJ134" s="118"/>
+      <c r="AK134" s="118"/>
+      <c r="AL134" s="118"/>
+      <c r="AM134" s="118"/>
+      <c r="AN134" s="118"/>
+      <c r="AO134" s="118"/>
+      <c r="AP134" s="118"/>
+      <c r="AQ134" s="118"/>
+      <c r="AR134" s="118"/>
+      <c r="AS134" s="118"/>
+      <c r="AT134" s="118"/>
+      <c r="AU134" s="118"/>
+      <c r="AV134" s="124"/>
+      <c r="AW134" s="20"/>
+      <c r="AX134" s="0"/>
+      <c r="AY134" s="0"/>
+      <c r="AZ134" s="0"/>
+      <c r="BA134" s="0"/>
+      <c r="BB134" s="0"/>
+      <c r="BC134" s="0"/>
+      <c r="BD134" s="0"/>
+      <c r="BE134" s="0"/>
+      <c r="BF134" s="0"/>
+      <c r="BG134" s="0"/>
+      <c r="BH134" s="0"/>
+      <c r="BI134" s="0"/>
+      <c r="BJ134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="17"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="107"/>
-      <c r="F135" s="168"/>
-      <c r="G135" s="169"/>
-      <c r="H135" s="169"/>
-      <c r="I135" s="170"/>
-      <c r="J135" s="170"/>
-      <c r="K135" s="171"/>
-      <c r="L135" s="172"/>
-      <c r="M135" s="170"/>
-      <c r="N135" s="170"/>
-      <c r="O135" s="170"/>
-      <c r="P135" s="172"/>
-      <c r="Q135" s="170"/>
-      <c r="R135" s="170"/>
-      <c r="S135" s="172"/>
-      <c r="T135" s="170"/>
-      <c r="U135" s="173"/>
-      <c r="V135" s="174"/>
-      <c r="W135" s="175"/>
-      <c r="X135" s="168"/>
-      <c r="Y135" s="169"/>
-      <c r="Z135" s="169"/>
-      <c r="AA135" s="173"/>
-      <c r="AB135" s="174"/>
-      <c r="AC135" s="169"/>
-      <c r="AD135" s="169"/>
-      <c r="AE135" s="169"/>
-      <c r="AF135" s="168"/>
-      <c r="AG135" s="169"/>
-      <c r="AH135" s="169"/>
-      <c r="AI135" s="169"/>
-      <c r="AJ135" s="169"/>
-      <c r="AK135" s="169"/>
-      <c r="AL135" s="169"/>
-      <c r="AM135" s="169"/>
-      <c r="AN135" s="169"/>
-      <c r="AO135" s="169"/>
-      <c r="AP135" s="169"/>
-      <c r="AQ135" s="169"/>
-      <c r="AR135" s="169"/>
-      <c r="AS135" s="169"/>
-      <c r="AT135" s="169"/>
-      <c r="AU135" s="169"/>
-      <c r="AV135" s="169"/>
-      <c r="AW135" s="169"/>
-      <c r="AX135" s="176"/>
+      <c r="C135" s="107" t="n">
+        <v>4</v>
+      </c>
+      <c r="D135" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="E135" s="127"/>
+      <c r="F135" s="127"/>
+      <c r="G135" s="128"/>
+      <c r="H135" s="128"/>
+      <c r="I135" s="129"/>
+      <c r="J135" s="130"/>
+      <c r="K135" s="128" t="s">
+        <v>83</v>
+      </c>
+      <c r="L135" s="128"/>
+      <c r="M135" s="128"/>
+      <c r="N135" s="130"/>
+      <c r="O135" s="128"/>
+      <c r="P135" s="128"/>
+      <c r="Q135" s="130"/>
+      <c r="R135" s="128" t="s">
+        <v>76</v>
+      </c>
+      <c r="S135" s="131"/>
+      <c r="T135" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="U135" s="107"/>
+      <c r="V135" s="108"/>
+      <c r="W135" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="X135" s="109"/>
+      <c r="Y135" s="113"/>
+      <c r="Z135" s="132"/>
+      <c r="AA135" s="127"/>
+      <c r="AB135" s="127"/>
+      <c r="AC135" s="127"/>
+      <c r="AD135" s="126"/>
+      <c r="AE135" s="127"/>
+      <c r="AF135" s="127"/>
+      <c r="AG135" s="127"/>
+      <c r="AH135" s="127"/>
+      <c r="AI135" s="127"/>
+      <c r="AJ135" s="127"/>
+      <c r="AK135" s="127"/>
+      <c r="AL135" s="127"/>
+      <c r="AM135" s="127"/>
+      <c r="AN135" s="127"/>
+      <c r="AO135" s="127"/>
+      <c r="AP135" s="127"/>
+      <c r="AQ135" s="127"/>
+      <c r="AR135" s="127"/>
+      <c r="AS135" s="127"/>
+      <c r="AT135" s="127"/>
+      <c r="AU135" s="127"/>
+      <c r="AV135" s="133"/>
+      <c r="AW135" s="20"/>
+      <c r="AX135" s="0"/>
+      <c r="AY135" s="0"/>
+      <c r="AZ135" s="0"/>
+      <c r="BA135" s="0"/>
+      <c r="BB135" s="0"/>
+      <c r="BC135" s="0"/>
+      <c r="BD135" s="0"/>
+      <c r="BE135" s="0"/>
+      <c r="BF135" s="0"/>
+      <c r="BG135" s="0"/>
+      <c r="BH135" s="0"/>
+      <c r="BI135" s="0"/>
+      <c r="BJ135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19"/>
-      <c r="O136" s="19"/>
-      <c r="P136" s="19"/>
-      <c r="Q136" s="19"/>
-      <c r="R136" s="19"/>
-      <c r="S136" s="19"/>
-      <c r="T136" s="19"/>
-      <c r="U136" s="19"/>
-      <c r="V136" s="19"/>
-      <c r="W136" s="19"/>
-      <c r="X136" s="19"/>
-      <c r="Y136" s="143"/>
-      <c r="Z136" s="143"/>
-      <c r="AA136" s="143"/>
-      <c r="AB136" s="143"/>
-      <c r="AC136" s="19"/>
-      <c r="AD136" s="19"/>
-      <c r="AE136" s="19"/>
-      <c r="AF136" s="19"/>
-      <c r="AG136" s="143"/>
-      <c r="AH136" s="143"/>
-      <c r="AI136" s="19"/>
-      <c r="AJ136" s="19"/>
-      <c r="AK136" s="19"/>
-      <c r="AL136" s="19"/>
-      <c r="AM136" s="19"/>
-      <c r="AN136" s="19"/>
-      <c r="AO136" s="19"/>
-      <c r="AP136" s="19"/>
-      <c r="AQ136" s="19"/>
-      <c r="AR136" s="19"/>
-      <c r="AS136" s="19"/>
-      <c r="AT136" s="19"/>
-      <c r="AU136" s="19"/>
-      <c r="AV136" s="19"/>
-      <c r="AW136" s="19"/>
-      <c r="AX136" s="9"/>
+      <c r="C136" s="134"/>
+      <c r="D136" s="126"/>
+      <c r="E136" s="127"/>
+      <c r="F136" s="127"/>
+      <c r="G136" s="128"/>
+      <c r="H136" s="128"/>
+      <c r="I136" s="129"/>
+      <c r="J136" s="130"/>
+      <c r="K136" s="128"/>
+      <c r="L136" s="128"/>
+      <c r="M136" s="128"/>
+      <c r="N136" s="130"/>
+      <c r="O136" s="128"/>
+      <c r="P136" s="128"/>
+      <c r="Q136" s="130"/>
+      <c r="R136" s="128"/>
+      <c r="S136" s="131"/>
+      <c r="T136" s="132"/>
+      <c r="U136" s="135"/>
+      <c r="V136" s="126"/>
+      <c r="W136" s="127"/>
+      <c r="X136" s="127"/>
+      <c r="Y136" s="131"/>
+      <c r="Z136" s="132"/>
+      <c r="AA136" s="127"/>
+      <c r="AB136" s="127"/>
+      <c r="AC136" s="127"/>
+      <c r="AD136" s="126"/>
+      <c r="AE136" s="127"/>
+      <c r="AF136" s="127"/>
+      <c r="AG136" s="127"/>
+      <c r="AH136" s="127"/>
+      <c r="AI136" s="127"/>
+      <c r="AJ136" s="127"/>
+      <c r="AK136" s="127"/>
+      <c r="AL136" s="127"/>
+      <c r="AM136" s="127"/>
+      <c r="AN136" s="127"/>
+      <c r="AO136" s="127"/>
+      <c r="AP136" s="127"/>
+      <c r="AQ136" s="127"/>
+      <c r="AR136" s="127"/>
+      <c r="AS136" s="127"/>
+      <c r="AT136" s="127"/>
+      <c r="AU136" s="127"/>
+      <c r="AV136" s="133"/>
+      <c r="AW136" s="20"/>
+      <c r="AX136" s="0"/>
+      <c r="AY136" s="0"/>
+      <c r="AZ136" s="0"/>
+      <c r="BA136" s="0"/>
+      <c r="BB136" s="0"/>
+      <c r="BC136" s="0"/>
+      <c r="BD136" s="0"/>
+      <c r="BE136" s="0"/>
+      <c r="BF136" s="0"/>
+      <c r="BG136" s="0"/>
+      <c r="BH136" s="0"/>
+      <c r="BI136" s="0"/>
+      <c r="BJ136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="144" t="s">
-        <v>49</v>
-      </c>
-      <c r="F137" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="G137" s="72"/>
-      <c r="H137" s="72"/>
-      <c r="I137" s="72"/>
-      <c r="J137" s="72"/>
-      <c r="K137" s="72"/>
-      <c r="L137" s="72"/>
-      <c r="M137" s="72"/>
-      <c r="N137" s="72"/>
-      <c r="O137" s="72"/>
-      <c r="P137" s="145" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q137" s="145"/>
-      <c r="R137" s="145"/>
-      <c r="S137" s="145"/>
-      <c r="T137" s="145"/>
-      <c r="U137" s="145"/>
-      <c r="V137" s="145"/>
-      <c r="W137" s="145"/>
-      <c r="X137" s="145"/>
-      <c r="Y137" s="145"/>
-      <c r="Z137" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA137" s="73"/>
-      <c r="AB137" s="73"/>
-      <c r="AC137" s="73"/>
-      <c r="AD137" s="73"/>
-      <c r="AE137" s="73"/>
-      <c r="AF137" s="73"/>
-      <c r="AG137" s="73"/>
-      <c r="AH137" s="73"/>
-      <c r="AI137" s="73"/>
-      <c r="AJ137" s="73"/>
-      <c r="AK137" s="73"/>
-      <c r="AL137" s="73"/>
-      <c r="AM137" s="73"/>
-      <c r="AN137" s="73"/>
-      <c r="AO137" s="73"/>
-      <c r="AP137" s="73"/>
-      <c r="AQ137" s="73"/>
-      <c r="AR137" s="73"/>
-      <c r="AS137" s="73"/>
-      <c r="AT137" s="73"/>
-      <c r="AU137" s="73"/>
-      <c r="AV137" s="73"/>
-      <c r="AW137" s="73"/>
-      <c r="AX137" s="73"/>
+      <c r="C137" s="136"/>
+      <c r="D137" s="137"/>
+      <c r="E137" s="137"/>
+      <c r="F137" s="137"/>
+      <c r="G137" s="138"/>
+      <c r="H137" s="138"/>
+      <c r="I137" s="138"/>
+      <c r="J137" s="138"/>
+      <c r="K137" s="138"/>
+      <c r="L137" s="138"/>
+      <c r="M137" s="138"/>
+      <c r="N137" s="138"/>
+      <c r="O137" s="138"/>
+      <c r="P137" s="138"/>
+      <c r="Q137" s="138"/>
+      <c r="R137" s="138"/>
+      <c r="S137" s="137"/>
+      <c r="T137" s="136"/>
+      <c r="U137" s="139"/>
+      <c r="V137" s="137"/>
+      <c r="W137" s="137"/>
+      <c r="X137" s="137"/>
+      <c r="Y137" s="137"/>
+      <c r="Z137" s="136"/>
+      <c r="AA137" s="137"/>
+      <c r="AB137" s="137"/>
+      <c r="AC137" s="137"/>
+      <c r="AD137" s="137"/>
+      <c r="AE137" s="137"/>
+      <c r="AF137" s="137"/>
+      <c r="AG137" s="137"/>
+      <c r="AH137" s="137"/>
+      <c r="AI137" s="137"/>
+      <c r="AJ137" s="137"/>
+      <c r="AK137" s="137"/>
+      <c r="AL137" s="137"/>
+      <c r="AM137" s="137"/>
+      <c r="AN137" s="137"/>
+      <c r="AO137" s="137"/>
+      <c r="AP137" s="137"/>
+      <c r="AQ137" s="137"/>
+      <c r="AR137" s="137"/>
+      <c r="AS137" s="137"/>
+      <c r="AT137" s="137"/>
+      <c r="AU137" s="137"/>
+      <c r="AV137" s="140"/>
+      <c r="AW137" s="20"/>
+      <c r="AX137" s="0"/>
+      <c r="AY137" s="0"/>
+      <c r="AZ137" s="0"/>
+      <c r="BA137" s="0"/>
+      <c r="BB137" s="0"/>
+      <c r="BC137" s="0"/>
+      <c r="BD137" s="0"/>
+      <c r="BE137" s="0"/>
+      <c r="BF137" s="0"/>
+      <c r="BG137" s="0"/>
+      <c r="BH137" s="0"/>
+      <c r="BI137" s="0"/>
+      <c r="BJ137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="146" t="n">
-        <v>1</v>
-      </c>
-      <c r="F138" s="147" t="s">
-        <v>87</v>
-      </c>
-      <c r="G138" s="97"/>
-      <c r="H138" s="97"/>
-      <c r="I138" s="97"/>
-      <c r="J138" s="97"/>
-      <c r="K138" s="97"/>
-      <c r="L138" s="97"/>
-      <c r="M138" s="97"/>
-      <c r="N138" s="97"/>
-      <c r="O138" s="148"/>
-      <c r="P138" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q138" s="150"/>
-      <c r="R138" s="150"/>
-      <c r="S138" s="150"/>
-      <c r="T138" s="150"/>
-      <c r="U138" s="150"/>
-      <c r="V138" s="150"/>
-      <c r="W138" s="150"/>
-      <c r="X138" s="150"/>
-      <c r="Y138" s="151"/>
-      <c r="Z138" s="149"/>
-      <c r="AA138" s="152"/>
-      <c r="AB138" s="152"/>
-      <c r="AC138" s="152"/>
-      <c r="AD138" s="150"/>
-      <c r="AE138" s="150"/>
-      <c r="AF138" s="150"/>
-      <c r="AG138" s="150"/>
-      <c r="AH138" s="152"/>
-      <c r="AI138" s="152"/>
-      <c r="AJ138" s="150"/>
-      <c r="AK138" s="150"/>
-      <c r="AL138" s="150"/>
-      <c r="AM138" s="150"/>
-      <c r="AN138" s="150"/>
-      <c r="AO138" s="150"/>
-      <c r="AP138" s="150"/>
-      <c r="AQ138" s="150"/>
-      <c r="AR138" s="150"/>
-      <c r="AS138" s="150"/>
-      <c r="AT138" s="150"/>
-      <c r="AU138" s="150"/>
-      <c r="AV138" s="150"/>
-      <c r="AW138" s="150"/>
-      <c r="AX138" s="151"/>
+      <c r="AW138" s="20"/>
+      <c r="AX138" s="0"/>
+      <c r="AY138" s="0"/>
+      <c r="AZ138" s="0"/>
+      <c r="BA138" s="0"/>
+      <c r="BB138" s="0"/>
+      <c r="BC138" s="0"/>
+      <c r="BD138" s="0"/>
+      <c r="BE138" s="0"/>
+      <c r="BF138" s="0"/>
+      <c r="BG138" s="0"/>
+      <c r="BH138" s="0"/>
+      <c r="BI138" s="0"/>
+      <c r="BJ138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
+      <c r="C139" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="D139" s="19"/>
-      <c r="E139" s="153"/>
-      <c r="F139" s="154"/>
-      <c r="G139" s="155"/>
-      <c r="H139" s="155"/>
-      <c r="I139" s="155"/>
-      <c r="J139" s="155"/>
-      <c r="K139" s="155"/>
-      <c r="L139" s="155"/>
-      <c r="M139" s="155"/>
-      <c r="N139" s="155"/>
-      <c r="O139" s="156"/>
-      <c r="P139" s="154"/>
-      <c r="Q139" s="155"/>
-      <c r="R139" s="155"/>
-      <c r="S139" s="155"/>
-      <c r="T139" s="155"/>
-      <c r="U139" s="155"/>
-      <c r="V139" s="155"/>
-      <c r="W139" s="155"/>
-      <c r="X139" s="155"/>
-      <c r="Y139" s="156"/>
-      <c r="Z139" s="154"/>
-      <c r="AA139" s="157"/>
-      <c r="AB139" s="157"/>
-      <c r="AC139" s="157"/>
-      <c r="AD139" s="155"/>
-      <c r="AE139" s="155"/>
-      <c r="AF139" s="155"/>
-      <c r="AG139" s="155"/>
-      <c r="AH139" s="157"/>
-      <c r="AI139" s="157"/>
-      <c r="AJ139" s="155"/>
-      <c r="AK139" s="155"/>
-      <c r="AL139" s="155"/>
-      <c r="AM139" s="155"/>
-      <c r="AN139" s="155"/>
-      <c r="AO139" s="155"/>
-      <c r="AP139" s="155"/>
-      <c r="AQ139" s="155"/>
-      <c r="AR139" s="155"/>
-      <c r="AS139" s="155"/>
-      <c r="AT139" s="155"/>
-      <c r="AU139" s="155"/>
-      <c r="AV139" s="155"/>
-      <c r="AW139" s="155"/>
-      <c r="AX139" s="156"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="19"/>
+      <c r="S139" s="19"/>
+      <c r="T139" s="19"/>
+      <c r="U139" s="19"/>
+      <c r="V139" s="19"/>
+      <c r="W139" s="141"/>
+      <c r="X139" s="141"/>
+      <c r="Y139" s="141"/>
+      <c r="Z139" s="141"/>
+      <c r="AA139" s="19"/>
+      <c r="AB139" s="19"/>
+      <c r="AC139" s="19"/>
+      <c r="AD139" s="19"/>
+      <c r="AE139" s="141"/>
+      <c r="AF139" s="141"/>
+      <c r="AG139" s="19"/>
+      <c r="AH139" s="19"/>
+      <c r="AI139" s="19"/>
+      <c r="AJ139" s="19"/>
+      <c r="AK139" s="19"/>
+      <c r="AL139" s="19"/>
+      <c r="AM139" s="19"/>
+      <c r="AN139" s="19"/>
+      <c r="AO139" s="19"/>
+      <c r="AP139" s="19"/>
+      <c r="AQ139" s="19"/>
+      <c r="AR139" s="19"/>
+      <c r="AS139" s="19"/>
+      <c r="AT139" s="19"/>
+      <c r="AU139" s="19"/>
+      <c r="AW139" s="20"/>
+      <c r="AX139" s="0"/>
+      <c r="AY139" s="0"/>
+      <c r="AZ139" s="0"/>
+      <c r="BA139" s="0"/>
+      <c r="BB139" s="0"/>
+      <c r="BC139" s="0"/>
+      <c r="BD139" s="0"/>
+      <c r="BE139" s="0"/>
+      <c r="BF139" s="0"/>
+      <c r="BG139" s="0"/>
+      <c r="BH139" s="0"/>
+      <c r="BI139" s="0"/>
+      <c r="BJ139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="158"/>
-      <c r="F140" s="159"/>
-      <c r="G140" s="160"/>
-      <c r="H140" s="160"/>
-      <c r="I140" s="160"/>
-      <c r="J140" s="160"/>
-      <c r="K140" s="160"/>
-      <c r="L140" s="160"/>
-      <c r="M140" s="160"/>
-      <c r="N140" s="160"/>
-      <c r="O140" s="161"/>
-      <c r="P140" s="162"/>
-      <c r="Q140" s="163"/>
-      <c r="R140" s="163"/>
-      <c r="S140" s="163"/>
-      <c r="T140" s="163"/>
-      <c r="U140" s="163"/>
-      <c r="V140" s="163"/>
-      <c r="W140" s="163"/>
-      <c r="X140" s="163"/>
-      <c r="Y140" s="164"/>
-      <c r="Z140" s="162"/>
-      <c r="AA140" s="165"/>
-      <c r="AB140" s="165"/>
-      <c r="AC140" s="165"/>
-      <c r="AD140" s="163"/>
-      <c r="AE140" s="163"/>
-      <c r="AF140" s="163"/>
-      <c r="AG140" s="163"/>
-      <c r="AH140" s="165"/>
-      <c r="AI140" s="165"/>
-      <c r="AJ140" s="163"/>
-      <c r="AK140" s="163"/>
-      <c r="AL140" s="163"/>
-      <c r="AM140" s="163"/>
-      <c r="AN140" s="163"/>
-      <c r="AO140" s="163"/>
-      <c r="AP140" s="163"/>
-      <c r="AQ140" s="163"/>
-      <c r="AR140" s="163"/>
-      <c r="AS140" s="163"/>
-      <c r="AT140" s="163"/>
-      <c r="AU140" s="163"/>
-      <c r="AV140" s="163"/>
-      <c r="AW140" s="163"/>
-      <c r="AX140" s="166"/>
+      <c r="C140" s="142" t="s">
+        <v>49</v>
+      </c>
+      <c r="D140" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="72"/>
+      <c r="H140" s="72"/>
+      <c r="I140" s="72"/>
+      <c r="J140" s="72"/>
+      <c r="K140" s="72"/>
+      <c r="L140" s="72"/>
+      <c r="M140" s="72"/>
+      <c r="N140" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="O140" s="143"/>
+      <c r="P140" s="143"/>
+      <c r="Q140" s="143"/>
+      <c r="R140" s="143"/>
+      <c r="S140" s="143"/>
+      <c r="T140" s="143"/>
+      <c r="U140" s="143"/>
+      <c r="V140" s="143"/>
+      <c r="W140" s="143"/>
+      <c r="X140" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y140" s="73"/>
+      <c r="Z140" s="73"/>
+      <c r="AA140" s="73"/>
+      <c r="AB140" s="73"/>
+      <c r="AC140" s="73"/>
+      <c r="AD140" s="73"/>
+      <c r="AE140" s="73"/>
+      <c r="AF140" s="73"/>
+      <c r="AG140" s="73"/>
+      <c r="AH140" s="73"/>
+      <c r="AI140" s="73"/>
+      <c r="AJ140" s="73"/>
+      <c r="AK140" s="73"/>
+      <c r="AL140" s="73"/>
+      <c r="AM140" s="73"/>
+      <c r="AN140" s="73"/>
+      <c r="AO140" s="73"/>
+      <c r="AP140" s="73"/>
+      <c r="AQ140" s="73"/>
+      <c r="AR140" s="73"/>
+      <c r="AS140" s="73"/>
+      <c r="AT140" s="73"/>
+      <c r="AU140" s="73"/>
+      <c r="AV140" s="73"/>
+      <c r="AW140" s="20"/>
+      <c r="AX140" s="0"/>
+      <c r="AY140" s="0"/>
+      <c r="AZ140" s="0"/>
+      <c r="BA140" s="0"/>
+      <c r="BB140" s="0"/>
+      <c r="BC140" s="0"/>
+      <c r="BD140" s="0"/>
+      <c r="BE140" s="0"/>
+      <c r="BF140" s="0"/>
+      <c r="BG140" s="0"/>
+      <c r="BH140" s="0"/>
+      <c r="BI140" s="0"/>
+      <c r="BJ140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
-      <c r="C141" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D141" s="19"/>
-      <c r="E141" s="143"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="24"/>
-      <c r="L141" s="24"/>
-      <c r="M141" s="24"/>
-      <c r="N141" s="24"/>
-      <c r="O141" s="24"/>
-      <c r="P141" s="24"/>
-      <c r="Q141" s="24"/>
-      <c r="R141" s="24"/>
-      <c r="S141" s="24"/>
-      <c r="T141" s="24"/>
-      <c r="U141" s="24"/>
-      <c r="V141" s="24"/>
-      <c r="W141" s="24"/>
-      <c r="X141" s="24"/>
-      <c r="Y141" s="24"/>
-      <c r="Z141" s="24"/>
-      <c r="AA141" s="24"/>
-      <c r="AB141" s="24"/>
-      <c r="AC141" s="24"/>
-      <c r="AD141" s="24"/>
-      <c r="AF141" s="24"/>
-      <c r="AG141" s="24"/>
-      <c r="AH141" s="24"/>
-      <c r="AI141" s="24"/>
-      <c r="AJ141" s="24"/>
-      <c r="AK141" s="24"/>
-      <c r="AL141" s="24"/>
-      <c r="AM141" s="24"/>
-      <c r="AN141" s="24"/>
-      <c r="AO141" s="24"/>
-      <c r="AP141" s="24"/>
-      <c r="AQ141" s="24"/>
-      <c r="AR141" s="24"/>
-      <c r="AS141" s="24"/>
-      <c r="AT141" s="24"/>
-      <c r="AU141" s="24"/>
-      <c r="AV141" s="19"/>
+      <c r="C141" s="144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" s="145" t="s">
+        <v>85</v>
+      </c>
+      <c r="E141" s="97"/>
+      <c r="F141" s="97"/>
+      <c r="G141" s="97"/>
+      <c r="H141" s="97"/>
+      <c r="I141" s="97"/>
+      <c r="J141" s="97"/>
+      <c r="K141" s="97"/>
+      <c r="L141" s="97"/>
+      <c r="M141" s="146"/>
+      <c r="N141" s="147" t="s">
+        <v>86</v>
+      </c>
+      <c r="O141" s="148"/>
+      <c r="P141" s="148"/>
+      <c r="Q141" s="148"/>
+      <c r="R141" s="148"/>
+      <c r="S141" s="148"/>
+      <c r="T141" s="148"/>
+      <c r="U141" s="148"/>
+      <c r="V141" s="148"/>
+      <c r="W141" s="149"/>
+      <c r="X141" s="147"/>
+      <c r="Y141" s="150"/>
+      <c r="Z141" s="150"/>
+      <c r="AA141" s="150"/>
+      <c r="AB141" s="148"/>
+      <c r="AC141" s="148"/>
+      <c r="AD141" s="148"/>
+      <c r="AE141" s="148"/>
+      <c r="AF141" s="150"/>
+      <c r="AG141" s="150"/>
+      <c r="AH141" s="148"/>
+      <c r="AI141" s="148"/>
+      <c r="AJ141" s="148"/>
+      <c r="AK141" s="148"/>
+      <c r="AL141" s="148"/>
+      <c r="AM141" s="148"/>
+      <c r="AN141" s="148"/>
+      <c r="AO141" s="148"/>
+      <c r="AP141" s="148"/>
+      <c r="AQ141" s="148"/>
+      <c r="AR141" s="148"/>
+      <c r="AS141" s="148"/>
+      <c r="AT141" s="148"/>
+      <c r="AU141" s="148"/>
+      <c r="AV141" s="149"/>
       <c r="AW141" s="20"/>
+      <c r="AX141" s="0"/>
+      <c r="AY141" s="0"/>
+      <c r="AZ141" s="0"/>
+      <c r="BA141" s="0"/>
+      <c r="BB141" s="0"/>
+      <c r="BC141" s="0"/>
+      <c r="BD141" s="0"/>
+      <c r="BE141" s="0"/>
+      <c r="BF141" s="0"/>
+      <c r="BG141" s="0"/>
+      <c r="BH141" s="0"/>
+      <c r="BI141" s="0"/>
+      <c r="BJ141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
-      <c r="D142" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E142" s="143"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-      <c r="O142" s="19"/>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="19"/>
-      <c r="R142" s="19"/>
-      <c r="S142" s="19"/>
-      <c r="T142" s="19"/>
-      <c r="U142" s="19"/>
-      <c r="V142" s="19"/>
-      <c r="W142" s="19"/>
-      <c r="X142" s="19"/>
-      <c r="Y142" s="19"/>
-      <c r="Z142" s="19"/>
-      <c r="AA142" s="19"/>
-      <c r="AB142" s="19"/>
-      <c r="AC142" s="19"/>
-      <c r="AD142" s="19"/>
-      <c r="AE142" s="1"/>
-      <c r="AF142" s="19"/>
-      <c r="AG142" s="19"/>
-      <c r="AH142" s="19"/>
-      <c r="AI142" s="19"/>
-      <c r="AJ142" s="19"/>
-      <c r="AK142" s="19"/>
-      <c r="AL142" s="19"/>
-      <c r="AM142" s="19"/>
-      <c r="AN142" s="19"/>
-      <c r="AO142" s="19"/>
-      <c r="AP142" s="19"/>
-      <c r="AQ142" s="19"/>
-      <c r="AR142" s="19"/>
-      <c r="AS142" s="19"/>
-      <c r="AT142" s="19"/>
-      <c r="AU142" s="19"/>
-      <c r="AV142" s="19"/>
+      <c r="C142" s="151" t="n">
+        <v>2</v>
+      </c>
+      <c r="D142" s="152" t="s">
+        <v>87</v>
+      </c>
+      <c r="E142" s="153"/>
+      <c r="F142" s="153"/>
+      <c r="G142" s="153"/>
+      <c r="H142" s="153"/>
+      <c r="I142" s="153"/>
+      <c r="J142" s="153"/>
+      <c r="K142" s="153"/>
+      <c r="L142" s="153"/>
+      <c r="M142" s="154"/>
+      <c r="N142" s="152" t="s">
+        <v>88</v>
+      </c>
+      <c r="O142" s="153"/>
+      <c r="P142" s="153"/>
+      <c r="Q142" s="153"/>
+      <c r="R142" s="153"/>
+      <c r="S142" s="153"/>
+      <c r="T142" s="153"/>
+      <c r="U142" s="153"/>
+      <c r="V142" s="153"/>
+      <c r="W142" s="154"/>
+      <c r="X142" s="152"/>
+      <c r="Y142" s="155"/>
+      <c r="Z142" s="155"/>
+      <c r="AA142" s="155"/>
+      <c r="AB142" s="153"/>
+      <c r="AC142" s="153"/>
+      <c r="AD142" s="153"/>
+      <c r="AE142" s="153"/>
+      <c r="AF142" s="155"/>
+      <c r="AG142" s="155"/>
+      <c r="AH142" s="153"/>
+      <c r="AI142" s="153"/>
+      <c r="AJ142" s="153"/>
+      <c r="AK142" s="153"/>
+      <c r="AL142" s="153"/>
+      <c r="AM142" s="153"/>
+      <c r="AN142" s="153"/>
+      <c r="AO142" s="153"/>
+      <c r="AP142" s="153"/>
+      <c r="AQ142" s="153"/>
+      <c r="AR142" s="153"/>
+      <c r="AS142" s="153"/>
+      <c r="AT142" s="153"/>
+      <c r="AU142" s="153"/>
+      <c r="AV142" s="154"/>
       <c r="AW142" s="20"/>
+      <c r="AX142" s="0"/>
+      <c r="AY142" s="0"/>
+      <c r="AZ142" s="0"/>
+      <c r="BA142" s="0"/>
+      <c r="BB142" s="0"/>
+      <c r="BC142" s="0"/>
+      <c r="BD142" s="0"/>
+      <c r="BE142" s="0"/>
+      <c r="BF142" s="0"/>
+      <c r="BG142" s="0"/>
+      <c r="BH142" s="0"/>
+      <c r="BI142" s="0"/>
+      <c r="BJ142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
-      <c r="D143" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E143" s="143"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="19"/>
-      <c r="M143" s="19"/>
-      <c r="N143" s="19"/>
-      <c r="O143" s="19"/>
-      <c r="P143" s="19"/>
-      <c r="Q143" s="19"/>
-      <c r="R143" s="19"/>
-      <c r="S143" s="19"/>
-      <c r="T143" s="19"/>
-      <c r="U143" s="19"/>
-      <c r="V143" s="19"/>
-      <c r="W143" s="19"/>
-      <c r="X143" s="19"/>
-      <c r="Y143" s="19"/>
-      <c r="Z143" s="19"/>
-      <c r="AA143" s="19"/>
-      <c r="AB143" s="19"/>
-      <c r="AC143" s="19"/>
-      <c r="AD143" s="19"/>
-      <c r="AE143" s="1"/>
-      <c r="AF143" s="19"/>
-      <c r="AG143" s="19"/>
-      <c r="AH143" s="19"/>
-      <c r="AI143" s="19"/>
-      <c r="AJ143" s="19"/>
-      <c r="AK143" s="19"/>
-      <c r="AL143" s="19"/>
-      <c r="AM143" s="19"/>
-      <c r="AN143" s="19"/>
-      <c r="AO143" s="19"/>
-      <c r="AP143" s="19"/>
-      <c r="AQ143" s="19"/>
-      <c r="AR143" s="19"/>
-      <c r="AS143" s="19"/>
-      <c r="AT143" s="19"/>
-      <c r="AU143" s="19"/>
-      <c r="AV143" s="19"/>
+      <c r="C143" s="151" t="n">
+        <v>3</v>
+      </c>
+      <c r="D143" s="156" t="s">
+        <v>89</v>
+      </c>
+      <c r="E143" s="157"/>
+      <c r="F143" s="157"/>
+      <c r="G143" s="157"/>
+      <c r="H143" s="157"/>
+      <c r="I143" s="157"/>
+      <c r="J143" s="157"/>
+      <c r="K143" s="157"/>
+      <c r="L143" s="157"/>
+      <c r="M143" s="158"/>
+      <c r="N143" s="159" t="s">
+        <v>86</v>
+      </c>
+      <c r="O143" s="160"/>
+      <c r="P143" s="160"/>
+      <c r="Q143" s="160"/>
+      <c r="R143" s="160"/>
+      <c r="S143" s="160"/>
+      <c r="T143" s="160"/>
+      <c r="U143" s="160"/>
+      <c r="V143" s="160"/>
+      <c r="W143" s="161"/>
+      <c r="X143" s="159"/>
+      <c r="Y143" s="162"/>
+      <c r="Z143" s="162"/>
+      <c r="AA143" s="162"/>
+      <c r="AB143" s="160"/>
+      <c r="AC143" s="160"/>
+      <c r="AD143" s="160"/>
+      <c r="AE143" s="160"/>
+      <c r="AF143" s="162"/>
+      <c r="AG143" s="162"/>
+      <c r="AH143" s="160"/>
+      <c r="AI143" s="160"/>
+      <c r="AJ143" s="160"/>
+      <c r="AK143" s="160"/>
+      <c r="AL143" s="160"/>
+      <c r="AM143" s="160"/>
+      <c r="AN143" s="160"/>
+      <c r="AO143" s="160"/>
+      <c r="AP143" s="160"/>
+      <c r="AQ143" s="160"/>
+      <c r="AR143" s="160"/>
+      <c r="AS143" s="160"/>
+      <c r="AT143" s="160"/>
+      <c r="AU143" s="160"/>
+      <c r="AV143" s="163"/>
       <c r="AW143" s="20"/>
+      <c r="AX143" s="0"/>
+      <c r="AY143" s="0"/>
+      <c r="AZ143" s="0"/>
+      <c r="BA143" s="0"/>
+      <c r="BB143" s="0"/>
+      <c r="BC143" s="0"/>
+      <c r="BD143" s="0"/>
+      <c r="BE143" s="0"/>
+      <c r="BF143" s="0"/>
+      <c r="BG143" s="0"/>
+      <c r="BH143" s="0"/>
+      <c r="BI143" s="0"/>
+      <c r="BJ143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="177" t="s">
-        <v>91</v>
-      </c>
+      <c r="B144" s="28"/>
+      <c r="C144" s="141"/>
+      <c r="D144" s="164"/>
+      <c r="E144" s="19"/>
       <c r="F144" s="19"/>
       <c r="G144" s="19"/>
       <c r="H144" s="19"/>
@@ -15892,15 +15901,15 @@
       <c r="V144" s="19"/>
       <c r="W144" s="19"/>
       <c r="X144" s="19"/>
-      <c r="Y144" s="19"/>
-      <c r="Z144" s="19"/>
-      <c r="AA144" s="19"/>
+      <c r="Y144" s="141"/>
+      <c r="Z144" s="141"/>
+      <c r="AA144" s="141"/>
       <c r="AB144" s="19"/>
       <c r="AC144" s="19"/>
       <c r="AD144" s="19"/>
-      <c r="AE144" s="1"/>
-      <c r="AF144" s="19"/>
-      <c r="AG144" s="19"/>
+      <c r="AE144" s="19"/>
+      <c r="AF144" s="141"/>
+      <c r="AG144" s="141"/>
       <c r="AH144" s="19"/>
       <c r="AI144" s="19"/>
       <c r="AJ144" s="19"/>
@@ -15915,730 +15924,963 @@
       <c r="AS144" s="19"/>
       <c r="AT144" s="19"/>
       <c r="AU144" s="19"/>
-      <c r="AV144" s="19"/>
       <c r="AW144" s="20"/>
+      <c r="AX144" s="0"/>
+      <c r="AY144" s="0"/>
+      <c r="AZ144" s="0"/>
+      <c r="BA144" s="0"/>
+      <c r="BB144" s="0"/>
+      <c r="BC144" s="0"/>
+      <c r="BD144" s="0"/>
+      <c r="BE144" s="0"/>
+      <c r="BF144" s="0"/>
+      <c r="BG144" s="0"/>
+      <c r="BH144" s="0"/>
+      <c r="BI144" s="0"/>
+      <c r="BJ144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="17"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="178" t="s">
-        <v>49</v>
-      </c>
-      <c r="F145" s="179" t="s">
-        <v>67</v>
-      </c>
-      <c r="G145" s="179"/>
-      <c r="H145" s="179"/>
-      <c r="I145" s="179"/>
-      <c r="J145" s="179"/>
-      <c r="K145" s="179"/>
-      <c r="L145" s="179"/>
-      <c r="M145" s="179"/>
-      <c r="N145" s="179" t="s">
-        <v>92</v>
-      </c>
-      <c r="O145" s="179"/>
-      <c r="P145" s="179"/>
-      <c r="Q145" s="179"/>
-      <c r="R145" s="179"/>
-      <c r="S145" s="179"/>
-      <c r="T145" s="179"/>
-      <c r="U145" s="179"/>
-      <c r="V145" s="179"/>
-      <c r="W145" s="179"/>
-      <c r="X145" s="179"/>
-      <c r="Y145" s="179"/>
-      <c r="Z145" s="179"/>
-      <c r="AA145" s="179"/>
-      <c r="AB145" s="179"/>
-      <c r="AC145" s="179"/>
-      <c r="AD145" s="179"/>
-      <c r="AE145" s="179"/>
-      <c r="AF145" s="179"/>
-      <c r="AG145" s="179"/>
-      <c r="AH145" s="179"/>
-      <c r="AI145" s="179"/>
-      <c r="AJ145" s="179" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK145" s="179"/>
-      <c r="AL145" s="179"/>
-      <c r="AM145" s="179"/>
-      <c r="AN145" s="179"/>
-      <c r="AO145" s="179"/>
-      <c r="AP145" s="179"/>
-      <c r="AQ145" s="179"/>
-      <c r="AR145" s="179"/>
-      <c r="AS145" s="179"/>
-      <c r="AT145" s="179"/>
-      <c r="AU145" s="179"/>
-      <c r="AV145" s="19"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="141"/>
+      <c r="D145" s="164"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="19"/>
+      <c r="L145" s="19"/>
+      <c r="M145" s="19"/>
+      <c r="N145" s="19"/>
+      <c r="O145" s="19"/>
+      <c r="P145" s="19"/>
+      <c r="Q145" s="19"/>
+      <c r="R145" s="19"/>
+      <c r="S145" s="19"/>
+      <c r="T145" s="19"/>
+      <c r="U145" s="19"/>
+      <c r="V145" s="19"/>
+      <c r="W145" s="19"/>
+      <c r="X145" s="19"/>
+      <c r="Y145" s="141"/>
+      <c r="Z145" s="141"/>
+      <c r="AA145" s="141"/>
+      <c r="AB145" s="19"/>
+      <c r="AC145" s="19"/>
+      <c r="AD145" s="19"/>
+      <c r="AE145" s="19"/>
+      <c r="AF145" s="141"/>
+      <c r="AG145" s="141"/>
+      <c r="AH145" s="19"/>
+      <c r="AI145" s="19"/>
+      <c r="AJ145" s="19"/>
+      <c r="AK145" s="19"/>
+      <c r="AL145" s="19"/>
+      <c r="AM145" s="19"/>
+      <c r="AN145" s="19"/>
+      <c r="AO145" s="19"/>
+      <c r="AP145" s="19"/>
+      <c r="AQ145" s="19"/>
+      <c r="AR145" s="19"/>
+      <c r="AS145" s="19"/>
+      <c r="AT145" s="19"/>
+      <c r="AU145" s="19"/>
       <c r="AW145" s="20"/>
+      <c r="AX145" s="0"/>
+      <c r="AY145" s="0"/>
+      <c r="AZ145" s="0"/>
+      <c r="BA145" s="0"/>
+      <c r="BB145" s="0"/>
+      <c r="BC145" s="0"/>
+      <c r="BD145" s="0"/>
+      <c r="BE145" s="0"/>
+      <c r="BF145" s="0"/>
+      <c r="BG145" s="0"/>
+      <c r="BH145" s="0"/>
+      <c r="BI145" s="0"/>
+      <c r="BJ145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="17"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="180"/>
-      <c r="F146" s="181"/>
-      <c r="G146" s="182"/>
-      <c r="H146" s="182"/>
-      <c r="I146" s="183"/>
-      <c r="J146" s="183"/>
-      <c r="K146" s="183"/>
-      <c r="L146" s="183"/>
-      <c r="M146" s="184"/>
-      <c r="N146" s="185"/>
-      <c r="O146" s="182"/>
-      <c r="P146" s="182"/>
-      <c r="Q146" s="183"/>
-      <c r="R146" s="183"/>
-      <c r="S146" s="183"/>
-      <c r="T146" s="183"/>
-      <c r="U146" s="183"/>
-      <c r="V146" s="186"/>
-      <c r="W146" s="186"/>
-      <c r="X146" s="186"/>
-      <c r="Y146" s="186"/>
-      <c r="Z146" s="186"/>
-      <c r="AA146" s="186"/>
-      <c r="AB146" s="186"/>
-      <c r="AC146" s="186"/>
-      <c r="AD146" s="186"/>
-      <c r="AE146" s="186"/>
-      <c r="AF146" s="186"/>
-      <c r="AG146" s="186"/>
-      <c r="AH146" s="186"/>
-      <c r="AI146" s="187"/>
-      <c r="AJ146" s="188"/>
-      <c r="AK146" s="189"/>
-      <c r="AL146" s="189"/>
-      <c r="AM146" s="189"/>
-      <c r="AN146" s="189"/>
-      <c r="AO146" s="189"/>
-      <c r="AP146" s="189"/>
-      <c r="AQ146" s="189"/>
-      <c r="AR146" s="189"/>
-      <c r="AS146" s="189"/>
-      <c r="AT146" s="189"/>
-      <c r="AU146" s="190"/>
-      <c r="AV146" s="19"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="141"/>
+      <c r="D146" s="164"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="19"/>
+      <c r="N146" s="19"/>
+      <c r="O146" s="19"/>
+      <c r="P146" s="19"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="19"/>
+      <c r="S146" s="19"/>
+      <c r="T146" s="19"/>
+      <c r="U146" s="19"/>
+      <c r="V146" s="19"/>
+      <c r="W146" s="19"/>
+      <c r="X146" s="19"/>
+      <c r="Y146" s="141"/>
+      <c r="Z146" s="141"/>
+      <c r="AA146" s="141"/>
+      <c r="AB146" s="19"/>
+      <c r="AC146" s="19"/>
+      <c r="AD146" s="19"/>
+      <c r="AE146" s="19"/>
+      <c r="AF146" s="141"/>
+      <c r="AG146" s="141"/>
+      <c r="AH146" s="19"/>
+      <c r="AI146" s="19"/>
+      <c r="AJ146" s="19"/>
+      <c r="AK146" s="19"/>
+      <c r="AL146" s="19"/>
+      <c r="AM146" s="19"/>
+      <c r="AN146" s="19"/>
+      <c r="AO146" s="19"/>
+      <c r="AP146" s="19"/>
+      <c r="AQ146" s="19"/>
+      <c r="AR146" s="19"/>
+      <c r="AS146" s="19"/>
+      <c r="AT146" s="19"/>
+      <c r="AU146" s="19"/>
       <c r="AW146" s="20"/>
-      <c r="AY146" s="191"/>
+      <c r="AX146" s="0"/>
+      <c r="AY146" s="0"/>
+      <c r="AZ146" s="0"/>
+      <c r="BA146" s="0"/>
+      <c r="BB146" s="0"/>
+      <c r="BC146" s="0"/>
+      <c r="BD146" s="0"/>
+      <c r="BE146" s="0"/>
+      <c r="BF146" s="0"/>
+      <c r="BG146" s="0"/>
+      <c r="BH146" s="0"/>
+      <c r="BI146" s="0"/>
+      <c r="BJ146" s="0"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
+      <c r="C147" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="D147" s="19"/>
-      <c r="E147" s="192"/>
-      <c r="F147" s="193"/>
-      <c r="G147" s="194"/>
-      <c r="H147" s="194"/>
-      <c r="I147" s="195"/>
-      <c r="J147" s="195"/>
-      <c r="K147" s="195"/>
-      <c r="L147" s="195"/>
-      <c r="M147" s="196"/>
-      <c r="N147" s="197"/>
-      <c r="O147" s="198"/>
-      <c r="P147" s="198"/>
-      <c r="Q147" s="199"/>
-      <c r="R147" s="199"/>
-      <c r="S147" s="199"/>
-      <c r="T147" s="199"/>
-      <c r="U147" s="199"/>
-      <c r="V147" s="200"/>
-      <c r="W147" s="200"/>
-      <c r="X147" s="200"/>
-      <c r="Y147" s="200"/>
-      <c r="Z147" s="200"/>
-      <c r="AA147" s="200"/>
-      <c r="AB147" s="200"/>
-      <c r="AC147" s="200"/>
-      <c r="AD147" s="200"/>
-      <c r="AE147" s="200"/>
-      <c r="AF147" s="200"/>
-      <c r="AG147" s="200"/>
-      <c r="AH147" s="200"/>
-      <c r="AI147" s="201"/>
-      <c r="AJ147" s="202"/>
-      <c r="AK147" s="203"/>
-      <c r="AL147" s="203"/>
-      <c r="AM147" s="203"/>
-      <c r="AN147" s="203"/>
-      <c r="AO147" s="203"/>
-      <c r="AP147" s="203"/>
-      <c r="AQ147" s="203"/>
-      <c r="AR147" s="203"/>
-      <c r="AS147" s="203"/>
-      <c r="AT147" s="203"/>
-      <c r="AU147" s="204"/>
-      <c r="AV147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="19"/>
+      <c r="V147" s="19"/>
+      <c r="W147" s="141"/>
+      <c r="X147" s="141"/>
+      <c r="Y147" s="141"/>
+      <c r="Z147" s="141"/>
+      <c r="AA147" s="19"/>
+      <c r="AB147" s="19"/>
+      <c r="AC147" s="19"/>
+      <c r="AD147" s="19"/>
+      <c r="AE147" s="141"/>
+      <c r="AF147" s="141"/>
+      <c r="AG147" s="19"/>
+      <c r="AH147" s="19"/>
+      <c r="AI147" s="19"/>
+      <c r="AJ147" s="19"/>
+      <c r="AK147" s="19"/>
+      <c r="AL147" s="19"/>
+      <c r="AM147" s="19"/>
+      <c r="AN147" s="19"/>
+      <c r="AO147" s="19"/>
+      <c r="AP147" s="19"/>
+      <c r="AQ147" s="19"/>
+      <c r="AR147" s="19"/>
+      <c r="AS147" s="19"/>
+      <c r="AT147" s="19"/>
+      <c r="AU147" s="19"/>
       <c r="AW147" s="20"/>
-      <c r="AY147" s="191"/>
-    </row>
-    <row r="148" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AX147" s="0"/>
+      <c r="AY147" s="0"/>
+      <c r="AZ147" s="0"/>
+      <c r="BA147" s="0"/>
+      <c r="BB147" s="0"/>
+      <c r="BC147" s="0"/>
+      <c r="BD147" s="0"/>
+      <c r="BE147" s="0"/>
+      <c r="BF147" s="0"/>
+      <c r="BG147" s="0"/>
+      <c r="BH147" s="0"/>
+      <c r="BI147" s="0"/>
+      <c r="BJ147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="180"/>
-      <c r="F148" s="181"/>
-      <c r="G148" s="182"/>
-      <c r="H148" s="182"/>
-      <c r="I148" s="183"/>
-      <c r="J148" s="183"/>
-      <c r="K148" s="183"/>
-      <c r="L148" s="183"/>
-      <c r="M148" s="184"/>
-      <c r="N148" s="185"/>
-      <c r="O148" s="182"/>
-      <c r="P148" s="182"/>
-      <c r="Q148" s="183"/>
-      <c r="R148" s="183"/>
-      <c r="S148" s="183"/>
-      <c r="T148" s="183"/>
-      <c r="U148" s="183"/>
-      <c r="V148" s="186"/>
-      <c r="W148" s="186"/>
-      <c r="X148" s="186"/>
-      <c r="Y148" s="186"/>
-      <c r="Z148" s="186"/>
-      <c r="AA148" s="186"/>
-      <c r="AB148" s="186"/>
-      <c r="AC148" s="186"/>
-      <c r="AD148" s="186"/>
-      <c r="AE148" s="186"/>
-      <c r="AF148" s="186"/>
-      <c r="AG148" s="186"/>
-      <c r="AH148" s="186"/>
-      <c r="AI148" s="187"/>
-      <c r="AJ148" s="188"/>
-      <c r="AK148" s="189"/>
-      <c r="AL148" s="189"/>
-      <c r="AM148" s="189"/>
-      <c r="AN148" s="189"/>
-      <c r="AO148" s="189"/>
-      <c r="AP148" s="189"/>
-      <c r="AQ148" s="189"/>
-      <c r="AR148" s="189"/>
-      <c r="AS148" s="189"/>
-      <c r="AT148" s="189"/>
-      <c r="AU148" s="190"/>
-      <c r="AV148" s="19"/>
+      <c r="C148" s="142" t="s">
+        <v>49</v>
+      </c>
+      <c r="D148" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E148" s="72"/>
+      <c r="F148" s="72"/>
+      <c r="G148" s="72"/>
+      <c r="H148" s="72"/>
+      <c r="I148" s="72"/>
+      <c r="J148" s="72"/>
+      <c r="K148" s="72"/>
+      <c r="L148" s="72"/>
+      <c r="M148" s="72"/>
+      <c r="N148" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="O148" s="143"/>
+      <c r="P148" s="143"/>
+      <c r="Q148" s="143"/>
+      <c r="R148" s="143"/>
+      <c r="S148" s="143"/>
+      <c r="T148" s="143"/>
+      <c r="U148" s="143"/>
+      <c r="V148" s="143"/>
+      <c r="W148" s="143"/>
+      <c r="X148" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y148" s="73"/>
+      <c r="Z148" s="73"/>
+      <c r="AA148" s="73"/>
+      <c r="AB148" s="73"/>
+      <c r="AC148" s="73"/>
+      <c r="AD148" s="73"/>
+      <c r="AE148" s="73"/>
+      <c r="AF148" s="73"/>
+      <c r="AG148" s="73"/>
+      <c r="AH148" s="73"/>
+      <c r="AI148" s="73"/>
+      <c r="AJ148" s="73"/>
+      <c r="AK148" s="73"/>
+      <c r="AL148" s="73"/>
+      <c r="AM148" s="73"/>
+      <c r="AN148" s="73"/>
+      <c r="AO148" s="73"/>
+      <c r="AP148" s="73"/>
+      <c r="AQ148" s="73"/>
+      <c r="AR148" s="73"/>
+      <c r="AS148" s="73"/>
+      <c r="AT148" s="73"/>
+      <c r="AU148" s="73"/>
+      <c r="AV148" s="73"/>
       <c r="AW148" s="20"/>
-      <c r="AY148" s="205"/>
-      <c r="AZ148" s="205"/>
-      <c r="BA148" s="205"/>
-      <c r="BB148" s="205"/>
-      <c r="BC148" s="205"/>
-      <c r="BD148" s="205"/>
-      <c r="BE148" s="205"/>
-      <c r="BF148" s="205"/>
-      <c r="BG148" s="205"/>
-      <c r="BH148" s="205"/>
-      <c r="BI148" s="205"/>
-      <c r="BJ148" s="205"/>
+      <c r="AX148" s="0"/>
+      <c r="AY148" s="0"/>
+      <c r="AZ148" s="0"/>
+      <c r="BA148" s="0"/>
+      <c r="BB148" s="0"/>
+      <c r="BC148" s="0"/>
+      <c r="BD148" s="0"/>
+      <c r="BE148" s="0"/>
+      <c r="BF148" s="0"/>
+      <c r="BG148" s="0"/>
+      <c r="BH148" s="0"/>
+      <c r="BI148" s="0"/>
+      <c r="BJ148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="17"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="180"/>
-      <c r="F149" s="181"/>
-      <c r="G149" s="182"/>
-      <c r="H149" s="182"/>
-      <c r="I149" s="183"/>
-      <c r="J149" s="183"/>
-      <c r="K149" s="183"/>
-      <c r="L149" s="183"/>
-      <c r="M149" s="184"/>
-      <c r="N149" s="185"/>
-      <c r="O149" s="182"/>
-      <c r="P149" s="182"/>
-      <c r="Q149" s="183"/>
-      <c r="R149" s="183"/>
-      <c r="S149" s="183"/>
-      <c r="T149" s="183"/>
-      <c r="U149" s="183"/>
-      <c r="V149" s="186"/>
-      <c r="W149" s="186"/>
-      <c r="X149" s="186"/>
-      <c r="Y149" s="186"/>
-      <c r="Z149" s="186"/>
-      <c r="AA149" s="186"/>
-      <c r="AB149" s="186"/>
-      <c r="AC149" s="186"/>
-      <c r="AD149" s="186"/>
-      <c r="AE149" s="186"/>
-      <c r="AF149" s="186"/>
-      <c r="AG149" s="186"/>
-      <c r="AH149" s="186"/>
-      <c r="AI149" s="187"/>
-      <c r="AJ149" s="188"/>
-      <c r="AK149" s="189"/>
-      <c r="AL149" s="189"/>
-      <c r="AM149" s="189"/>
-      <c r="AN149" s="189"/>
-      <c r="AO149" s="189"/>
-      <c r="AP149" s="189"/>
-      <c r="AQ149" s="189"/>
-      <c r="AR149" s="189"/>
-      <c r="AS149" s="189"/>
-      <c r="AT149" s="189"/>
-      <c r="AU149" s="190"/>
-      <c r="AV149" s="19"/>
+      <c r="C149" s="144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="E149" s="97"/>
+      <c r="F149" s="97"/>
+      <c r="G149" s="97"/>
+      <c r="H149" s="97"/>
+      <c r="I149" s="97"/>
+      <c r="J149" s="97"/>
+      <c r="K149" s="97"/>
+      <c r="L149" s="97"/>
+      <c r="M149" s="146"/>
+      <c r="N149" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="O149" s="148"/>
+      <c r="P149" s="148"/>
+      <c r="Q149" s="148"/>
+      <c r="R149" s="148"/>
+      <c r="S149" s="148"/>
+      <c r="T149" s="148"/>
+      <c r="U149" s="148"/>
+      <c r="V149" s="148"/>
+      <c r="W149" s="149"/>
+      <c r="X149" s="147"/>
+      <c r="Y149" s="150"/>
+      <c r="Z149" s="150"/>
+      <c r="AA149" s="150"/>
+      <c r="AB149" s="148"/>
+      <c r="AC149" s="148"/>
+      <c r="AD149" s="148"/>
+      <c r="AE149" s="148"/>
+      <c r="AF149" s="150"/>
+      <c r="AG149" s="150"/>
+      <c r="AH149" s="148"/>
+      <c r="AI149" s="148"/>
+      <c r="AJ149" s="148"/>
+      <c r="AK149" s="148"/>
+      <c r="AL149" s="148"/>
+      <c r="AM149" s="148"/>
+      <c r="AN149" s="148"/>
+      <c r="AO149" s="148"/>
+      <c r="AP149" s="148"/>
+      <c r="AQ149" s="148"/>
+      <c r="AR149" s="148"/>
+      <c r="AS149" s="148"/>
+      <c r="AT149" s="148"/>
+      <c r="AU149" s="148"/>
+      <c r="AV149" s="149"/>
       <c r="AW149" s="20"/>
+      <c r="AX149" s="0"/>
+      <c r="AY149" s="0"/>
+      <c r="AZ149" s="0"/>
+      <c r="BA149" s="0"/>
+      <c r="BB149" s="0"/>
+      <c r="BC149" s="0"/>
+      <c r="BD149" s="0"/>
+      <c r="BE149" s="0"/>
+      <c r="BF149" s="0"/>
+      <c r="BG149" s="0"/>
+      <c r="BH149" s="0"/>
+      <c r="BI149" s="0"/>
+      <c r="BJ149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="143"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19"/>
-      <c r="N150" s="19"/>
-      <c r="O150" s="19"/>
-      <c r="P150" s="19"/>
-      <c r="Q150" s="19"/>
-      <c r="R150" s="19"/>
-      <c r="S150" s="19"/>
-      <c r="T150" s="19"/>
-      <c r="U150" s="19"/>
-      <c r="V150" s="19"/>
-      <c r="W150" s="19"/>
-      <c r="X150" s="19"/>
-      <c r="Y150" s="19"/>
-      <c r="Z150" s="19"/>
-      <c r="AA150" s="19"/>
-      <c r="AB150" s="19"/>
-      <c r="AC150" s="19"/>
-      <c r="AD150" s="19"/>
-      <c r="AE150" s="1"/>
-      <c r="AF150" s="19"/>
-      <c r="AG150" s="19"/>
-      <c r="AH150" s="19"/>
-      <c r="AI150" s="19"/>
-      <c r="AJ150" s="19"/>
-      <c r="AK150" s="19"/>
-      <c r="AL150" s="19"/>
-      <c r="AM150" s="19"/>
-      <c r="AN150" s="19"/>
-      <c r="AO150" s="19"/>
-      <c r="AP150" s="19"/>
-      <c r="AQ150" s="19"/>
-      <c r="AR150" s="19"/>
-      <c r="AS150" s="19"/>
-      <c r="AT150" s="19"/>
-      <c r="AU150" s="19"/>
-      <c r="AV150" s="19"/>
+      <c r="C150" s="144" t="n">
+        <v>2</v>
+      </c>
+      <c r="D150" s="152" t="s">
+        <v>92</v>
+      </c>
+      <c r="E150" s="153"/>
+      <c r="F150" s="153"/>
+      <c r="G150" s="153"/>
+      <c r="H150" s="153"/>
+      <c r="I150" s="153"/>
+      <c r="J150" s="153"/>
+      <c r="K150" s="153"/>
+      <c r="L150" s="153"/>
+      <c r="M150" s="154"/>
+      <c r="N150" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="O150" s="148"/>
+      <c r="P150" s="148"/>
+      <c r="Q150" s="148"/>
+      <c r="R150" s="148"/>
+      <c r="S150" s="148"/>
+      <c r="T150" s="148"/>
+      <c r="U150" s="148"/>
+      <c r="V150" s="148"/>
+      <c r="W150" s="149"/>
+      <c r="X150" s="152"/>
+      <c r="Y150" s="155"/>
+      <c r="Z150" s="155"/>
+      <c r="AA150" s="155"/>
+      <c r="AB150" s="153"/>
+      <c r="AC150" s="153"/>
+      <c r="AD150" s="153"/>
+      <c r="AE150" s="153"/>
+      <c r="AF150" s="155"/>
+      <c r="AG150" s="155"/>
+      <c r="AH150" s="153"/>
+      <c r="AI150" s="153"/>
+      <c r="AJ150" s="153"/>
+      <c r="AK150" s="153"/>
+      <c r="AL150" s="153"/>
+      <c r="AM150" s="153"/>
+      <c r="AN150" s="153"/>
+      <c r="AO150" s="153"/>
+      <c r="AP150" s="153"/>
+      <c r="AQ150" s="153"/>
+      <c r="AR150" s="153"/>
+      <c r="AS150" s="153"/>
+      <c r="AT150" s="153"/>
+      <c r="AU150" s="153"/>
+      <c r="AV150" s="154"/>
       <c r="AW150" s="20"/>
+      <c r="AX150" s="0"/>
+      <c r="AY150" s="0"/>
+      <c r="AZ150" s="0"/>
+      <c r="BA150" s="0"/>
+      <c r="BB150" s="0"/>
+      <c r="BC150" s="0"/>
+      <c r="BD150" s="0"/>
+      <c r="BE150" s="0"/>
+      <c r="BF150" s="0"/>
+      <c r="BG150" s="0"/>
+      <c r="BH150" s="0"/>
+      <c r="BI150" s="0"/>
+      <c r="BJ150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="17"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="206"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="24"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="24"/>
-      <c r="K151" s="24"/>
-      <c r="L151" s="24"/>
-      <c r="M151" s="24"/>
-      <c r="N151" s="24"/>
-      <c r="O151" s="24"/>
-      <c r="P151" s="24"/>
-      <c r="Q151" s="24"/>
-      <c r="R151" s="24"/>
-      <c r="S151" s="24"/>
-      <c r="T151" s="24"/>
-      <c r="U151" s="24"/>
-      <c r="V151" s="24"/>
-      <c r="W151" s="24"/>
-      <c r="X151" s="24"/>
-      <c r="Y151" s="24"/>
-      <c r="Z151" s="24"/>
-      <c r="AA151" s="24"/>
-      <c r="AB151" s="24"/>
-      <c r="AC151" s="24"/>
-      <c r="AD151" s="24"/>
-      <c r="AF151" s="24"/>
-      <c r="AG151" s="24"/>
-      <c r="AH151" s="24"/>
-      <c r="AI151" s="24"/>
-      <c r="AJ151" s="24"/>
-      <c r="AK151" s="24"/>
-      <c r="AL151" s="24"/>
-      <c r="AM151" s="24"/>
-      <c r="AN151" s="24"/>
-      <c r="AO151" s="24"/>
-      <c r="AP151" s="24"/>
-      <c r="AQ151" s="24"/>
-      <c r="AR151" s="24"/>
-      <c r="AS151" s="24"/>
-      <c r="AT151" s="24"/>
-      <c r="AU151" s="24"/>
-      <c r="AV151" s="19"/>
+      <c r="C151" s="144" t="n">
+        <v>3</v>
+      </c>
+      <c r="D151" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="E151" s="157"/>
+      <c r="F151" s="157"/>
+      <c r="G151" s="157"/>
+      <c r="H151" s="157"/>
+      <c r="I151" s="157"/>
+      <c r="J151" s="157"/>
+      <c r="K151" s="157"/>
+      <c r="L151" s="157"/>
+      <c r="M151" s="158"/>
+      <c r="N151" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="O151" s="148"/>
+      <c r="P151" s="148"/>
+      <c r="Q151" s="148"/>
+      <c r="R151" s="148"/>
+      <c r="S151" s="148"/>
+      <c r="T151" s="148"/>
+      <c r="U151" s="148"/>
+      <c r="V151" s="148"/>
+      <c r="W151" s="149"/>
+      <c r="X151" s="159"/>
+      <c r="Y151" s="162"/>
+      <c r="Z151" s="162"/>
+      <c r="AA151" s="162"/>
+      <c r="AB151" s="160"/>
+      <c r="AC151" s="160"/>
+      <c r="AD151" s="160"/>
+      <c r="AE151" s="160"/>
+      <c r="AF151" s="162"/>
+      <c r="AG151" s="162"/>
+      <c r="AH151" s="160"/>
+      <c r="AI151" s="160"/>
+      <c r="AJ151" s="160"/>
+      <c r="AK151" s="160"/>
+      <c r="AL151" s="160"/>
+      <c r="AM151" s="160"/>
+      <c r="AN151" s="160"/>
+      <c r="AO151" s="160"/>
+      <c r="AP151" s="160"/>
+      <c r="AQ151" s="160"/>
+      <c r="AR151" s="160"/>
+      <c r="AS151" s="160"/>
+      <c r="AT151" s="160"/>
+      <c r="AU151" s="160"/>
+      <c r="AV151" s="163"/>
       <c r="AW151" s="20"/>
+      <c r="AX151" s="0"/>
+      <c r="AY151" s="0"/>
+      <c r="AZ151" s="0"/>
+      <c r="BA151" s="0"/>
+      <c r="BB151" s="0"/>
+      <c r="BC151" s="0"/>
+      <c r="BD151" s="0"/>
+      <c r="BE151" s="0"/>
+      <c r="BF151" s="0"/>
+      <c r="BG151" s="0"/>
+      <c r="BH151" s="0"/>
+      <c r="BI151" s="0"/>
+      <c r="BJ151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
-      <c r="D152" s="19" t="s">
+      <c r="B152" s="28"/>
+      <c r="C152" s="144" t="n">
+        <v>4</v>
+      </c>
+      <c r="D152" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E152" s="207"/>
-      <c r="F152" s="208"/>
-      <c r="G152" s="208"/>
-      <c r="H152" s="208"/>
-      <c r="I152" s="208"/>
-      <c r="J152" s="208"/>
-      <c r="K152" s="208"/>
-      <c r="L152" s="208"/>
-      <c r="M152" s="208"/>
-      <c r="N152" s="208"/>
-      <c r="O152" s="208"/>
-      <c r="P152" s="208"/>
-      <c r="Q152" s="208"/>
-      <c r="R152" s="208"/>
-      <c r="S152" s="208"/>
-      <c r="T152" s="208"/>
-      <c r="U152" s="208"/>
-      <c r="V152" s="208"/>
-      <c r="W152" s="208"/>
-      <c r="X152" s="208"/>
-      <c r="Y152" s="208"/>
-      <c r="Z152" s="208"/>
-      <c r="AA152" s="208"/>
-      <c r="AB152" s="208"/>
-      <c r="AC152" s="208"/>
-      <c r="AD152" s="208"/>
-      <c r="AE152" s="208"/>
-      <c r="AF152" s="208"/>
-      <c r="AG152" s="208"/>
-      <c r="AH152" s="208"/>
-      <c r="AI152" s="208"/>
-      <c r="AJ152" s="208"/>
-      <c r="AK152" s="208"/>
-      <c r="AL152" s="208"/>
-      <c r="AM152" s="208"/>
-      <c r="AN152" s="208"/>
-      <c r="AO152" s="208"/>
-      <c r="AP152" s="208"/>
-      <c r="AQ152" s="208"/>
-      <c r="AR152" s="208"/>
-      <c r="AS152" s="208"/>
-      <c r="AT152" s="208"/>
-      <c r="AU152" s="208"/>
-      <c r="AV152" s="19"/>
+      <c r="E152" s="97"/>
+      <c r="F152" s="97"/>
+      <c r="G152" s="97"/>
+      <c r="H152" s="97"/>
+      <c r="I152" s="97"/>
+      <c r="J152" s="97"/>
+      <c r="K152" s="97"/>
+      <c r="L152" s="97"/>
+      <c r="M152" s="146"/>
+      <c r="N152" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="O152" s="148"/>
+      <c r="P152" s="148"/>
+      <c r="Q152" s="148"/>
+      <c r="R152" s="148"/>
+      <c r="S152" s="148"/>
+      <c r="T152" s="148"/>
+      <c r="U152" s="148"/>
+      <c r="V152" s="148"/>
+      <c r="W152" s="149"/>
+      <c r="X152" s="147"/>
+      <c r="Y152" s="150"/>
+      <c r="Z152" s="150"/>
+      <c r="AA152" s="150"/>
+      <c r="AB152" s="148"/>
+      <c r="AC152" s="148"/>
+      <c r="AD152" s="148"/>
+      <c r="AE152" s="148"/>
+      <c r="AF152" s="150"/>
+      <c r="AG152" s="150"/>
+      <c r="AH152" s="148"/>
+      <c r="AI152" s="148"/>
+      <c r="AJ152" s="148"/>
+      <c r="AK152" s="148"/>
+      <c r="AL152" s="148"/>
+      <c r="AM152" s="148"/>
+      <c r="AN152" s="148"/>
+      <c r="AO152" s="148"/>
+      <c r="AP152" s="148"/>
+      <c r="AQ152" s="148"/>
+      <c r="AR152" s="148"/>
+      <c r="AS152" s="148"/>
+      <c r="AT152" s="148"/>
+      <c r="AU152" s="148"/>
+      <c r="AV152" s="149"/>
       <c r="AW152" s="20"/>
+      <c r="AX152" s="0"/>
+      <c r="AY152" s="0"/>
+      <c r="AZ152" s="0"/>
+      <c r="BA152" s="0"/>
+      <c r="BB152" s="0"/>
+      <c r="BC152" s="0"/>
+      <c r="BD152" s="0"/>
+      <c r="BE152" s="0"/>
+      <c r="BF152" s="0"/>
+      <c r="BG152" s="0"/>
+      <c r="BH152" s="0"/>
+      <c r="BI152" s="0"/>
+      <c r="BJ152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="209" t="s">
+      <c r="B153" s="28"/>
+      <c r="C153" s="144" t="n">
+        <v>5</v>
+      </c>
+      <c r="D153" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="F153" s="209"/>
-      <c r="G153" s="209"/>
-      <c r="H153" s="209"/>
-      <c r="I153" s="209"/>
-      <c r="J153" s="209"/>
-      <c r="K153" s="209"/>
-      <c r="L153" s="210" t="s">
-        <v>96</v>
-      </c>
-      <c r="M153" s="210"/>
-      <c r="N153" s="210"/>
-      <c r="O153" s="210"/>
-      <c r="P153" s="210"/>
-      <c r="Q153" s="210"/>
-      <c r="R153" s="210"/>
-      <c r="S153" s="210"/>
-      <c r="T153" s="210"/>
-      <c r="U153" s="210"/>
-      <c r="V153" s="210"/>
-      <c r="W153" s="210"/>
-      <c r="X153" s="210"/>
-      <c r="Y153" s="210"/>
-      <c r="Z153" s="210"/>
-      <c r="AA153" s="210"/>
-      <c r="AB153" s="210"/>
-      <c r="AC153" s="210"/>
-      <c r="AD153" s="210"/>
-      <c r="AE153" s="210"/>
-      <c r="AF153" s="210"/>
-      <c r="AG153" s="210"/>
-      <c r="AH153" s="210"/>
-      <c r="AI153" s="210"/>
-      <c r="AJ153" s="210"/>
-      <c r="AK153" s="210"/>
-      <c r="AL153" s="210"/>
-      <c r="AM153" s="210"/>
-      <c r="AN153" s="210"/>
-      <c r="AO153" s="210"/>
-      <c r="AP153" s="210"/>
-      <c r="AQ153" s="210"/>
-      <c r="AR153" s="210"/>
-      <c r="AS153" s="210"/>
-      <c r="AT153" s="210"/>
-      <c r="AU153" s="210"/>
-      <c r="AV153" s="19"/>
+      <c r="E153" s="153"/>
+      <c r="F153" s="153"/>
+      <c r="G153" s="153"/>
+      <c r="H153" s="153"/>
+      <c r="I153" s="153"/>
+      <c r="J153" s="153"/>
+      <c r="K153" s="153"/>
+      <c r="L153" s="153"/>
+      <c r="M153" s="154"/>
+      <c r="N153" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="O153" s="148"/>
+      <c r="P153" s="148"/>
+      <c r="Q153" s="148"/>
+      <c r="R153" s="148"/>
+      <c r="S153" s="148"/>
+      <c r="T153" s="148"/>
+      <c r="U153" s="148"/>
+      <c r="V153" s="148"/>
+      <c r="W153" s="149"/>
+      <c r="X153" s="152"/>
+      <c r="Y153" s="155"/>
+      <c r="Z153" s="155"/>
+      <c r="AA153" s="155"/>
+      <c r="AB153" s="153"/>
+      <c r="AC153" s="153"/>
+      <c r="AD153" s="153"/>
+      <c r="AE153" s="153"/>
+      <c r="AF153" s="155"/>
+      <c r="AG153" s="155"/>
+      <c r="AH153" s="153"/>
+      <c r="AI153" s="153"/>
+      <c r="AJ153" s="153"/>
+      <c r="AK153" s="153"/>
+      <c r="AL153" s="153"/>
+      <c r="AM153" s="153"/>
+      <c r="AN153" s="153"/>
+      <c r="AO153" s="153"/>
+      <c r="AP153" s="153"/>
+      <c r="AQ153" s="153"/>
+      <c r="AR153" s="153"/>
+      <c r="AS153" s="153"/>
+      <c r="AT153" s="153"/>
+      <c r="AU153" s="153"/>
+      <c r="AV153" s="154"/>
       <c r="AW153" s="20"/>
+      <c r="AX153" s="0"/>
+      <c r="AY153" s="0"/>
+      <c r="AZ153" s="0"/>
+      <c r="BA153" s="0"/>
+      <c r="BB153" s="0"/>
+      <c r="BC153" s="0"/>
+      <c r="BD153" s="0"/>
+      <c r="BE153" s="0"/>
+      <c r="BF153" s="0"/>
+      <c r="BG153" s="0"/>
+      <c r="BH153" s="0"/>
+      <c r="BI153" s="0"/>
+      <c r="BJ153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="209"/>
-      <c r="F154" s="209"/>
-      <c r="G154" s="209"/>
-      <c r="H154" s="209"/>
-      <c r="I154" s="209"/>
-      <c r="J154" s="209"/>
-      <c r="K154" s="209"/>
-      <c r="L154" s="211"/>
-      <c r="M154" s="183"/>
-      <c r="N154" s="183"/>
-      <c r="O154" s="183"/>
-      <c r="P154" s="183"/>
-      <c r="Q154" s="186"/>
-      <c r="R154" s="186"/>
-      <c r="S154" s="186"/>
-      <c r="T154" s="186"/>
-      <c r="U154" s="186"/>
-      <c r="V154" s="186"/>
-      <c r="W154" s="186"/>
-      <c r="X154" s="186"/>
-      <c r="Y154" s="212"/>
-      <c r="Z154" s="186"/>
-      <c r="AA154" s="186"/>
-      <c r="AB154" s="186"/>
-      <c r="AC154" s="186"/>
-      <c r="AD154" s="186"/>
-      <c r="AE154" s="186"/>
-      <c r="AF154" s="186"/>
-      <c r="AG154" s="186"/>
-      <c r="AH154" s="186"/>
-      <c r="AI154" s="186"/>
-      <c r="AJ154" s="186"/>
-      <c r="AK154" s="186"/>
-      <c r="AL154" s="186"/>
-      <c r="AM154" s="186"/>
-      <c r="AN154" s="186"/>
-      <c r="AO154" s="186"/>
-      <c r="AP154" s="186"/>
-      <c r="AQ154" s="186"/>
-      <c r="AR154" s="186"/>
-      <c r="AS154" s="186"/>
-      <c r="AT154" s="186"/>
-      <c r="AU154" s="187"/>
-      <c r="AV154" s="19"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="144" t="n">
+        <v>6</v>
+      </c>
+      <c r="D154" s="156" t="s">
+        <v>96</v>
+      </c>
+      <c r="E154" s="157"/>
+      <c r="F154" s="157"/>
+      <c r="G154" s="157"/>
+      <c r="H154" s="157"/>
+      <c r="I154" s="157"/>
+      <c r="J154" s="157"/>
+      <c r="K154" s="157"/>
+      <c r="L154" s="157"/>
+      <c r="M154" s="158"/>
+      <c r="N154" s="159" t="s">
+        <v>97</v>
+      </c>
+      <c r="O154" s="160"/>
+      <c r="P154" s="160"/>
+      <c r="Q154" s="160"/>
+      <c r="R154" s="160"/>
+      <c r="S154" s="160"/>
+      <c r="T154" s="160"/>
+      <c r="U154" s="160"/>
+      <c r="V154" s="160"/>
+      <c r="W154" s="161"/>
+      <c r="X154" s="159"/>
+      <c r="Y154" s="162"/>
+      <c r="Z154" s="162"/>
+      <c r="AA154" s="162"/>
+      <c r="AB154" s="160"/>
+      <c r="AC154" s="160"/>
+      <c r="AD154" s="160"/>
+      <c r="AE154" s="160"/>
+      <c r="AF154" s="162"/>
+      <c r="AG154" s="162"/>
+      <c r="AH154" s="160"/>
+      <c r="AI154" s="160"/>
+      <c r="AJ154" s="160"/>
+      <c r="AK154" s="160"/>
+      <c r="AL154" s="160"/>
+      <c r="AM154" s="160"/>
+      <c r="AN154" s="160"/>
+      <c r="AO154" s="160"/>
+      <c r="AP154" s="160"/>
+      <c r="AQ154" s="160"/>
+      <c r="AR154" s="160"/>
+      <c r="AS154" s="160"/>
+      <c r="AT154" s="160"/>
+      <c r="AU154" s="160"/>
+      <c r="AV154" s="163"/>
       <c r="AW154" s="20"/>
+      <c r="AX154" s="0"/>
+      <c r="AY154" s="0"/>
+      <c r="AZ154" s="0"/>
+      <c r="BA154" s="0"/>
+      <c r="BB154" s="0"/>
+      <c r="BC154" s="0"/>
+      <c r="BD154" s="0"/>
+      <c r="BE154" s="0"/>
+      <c r="BF154" s="0"/>
+      <c r="BG154" s="0"/>
+      <c r="BH154" s="0"/>
+      <c r="BI154" s="0"/>
+      <c r="BJ154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="209"/>
-      <c r="F155" s="209"/>
-      <c r="G155" s="209"/>
-      <c r="H155" s="209"/>
-      <c r="I155" s="209"/>
-      <c r="J155" s="209"/>
-      <c r="K155" s="209"/>
-      <c r="L155" s="213"/>
-      <c r="M155" s="195"/>
-      <c r="N155" s="195"/>
-      <c r="O155" s="195"/>
-      <c r="P155" s="195"/>
-      <c r="Q155" s="214"/>
-      <c r="R155" s="214"/>
-      <c r="S155" s="214"/>
-      <c r="T155" s="214"/>
-      <c r="U155" s="214"/>
-      <c r="V155" s="214"/>
-      <c r="W155" s="214"/>
-      <c r="X155" s="214"/>
-      <c r="Y155" s="215"/>
-      <c r="Z155" s="214"/>
-      <c r="AA155" s="214"/>
-      <c r="AB155" s="214"/>
-      <c r="AC155" s="214"/>
-      <c r="AD155" s="214"/>
-      <c r="AE155" s="214"/>
-      <c r="AF155" s="214"/>
-      <c r="AG155" s="214"/>
-      <c r="AH155" s="214"/>
-      <c r="AI155" s="214"/>
-      <c r="AJ155" s="214"/>
-      <c r="AK155" s="214"/>
-      <c r="AL155" s="214"/>
-      <c r="AM155" s="214"/>
-      <c r="AN155" s="214"/>
-      <c r="AO155" s="214"/>
-      <c r="AP155" s="214"/>
-      <c r="AQ155" s="214"/>
-      <c r="AR155" s="214"/>
-      <c r="AS155" s="214"/>
-      <c r="AT155" s="214"/>
-      <c r="AU155" s="216"/>
-      <c r="AV155" s="19"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="141"/>
+      <c r="D155" s="164"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="19"/>
+      <c r="P155" s="19"/>
+      <c r="Q155" s="19"/>
+      <c r="R155" s="19"/>
+      <c r="S155" s="19"/>
+      <c r="T155" s="19"/>
+      <c r="U155" s="19"/>
+      <c r="V155" s="19"/>
+      <c r="W155" s="19"/>
+      <c r="X155" s="19"/>
+      <c r="Y155" s="141"/>
+      <c r="Z155" s="141"/>
+      <c r="AA155" s="141"/>
+      <c r="AB155" s="19"/>
+      <c r="AC155" s="19"/>
+      <c r="AD155" s="19"/>
+      <c r="AE155" s="19"/>
+      <c r="AF155" s="141"/>
+      <c r="AG155" s="141"/>
+      <c r="AH155" s="19"/>
+      <c r="AI155" s="19"/>
+      <c r="AJ155" s="19"/>
+      <c r="AK155" s="19"/>
+      <c r="AL155" s="19"/>
+      <c r="AM155" s="19"/>
+      <c r="AN155" s="19"/>
+      <c r="AO155" s="19"/>
+      <c r="AP155" s="19"/>
+      <c r="AQ155" s="19"/>
+      <c r="AR155" s="19"/>
+      <c r="AS155" s="19"/>
+      <c r="AT155" s="19"/>
+      <c r="AU155" s="19"/>
       <c r="AW155" s="20"/>
+      <c r="AX155" s="0"/>
+      <c r="AY155" s="0"/>
+      <c r="AZ155" s="0"/>
+      <c r="BA155" s="0"/>
+      <c r="BB155" s="0"/>
+      <c r="BC155" s="0"/>
+      <c r="BD155" s="0"/>
+      <c r="BE155" s="0"/>
+      <c r="BF155" s="0"/>
+      <c r="BG155" s="0"/>
+      <c r="BH155" s="0"/>
+      <c r="BI155" s="0"/>
+      <c r="BJ155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="209"/>
-      <c r="F156" s="209"/>
-      <c r="G156" s="209"/>
-      <c r="H156" s="209"/>
-      <c r="I156" s="209"/>
-      <c r="J156" s="209"/>
-      <c r="K156" s="209"/>
-      <c r="L156" s="211"/>
-      <c r="M156" s="183"/>
-      <c r="N156" s="183"/>
-      <c r="O156" s="183"/>
-      <c r="P156" s="183"/>
-      <c r="Q156" s="186"/>
-      <c r="R156" s="186"/>
-      <c r="S156" s="186"/>
-      <c r="T156" s="186"/>
-      <c r="U156" s="186"/>
-      <c r="V156" s="186"/>
-      <c r="W156" s="186"/>
-      <c r="X156" s="186"/>
-      <c r="Y156" s="212"/>
-      <c r="Z156" s="186"/>
-      <c r="AA156" s="186"/>
-      <c r="AB156" s="186"/>
-      <c r="AC156" s="186"/>
-      <c r="AD156" s="186"/>
-      <c r="AE156" s="186"/>
-      <c r="AF156" s="186"/>
-      <c r="AG156" s="186"/>
-      <c r="AH156" s="186"/>
-      <c r="AI156" s="186"/>
-      <c r="AJ156" s="186"/>
-      <c r="AK156" s="186"/>
-      <c r="AL156" s="186"/>
-      <c r="AM156" s="186"/>
-      <c r="AN156" s="186"/>
-      <c r="AO156" s="186"/>
-      <c r="AP156" s="186"/>
-      <c r="AQ156" s="186"/>
-      <c r="AR156" s="186"/>
-      <c r="AS156" s="186"/>
-      <c r="AT156" s="186"/>
-      <c r="AU156" s="187"/>
-      <c r="AV156" s="19"/>
+      <c r="C156" s="0"/>
+      <c r="D156" s="0"/>
+      <c r="E156" s="0"/>
+      <c r="F156" s="0"/>
+      <c r="G156" s="0"/>
+      <c r="H156" s="0"/>
+      <c r="I156" s="0"/>
+      <c r="J156" s="0"/>
+      <c r="K156" s="0"/>
+      <c r="L156" s="0"/>
+      <c r="M156" s="0"/>
+      <c r="N156" s="0"/>
+      <c r="O156" s="0"/>
+      <c r="P156" s="0"/>
+      <c r="Q156" s="0"/>
+      <c r="R156" s="0"/>
+      <c r="S156" s="0"/>
+      <c r="T156" s="0"/>
+      <c r="U156" s="0"/>
+      <c r="V156" s="0"/>
+      <c r="W156" s="0"/>
+      <c r="X156" s="0"/>
+      <c r="Y156" s="0"/>
+      <c r="Z156" s="0"/>
+      <c r="AA156" s="0"/>
+      <c r="AB156" s="0"/>
+      <c r="AC156" s="0"/>
+      <c r="AD156" s="0"/>
+      <c r="AE156" s="0"/>
+      <c r="AF156" s="0"/>
+      <c r="AG156" s="0"/>
+      <c r="AH156" s="0"/>
+      <c r="AI156" s="0"/>
+      <c r="AJ156" s="0"/>
+      <c r="AK156" s="0"/>
+      <c r="AL156" s="0"/>
+      <c r="AM156" s="0"/>
+      <c r="AN156" s="0"/>
+      <c r="AO156" s="0"/>
+      <c r="AP156" s="0"/>
+      <c r="AQ156" s="0"/>
+      <c r="AR156" s="0"/>
+      <c r="AS156" s="0"/>
+      <c r="AT156" s="0"/>
+      <c r="AU156" s="0"/>
+      <c r="AV156" s="0"/>
       <c r="AW156" s="20"/>
+      <c r="AX156" s="0"/>
+      <c r="AY156" s="0"/>
+      <c r="AZ156" s="0"/>
+      <c r="BA156" s="0"/>
+      <c r="BB156" s="0"/>
+      <c r="BC156" s="0"/>
+      <c r="BD156" s="0"/>
+      <c r="BE156" s="0"/>
+      <c r="BF156" s="0"/>
+      <c r="BG156" s="0"/>
+      <c r="BH156" s="0"/>
+      <c r="BI156" s="0"/>
+      <c r="BJ156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="17"/>
-      <c r="D157" s="177"/>
-      <c r="E157" s="209"/>
-      <c r="F157" s="209"/>
-      <c r="G157" s="209"/>
-      <c r="H157" s="209"/>
-      <c r="I157" s="209"/>
-      <c r="J157" s="209"/>
-      <c r="K157" s="209"/>
-      <c r="L157" s="183"/>
-      <c r="M157" s="183"/>
-      <c r="N157" s="183"/>
-      <c r="O157" s="183"/>
-      <c r="P157" s="183"/>
-      <c r="Q157" s="186"/>
-      <c r="R157" s="186"/>
-      <c r="S157" s="186"/>
-      <c r="T157" s="186"/>
-      <c r="U157" s="186"/>
-      <c r="V157" s="186"/>
-      <c r="W157" s="186"/>
-      <c r="X157" s="186"/>
-      <c r="Y157" s="212"/>
-      <c r="Z157" s="186"/>
-      <c r="AA157" s="186"/>
-      <c r="AB157" s="186"/>
-      <c r="AC157" s="186"/>
-      <c r="AD157" s="186"/>
-      <c r="AE157" s="186"/>
-      <c r="AF157" s="186"/>
-      <c r="AG157" s="186"/>
-      <c r="AH157" s="186"/>
-      <c r="AI157" s="186"/>
-      <c r="AJ157" s="186"/>
-      <c r="AK157" s="186"/>
-      <c r="AL157" s="186"/>
-      <c r="AM157" s="186"/>
-      <c r="AN157" s="186"/>
-      <c r="AO157" s="186"/>
-      <c r="AP157" s="186"/>
-      <c r="AQ157" s="186"/>
-      <c r="AR157" s="186"/>
-      <c r="AS157" s="186"/>
-      <c r="AT157" s="186"/>
-      <c r="AU157" s="187"/>
-      <c r="AV157" s="19"/>
+      <c r="C157" s="0"/>
+      <c r="D157" s="0"/>
+      <c r="E157" s="0"/>
+      <c r="F157" s="0"/>
+      <c r="G157" s="0"/>
+      <c r="H157" s="0"/>
+      <c r="I157" s="0"/>
+      <c r="J157" s="0"/>
+      <c r="K157" s="0"/>
+      <c r="L157" s="0"/>
+      <c r="M157" s="0"/>
+      <c r="N157" s="0"/>
+      <c r="O157" s="0"/>
+      <c r="P157" s="0"/>
+      <c r="Q157" s="0"/>
+      <c r="R157" s="0"/>
+      <c r="S157" s="0"/>
+      <c r="T157" s="0"/>
+      <c r="U157" s="0"/>
+      <c r="V157" s="0"/>
+      <c r="W157" s="0"/>
+      <c r="X157" s="0"/>
+      <c r="Y157" s="0"/>
+      <c r="Z157" s="0"/>
+      <c r="AA157" s="0"/>
+      <c r="AB157" s="0"/>
+      <c r="AC157" s="0"/>
+      <c r="AD157" s="0"/>
+      <c r="AE157" s="0"/>
+      <c r="AF157" s="0"/>
+      <c r="AG157" s="0"/>
+      <c r="AH157" s="0"/>
+      <c r="AI157" s="0"/>
+      <c r="AJ157" s="0"/>
+      <c r="AK157" s="0"/>
+      <c r="AL157" s="0"/>
+      <c r="AM157" s="0"/>
+      <c r="AN157" s="0"/>
+      <c r="AO157" s="0"/>
+      <c r="AP157" s="0"/>
+      <c r="AQ157" s="0"/>
+      <c r="AR157" s="0"/>
+      <c r="AS157" s="0"/>
+      <c r="AT157" s="0"/>
+      <c r="AU157" s="0"/>
+      <c r="AV157" s="0"/>
       <c r="AW157" s="20"/>
+      <c r="AX157" s="0"/>
+      <c r="AY157" s="0"/>
+      <c r="AZ157" s="0"/>
+      <c r="BA157" s="0"/>
+      <c r="BB157" s="0"/>
+      <c r="BC157" s="0"/>
+      <c r="BD157" s="0"/>
+      <c r="BE157" s="0"/>
+      <c r="BF157" s="0"/>
+      <c r="BG157" s="0"/>
+      <c r="BH157" s="0"/>
+      <c r="BI157" s="0"/>
+      <c r="BJ157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="17"/>
-      <c r="D158" s="177"/>
-      <c r="E158" s="177"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="24"/>
-      <c r="H158" s="24"/>
-      <c r="I158" s="24"/>
-      <c r="J158" s="24"/>
-      <c r="K158" s="24"/>
-      <c r="L158" s="24"/>
-      <c r="M158" s="24"/>
-      <c r="N158" s="24"/>
-      <c r="O158" s="24"/>
-      <c r="P158" s="24"/>
-      <c r="Q158" s="24"/>
-      <c r="R158" s="24"/>
-      <c r="S158" s="24"/>
-      <c r="T158" s="24"/>
-      <c r="U158" s="24"/>
-      <c r="V158" s="24"/>
-      <c r="W158" s="24"/>
-      <c r="X158" s="24"/>
-      <c r="Y158" s="24"/>
-      <c r="Z158" s="24"/>
-      <c r="AA158" s="24"/>
-      <c r="AB158" s="24"/>
-      <c r="AC158" s="24"/>
-      <c r="AD158" s="24"/>
-      <c r="AF158" s="24"/>
-      <c r="AG158" s="24"/>
-      <c r="AH158" s="24"/>
-      <c r="AI158" s="24"/>
-      <c r="AJ158" s="24"/>
-      <c r="AK158" s="24"/>
-      <c r="AL158" s="24"/>
-      <c r="AM158" s="24"/>
-      <c r="AN158" s="24"/>
-      <c r="AO158" s="24"/>
-      <c r="AP158" s="24"/>
-      <c r="AQ158" s="24"/>
-      <c r="AR158" s="24"/>
-      <c r="AS158" s="24"/>
-      <c r="AT158" s="24"/>
-      <c r="AU158" s="24"/>
-      <c r="AV158" s="19"/>
+      <c r="C158" s="0"/>
+      <c r="D158" s="0"/>
+      <c r="E158" s="0"/>
+      <c r="F158" s="0"/>
+      <c r="G158" s="0"/>
+      <c r="H158" s="0"/>
+      <c r="I158" s="0"/>
+      <c r="J158" s="0"/>
+      <c r="K158" s="0"/>
+      <c r="L158" s="0"/>
+      <c r="M158" s="0"/>
+      <c r="N158" s="0"/>
+      <c r="O158" s="0"/>
+      <c r="P158" s="0"/>
+      <c r="Q158" s="0"/>
+      <c r="R158" s="0"/>
+      <c r="S158" s="0"/>
+      <c r="T158" s="0"/>
+      <c r="U158" s="0"/>
+      <c r="V158" s="0"/>
+      <c r="W158" s="0"/>
+      <c r="X158" s="0"/>
+      <c r="Y158" s="0"/>
+      <c r="Z158" s="0"/>
+      <c r="AA158" s="0"/>
+      <c r="AB158" s="0"/>
+      <c r="AC158" s="0"/>
+      <c r="AD158" s="0"/>
+      <c r="AE158" s="0"/>
+      <c r="AF158" s="0"/>
+      <c r="AG158" s="0"/>
+      <c r="AH158" s="0"/>
+      <c r="AI158" s="0"/>
+      <c r="AJ158" s="0"/>
+      <c r="AK158" s="0"/>
+      <c r="AL158" s="0"/>
+      <c r="AM158" s="0"/>
+      <c r="AN158" s="0"/>
+      <c r="AO158" s="0"/>
+      <c r="AP158" s="0"/>
+      <c r="AQ158" s="0"/>
+      <c r="AR158" s="0"/>
+      <c r="AS158" s="0"/>
+      <c r="AT158" s="0"/>
+      <c r="AU158" s="0"/>
+      <c r="AV158" s="0"/>
       <c r="AW158" s="20"/>
-    </row>
-    <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AX158" s="0"/>
+      <c r="AY158" s="0"/>
+      <c r="AZ158" s="0"/>
+      <c r="BA158" s="0"/>
+      <c r="BB158" s="0"/>
+      <c r="BC158" s="0"/>
+      <c r="BD158" s="0"/>
+      <c r="BE158" s="0"/>
+      <c r="BF158" s="0"/>
+      <c r="BG158" s="0"/>
+      <c r="BH158" s="0"/>
+      <c r="BI158" s="0"/>
+      <c r="BJ158" s="0"/>
+    </row>
+    <row r="159" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="17"/>
-      <c r="D159" s="177"/>
-      <c r="E159" s="206"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="24"/>
-      <c r="H159" s="24"/>
-      <c r="I159" s="24"/>
-      <c r="J159" s="24"/>
+      <c r="C159" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D159" s="19"/>
+      <c r="E159" s="141"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19"/>
       <c r="K159" s="24"/>
       <c r="L159" s="24"/>
       <c r="M159" s="24"/>
@@ -16677,504 +16919,1430 @@
       <c r="AU159" s="24"/>
       <c r="AV159" s="19"/>
       <c r="AW159" s="20"/>
+      <c r="AX159" s="0"/>
+      <c r="AY159" s="0"/>
+      <c r="AZ159" s="0"/>
+      <c r="BA159" s="0"/>
+      <c r="BB159" s="0"/>
+      <c r="BC159" s="0"/>
+      <c r="BD159" s="0"/>
+      <c r="BE159" s="0"/>
+      <c r="BF159" s="0"/>
+      <c r="BG159" s="0"/>
+      <c r="BH159" s="0"/>
+      <c r="BI159" s="0"/>
+      <c r="BJ159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="17"/>
-      <c r="D160" s="177"/>
-      <c r="E160" s="217" t="s">
-        <v>97</v>
-      </c>
-      <c r="F160" s="218"/>
-      <c r="G160" s="218"/>
-      <c r="H160" s="219"/>
-      <c r="I160" s="209" t="s">
-        <v>98</v>
-      </c>
-      <c r="J160" s="209"/>
-      <c r="K160" s="209"/>
-      <c r="L160" s="209"/>
-      <c r="M160" s="209"/>
-      <c r="N160" s="209"/>
-      <c r="O160" s="209"/>
-      <c r="P160" s="209"/>
-      <c r="Q160" s="209"/>
-      <c r="R160" s="209"/>
-      <c r="S160" s="209"/>
-      <c r="T160" s="209"/>
-      <c r="U160" s="209"/>
-      <c r="V160" s="209"/>
-      <c r="W160" s="209"/>
-      <c r="X160" s="209"/>
-      <c r="Y160" s="209"/>
-      <c r="Z160" s="209"/>
-      <c r="AA160" s="209"/>
-      <c r="AB160" s="209"/>
-      <c r="AC160" s="209"/>
-      <c r="AD160" s="209"/>
-      <c r="AE160" s="209"/>
-      <c r="AF160" s="209"/>
-      <c r="AG160" s="209"/>
-      <c r="AH160" s="209"/>
-      <c r="AI160" s="209"/>
-      <c r="AJ160" s="209" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK160" s="209"/>
-      <c r="AL160" s="209"/>
-      <c r="AM160" s="209"/>
-      <c r="AN160" s="209"/>
-      <c r="AO160" s="209"/>
-      <c r="AP160" s="209"/>
-      <c r="AQ160" s="209"/>
-      <c r="AR160" s="209"/>
-      <c r="AS160" s="209"/>
-      <c r="AT160" s="209"/>
-      <c r="AU160" s="24"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="141"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19"/>
+      <c r="N160" s="19"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="19"/>
+      <c r="Q160" s="19"/>
+      <c r="R160" s="19"/>
+      <c r="S160" s="19"/>
+      <c r="T160" s="19"/>
+      <c r="U160" s="19"/>
+      <c r="V160" s="19"/>
+      <c r="W160" s="19"/>
+      <c r="X160" s="19"/>
+      <c r="Y160" s="19"/>
+      <c r="Z160" s="19"/>
+      <c r="AA160" s="19"/>
+      <c r="AB160" s="19"/>
+      <c r="AC160" s="19"/>
+      <c r="AD160" s="19"/>
+      <c r="AE160" s="1"/>
+      <c r="AF160" s="19"/>
+      <c r="AG160" s="19"/>
+      <c r="AH160" s="19"/>
+      <c r="AI160" s="19"/>
+      <c r="AJ160" s="19"/>
+      <c r="AK160" s="19"/>
+      <c r="AL160" s="19"/>
+      <c r="AM160" s="19"/>
+      <c r="AN160" s="19"/>
+      <c r="AO160" s="0"/>
+      <c r="AP160" s="0"/>
+      <c r="AQ160" s="0"/>
+      <c r="AR160" s="0"/>
+      <c r="AS160" s="0"/>
+      <c r="AT160" s="19"/>
+      <c r="AU160" s="19"/>
       <c r="AV160" s="19"/>
       <c r="AW160" s="20"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="17"/>
-      <c r="D161" s="177"/>
-      <c r="E161" s="220"/>
-      <c r="F161" s="220"/>
-      <c r="G161" s="220"/>
-      <c r="H161" s="220"/>
-      <c r="I161" s="221"/>
-      <c r="J161" s="222"/>
-      <c r="K161" s="222"/>
-      <c r="L161" s="222"/>
-      <c r="M161" s="222"/>
-      <c r="N161" s="222"/>
-      <c r="O161" s="222"/>
-      <c r="P161" s="222"/>
-      <c r="Q161" s="222"/>
-      <c r="R161" s="222"/>
-      <c r="S161" s="222"/>
-      <c r="T161" s="222"/>
-      <c r="U161" s="222"/>
-      <c r="V161" s="222"/>
-      <c r="W161" s="222"/>
-      <c r="X161" s="222"/>
-      <c r="Y161" s="222"/>
-      <c r="Z161" s="222"/>
-      <c r="AA161" s="222"/>
-      <c r="AB161" s="222"/>
-      <c r="AC161" s="222"/>
-      <c r="AD161" s="222"/>
-      <c r="AE161" s="223"/>
-      <c r="AF161" s="222"/>
-      <c r="AG161" s="222"/>
-      <c r="AH161" s="222"/>
-      <c r="AI161" s="224"/>
-      <c r="AJ161" s="188"/>
-      <c r="AK161" s="222"/>
-      <c r="AL161" s="222"/>
-      <c r="AM161" s="222"/>
-      <c r="AN161" s="222"/>
-      <c r="AO161" s="222"/>
-      <c r="AP161" s="222"/>
-      <c r="AQ161" s="222"/>
-      <c r="AR161" s="222"/>
-      <c r="AS161" s="222"/>
-      <c r="AT161" s="224"/>
-      <c r="AU161" s="24"/>
+      <c r="C161" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D161" s="19"/>
+      <c r="E161" s="141"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19"/>
+      <c r="O161" s="19"/>
+      <c r="P161" s="19"/>
+      <c r="Q161" s="19"/>
+      <c r="R161" s="19"/>
+      <c r="S161" s="19"/>
+      <c r="T161" s="19"/>
+      <c r="U161" s="19"/>
+      <c r="V161" s="19"/>
+      <c r="W161" s="19"/>
+      <c r="X161" s="19"/>
+      <c r="Y161" s="19"/>
+      <c r="Z161" s="19"/>
+      <c r="AA161" s="19"/>
+      <c r="AB161" s="19"/>
+      <c r="AC161" s="19"/>
+      <c r="AD161" s="19"/>
+      <c r="AE161" s="1"/>
+      <c r="AF161" s="19"/>
+      <c r="AG161" s="19"/>
+      <c r="AH161" s="19"/>
+      <c r="AI161" s="19"/>
+      <c r="AJ161" s="19"/>
+      <c r="AK161" s="19"/>
+      <c r="AL161" s="19"/>
+      <c r="AM161" s="19"/>
+      <c r="AN161" s="19"/>
+      <c r="AO161" s="0"/>
+      <c r="AP161" s="0"/>
+      <c r="AQ161" s="0"/>
+      <c r="AR161" s="0"/>
+      <c r="AS161" s="0"/>
+      <c r="AT161" s="19"/>
+      <c r="AU161" s="19"/>
       <c r="AV161" s="19"/>
       <c r="AW161" s="20"/>
-    </row>
-    <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMF161" s="0"/>
+      <c r="AMG161" s="0"/>
+      <c r="AMH161" s="0"/>
+      <c r="AMI161" s="0"/>
+      <c r="AMJ161" s="0"/>
+    </row>
+    <row r="162" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="17"/>
-      <c r="D162" s="177"/>
-      <c r="E162" s="225"/>
-      <c r="F162" s="225"/>
-      <c r="G162" s="225"/>
-      <c r="H162" s="225"/>
-      <c r="I162" s="226"/>
-      <c r="J162" s="227"/>
-      <c r="K162" s="227"/>
-      <c r="L162" s="227"/>
-      <c r="M162" s="227"/>
-      <c r="N162" s="227"/>
-      <c r="O162" s="227"/>
-      <c r="P162" s="227"/>
-      <c r="Q162" s="227"/>
-      <c r="R162" s="227"/>
-      <c r="S162" s="227"/>
-      <c r="T162" s="227"/>
-      <c r="U162" s="227"/>
-      <c r="V162" s="227"/>
-      <c r="W162" s="227"/>
-      <c r="X162" s="227"/>
-      <c r="Y162" s="227"/>
-      <c r="Z162" s="227"/>
-      <c r="AA162" s="227"/>
-      <c r="AB162" s="227"/>
-      <c r="AC162" s="227"/>
-      <c r="AD162" s="227"/>
-      <c r="AE162" s="228"/>
-      <c r="AF162" s="227"/>
-      <c r="AG162" s="227"/>
-      <c r="AH162" s="227"/>
-      <c r="AI162" s="229"/>
-      <c r="AJ162" s="230"/>
-      <c r="AK162" s="227"/>
-      <c r="AL162" s="227"/>
-      <c r="AM162" s="227"/>
-      <c r="AN162" s="227"/>
-      <c r="AO162" s="227"/>
-      <c r="AP162" s="227"/>
-      <c r="AQ162" s="227"/>
-      <c r="AR162" s="227"/>
-      <c r="AS162" s="227"/>
-      <c r="AT162" s="229"/>
-      <c r="AU162" s="24"/>
-      <c r="AV162" s="19"/>
+      <c r="B162" s="59"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="165"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="19"/>
+      <c r="S162" s="19"/>
+      <c r="T162" s="19"/>
+      <c r="U162" s="19"/>
+      <c r="V162" s="19"/>
+      <c r="W162" s="19"/>
+      <c r="X162" s="19"/>
+      <c r="Y162" s="19"/>
+      <c r="Z162" s="19"/>
+      <c r="AA162" s="19"/>
+      <c r="AB162" s="19"/>
+      <c r="AC162" s="19"/>
+      <c r="AD162" s="19"/>
+      <c r="AF162" s="19"/>
+      <c r="AG162" s="19"/>
+      <c r="AH162" s="19"/>
+      <c r="AI162" s="19"/>
+      <c r="AJ162" s="19"/>
+      <c r="AK162" s="19"/>
+      <c r="AL162" s="19"/>
+      <c r="AM162" s="19"/>
+      <c r="AN162" s="19"/>
+      <c r="AO162" s="0"/>
+      <c r="AP162" s="0"/>
+      <c r="AQ162" s="0"/>
+      <c r="AR162" s="0"/>
       <c r="AW162" s="20"/>
-    </row>
-    <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="17"/>
-      <c r="D163" s="177"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="24"/>
-      <c r="I163" s="24"/>
-      <c r="J163" s="24"/>
-      <c r="K163" s="24"/>
-      <c r="L163" s="24"/>
-      <c r="M163" s="24"/>
-      <c r="N163" s="24"/>
-      <c r="O163" s="24"/>
-      <c r="P163" s="24"/>
-      <c r="Q163" s="24"/>
-      <c r="R163" s="24"/>
-      <c r="S163" s="24"/>
-      <c r="T163" s="24"/>
-      <c r="U163" s="24"/>
-      <c r="V163" s="24"/>
-      <c r="W163" s="24"/>
-      <c r="X163" s="24"/>
-      <c r="Y163" s="24"/>
-      <c r="Z163" s="24"/>
-      <c r="AA163" s="24"/>
-      <c r="AB163" s="24"/>
-      <c r="AC163" s="24"/>
-      <c r="AD163" s="24"/>
-      <c r="AF163" s="24"/>
-      <c r="AG163" s="24"/>
-      <c r="AH163" s="24"/>
-      <c r="AI163" s="24"/>
-      <c r="AJ163" s="231"/>
-      <c r="AK163" s="24"/>
-      <c r="AL163" s="24"/>
-      <c r="AM163" s="24"/>
-      <c r="AN163" s="24"/>
-      <c r="AO163" s="24"/>
-      <c r="AP163" s="24"/>
-      <c r="AQ163" s="24"/>
-      <c r="AR163" s="24"/>
-      <c r="AS163" s="24"/>
-      <c r="AT163" s="24"/>
-      <c r="AU163" s="24"/>
-      <c r="AV163" s="19"/>
+      <c r="AX162" s="99"/>
+      <c r="BI162" s="0"/>
+      <c r="AMF162" s="0"/>
+      <c r="AMG162" s="0"/>
+      <c r="AMH162" s="0"/>
+      <c r="AMI162" s="0"/>
+      <c r="AMJ162" s="0"/>
+    </row>
+    <row r="163" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0"/>
+      <c r="B163" s="0"/>
+      <c r="C163" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D163" s="0"/>
+      <c r="E163" s="0"/>
+      <c r="F163" s="0"/>
+      <c r="G163" s="0"/>
+      <c r="H163" s="0"/>
+      <c r="AP163" s="19"/>
+      <c r="AQ163" s="0"/>
+      <c r="AR163" s="0"/>
       <c r="AW163" s="20"/>
-    </row>
-    <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="17"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="24"/>
-      <c r="H164" s="24"/>
-      <c r="I164" s="24"/>
-      <c r="J164" s="24"/>
-      <c r="K164" s="24"/>
-      <c r="L164" s="24"/>
-      <c r="M164" s="24"/>
-      <c r="N164" s="24"/>
-      <c r="O164" s="24"/>
-      <c r="P164" s="24"/>
-      <c r="Q164" s="24"/>
-      <c r="R164" s="24"/>
-      <c r="S164" s="24"/>
-      <c r="T164" s="24"/>
-      <c r="U164" s="24"/>
-      <c r="V164" s="24"/>
-      <c r="W164" s="24"/>
-      <c r="X164" s="24"/>
-      <c r="Y164" s="24"/>
-      <c r="Z164" s="24"/>
-      <c r="AA164" s="24"/>
-      <c r="AB164" s="24"/>
-      <c r="AC164" s="24"/>
-      <c r="AD164" s="24"/>
-      <c r="AF164" s="24"/>
-      <c r="AG164" s="24"/>
-      <c r="AH164" s="24"/>
-      <c r="AI164" s="24"/>
-      <c r="AJ164" s="231"/>
-      <c r="AK164" s="24"/>
-      <c r="AL164" s="24"/>
-      <c r="AM164" s="24"/>
-      <c r="AN164" s="24"/>
-      <c r="AO164" s="24"/>
-      <c r="AP164" s="24"/>
-      <c r="AQ164" s="24"/>
-      <c r="AR164" s="24"/>
-      <c r="AS164" s="24"/>
-      <c r="AT164" s="24"/>
-      <c r="AU164" s="24"/>
-      <c r="AV164" s="19"/>
+      <c r="AX163" s="99"/>
+      <c r="BI163" s="0"/>
+      <c r="AKL163" s="0"/>
+      <c r="AKM163" s="0"/>
+      <c r="AKN163" s="0"/>
+      <c r="AKO163" s="0"/>
+      <c r="AKP163" s="0"/>
+      <c r="AKQ163" s="0"/>
+      <c r="AKR163" s="0"/>
+      <c r="AKS163" s="0"/>
+      <c r="AKT163" s="0"/>
+      <c r="AKU163" s="0"/>
+      <c r="AKV163" s="0"/>
+      <c r="AKW163" s="0"/>
+      <c r="AKX163" s="0"/>
+      <c r="AKY163" s="0"/>
+      <c r="AKZ163" s="0"/>
+      <c r="ALA163" s="0"/>
+      <c r="ALB163" s="0"/>
+      <c r="ALC163" s="0"/>
+      <c r="ALD163" s="0"/>
+      <c r="ALE163" s="0"/>
+      <c r="ALF163" s="0"/>
+      <c r="ALG163" s="0"/>
+      <c r="ALH163" s="0"/>
+      <c r="ALI163" s="0"/>
+      <c r="ALJ163" s="0"/>
+      <c r="ALK163" s="0"/>
+      <c r="ALL163" s="0"/>
+      <c r="ALM163" s="0"/>
+      <c r="ALN163" s="0"/>
+      <c r="ALO163" s="0"/>
+      <c r="ALP163" s="0"/>
+      <c r="ALQ163" s="0"/>
+      <c r="ALR163" s="0"/>
+      <c r="ALS163" s="0"/>
+      <c r="ALT163" s="0"/>
+      <c r="ALU163" s="0"/>
+      <c r="ALV163" s="0"/>
+      <c r="ALW163" s="0"/>
+      <c r="ALX163" s="0"/>
+      <c r="ALY163" s="0"/>
+      <c r="ALZ163" s="0"/>
+      <c r="AMA163" s="0"/>
+      <c r="AMB163" s="0"/>
+      <c r="AMC163" s="0"/>
+      <c r="AMD163" s="0"/>
+      <c r="AME163" s="0"/>
+      <c r="AMF163" s="0"/>
+      <c r="AMG163" s="0"/>
+      <c r="AMH163" s="0"/>
+      <c r="AMI163" s="0"/>
+      <c r="AMJ163" s="0"/>
+    </row>
+    <row r="164" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0"/>
+      <c r="B164" s="0"/>
+      <c r="C164" s="0"/>
+      <c r="D164" s="0"/>
+      <c r="E164" s="0"/>
+      <c r="F164" s="0"/>
+      <c r="G164" s="0"/>
+      <c r="H164" s="0"/>
+      <c r="AP164" s="19"/>
+      <c r="AQ164" s="0"/>
+      <c r="AR164" s="0"/>
       <c r="AW164" s="20"/>
-    </row>
-    <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="17"/>
-      <c r="L165" s="24"/>
-      <c r="M165" s="24"/>
-      <c r="N165" s="24"/>
-      <c r="O165" s="24"/>
-      <c r="P165" s="24"/>
-      <c r="Q165" s="24"/>
-      <c r="R165" s="24"/>
-      <c r="S165" s="24"/>
-      <c r="T165" s="24"/>
-      <c r="U165" s="24"/>
-      <c r="V165" s="24"/>
-      <c r="W165" s="24"/>
-      <c r="X165" s="24"/>
-      <c r="Y165" s="24"/>
-      <c r="Z165" s="24"/>
-      <c r="AA165" s="24"/>
-      <c r="AB165" s="24"/>
-      <c r="AC165" s="24"/>
-      <c r="AD165" s="24"/>
-      <c r="AF165" s="24"/>
-      <c r="AG165" s="24"/>
-      <c r="AH165" s="24"/>
-      <c r="AI165" s="24"/>
-      <c r="AJ165" s="231"/>
-      <c r="AK165" s="24"/>
-      <c r="AL165" s="24"/>
-      <c r="AM165" s="24"/>
-      <c r="AN165" s="24"/>
-      <c r="AO165" s="24"/>
-      <c r="AP165" s="24"/>
-      <c r="AQ165" s="24"/>
-      <c r="AR165" s="24"/>
-      <c r="AS165" s="24"/>
-      <c r="AT165" s="24"/>
-      <c r="AU165" s="24"/>
-      <c r="AV165" s="19"/>
+      <c r="AX164" s="99"/>
+      <c r="BI164" s="0"/>
+      <c r="AKL164" s="0"/>
+      <c r="AKM164" s="0"/>
+      <c r="AKN164" s="0"/>
+      <c r="AKO164" s="0"/>
+      <c r="AKP164" s="0"/>
+      <c r="AKQ164" s="0"/>
+      <c r="AKR164" s="0"/>
+      <c r="AKS164" s="0"/>
+      <c r="AKT164" s="0"/>
+      <c r="AKU164" s="0"/>
+      <c r="AKV164" s="0"/>
+      <c r="AKW164" s="0"/>
+      <c r="AKX164" s="0"/>
+      <c r="AKY164" s="0"/>
+      <c r="AKZ164" s="0"/>
+      <c r="ALA164" s="0"/>
+      <c r="ALB164" s="0"/>
+      <c r="ALC164" s="0"/>
+      <c r="ALD164" s="0"/>
+      <c r="ALE164" s="0"/>
+      <c r="ALF164" s="0"/>
+      <c r="ALG164" s="0"/>
+      <c r="ALH164" s="0"/>
+      <c r="ALI164" s="0"/>
+      <c r="ALJ164" s="0"/>
+      <c r="ALK164" s="0"/>
+      <c r="ALL164" s="0"/>
+      <c r="ALM164" s="0"/>
+      <c r="ALN164" s="0"/>
+      <c r="ALO164" s="0"/>
+      <c r="ALP164" s="0"/>
+      <c r="ALQ164" s="0"/>
+      <c r="ALR164" s="0"/>
+      <c r="ALS164" s="0"/>
+      <c r="ALT164" s="0"/>
+      <c r="ALU164" s="0"/>
+      <c r="ALV164" s="0"/>
+      <c r="ALW164" s="0"/>
+      <c r="ALX164" s="0"/>
+      <c r="ALY164" s="0"/>
+      <c r="ALZ164" s="0"/>
+      <c r="AMA164" s="0"/>
+      <c r="AMB164" s="0"/>
+      <c r="AMC164" s="0"/>
+      <c r="AMD164" s="0"/>
+      <c r="AME164" s="0"/>
+      <c r="AMF164" s="0"/>
+      <c r="AMG164" s="0"/>
+      <c r="AMH164" s="0"/>
+      <c r="AMI164" s="0"/>
+      <c r="AMJ164" s="0"/>
+    </row>
+    <row r="165" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0"/>
+      <c r="B165" s="0"/>
+      <c r="C165" s="0"/>
+      <c r="D165" s="0"/>
+      <c r="E165" s="0"/>
+      <c r="F165" s="0"/>
+      <c r="G165" s="0"/>
+      <c r="H165" s="0"/>
+      <c r="AP165" s="19"/>
+      <c r="AQ165" s="0"/>
+      <c r="AR165" s="0"/>
       <c r="AW165" s="20"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="17"/>
-      <c r="L166" s="24"/>
-      <c r="M166" s="24"/>
-      <c r="N166" s="24"/>
-      <c r="O166" s="24"/>
-      <c r="P166" s="24"/>
-      <c r="Q166" s="24"/>
-      <c r="R166" s="24"/>
-      <c r="S166" s="24"/>
-      <c r="T166" s="24"/>
-      <c r="U166" s="24"/>
-      <c r="V166" s="24"/>
-      <c r="W166" s="24"/>
-      <c r="X166" s="24"/>
-      <c r="Y166" s="24"/>
-      <c r="Z166" s="24"/>
-      <c r="AA166" s="24"/>
-      <c r="AB166" s="24"/>
-      <c r="AC166" s="24"/>
-      <c r="AD166" s="24"/>
-      <c r="AF166" s="24"/>
-      <c r="AG166" s="24"/>
-      <c r="AH166" s="24"/>
-      <c r="AI166" s="24"/>
-      <c r="AJ166" s="231"/>
-      <c r="AK166" s="24"/>
-      <c r="AL166" s="24"/>
-      <c r="AM166" s="24"/>
-      <c r="AN166" s="24"/>
-      <c r="AO166" s="24"/>
-      <c r="AP166" s="24"/>
-      <c r="AQ166" s="24"/>
-      <c r="AR166" s="24"/>
-      <c r="AS166" s="24"/>
-      <c r="AT166" s="24"/>
-      <c r="AU166" s="24"/>
-      <c r="AV166" s="19"/>
+      <c r="AX165" s="99"/>
+      <c r="BI165" s="0"/>
+      <c r="AKL165" s="0"/>
+      <c r="AKM165" s="0"/>
+      <c r="AKN165" s="0"/>
+      <c r="AKO165" s="0"/>
+      <c r="AKP165" s="0"/>
+      <c r="AKQ165" s="0"/>
+      <c r="AKR165" s="0"/>
+      <c r="AKS165" s="0"/>
+      <c r="AKT165" s="0"/>
+      <c r="AKU165" s="0"/>
+      <c r="AKV165" s="0"/>
+      <c r="AKW165" s="0"/>
+      <c r="AKX165" s="0"/>
+      <c r="AKY165" s="0"/>
+      <c r="AKZ165" s="0"/>
+      <c r="ALA165" s="0"/>
+      <c r="ALB165" s="0"/>
+      <c r="ALC165" s="0"/>
+      <c r="ALD165" s="0"/>
+      <c r="ALE165" s="0"/>
+      <c r="ALF165" s="0"/>
+      <c r="ALG165" s="0"/>
+      <c r="ALH165" s="0"/>
+      <c r="ALI165" s="0"/>
+      <c r="ALJ165" s="0"/>
+      <c r="ALK165" s="0"/>
+      <c r="ALL165" s="0"/>
+      <c r="ALM165" s="0"/>
+      <c r="ALN165" s="0"/>
+      <c r="ALO165" s="0"/>
+      <c r="ALP165" s="0"/>
+      <c r="ALQ165" s="0"/>
+      <c r="ALR165" s="0"/>
+      <c r="ALS165" s="0"/>
+      <c r="ALT165" s="0"/>
+      <c r="ALU165" s="0"/>
+      <c r="ALV165" s="0"/>
+      <c r="ALW165" s="0"/>
+      <c r="ALX165" s="0"/>
+      <c r="ALY165" s="0"/>
+      <c r="ALZ165" s="0"/>
+      <c r="AMA165" s="0"/>
+      <c r="AMB165" s="0"/>
+      <c r="AMC165" s="0"/>
+      <c r="AMD165" s="0"/>
+      <c r="AME165" s="0"/>
+      <c r="AMF165" s="0"/>
+      <c r="AMG165" s="0"/>
+      <c r="AMH165" s="0"/>
+      <c r="AMI165" s="0"/>
+      <c r="AMJ165" s="0"/>
+    </row>
+    <row r="166" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0"/>
+      <c r="B166" s="0"/>
+      <c r="C166" s="0"/>
+      <c r="D166" s="0"/>
+      <c r="E166" s="0"/>
+      <c r="F166" s="0"/>
+      <c r="G166" s="0"/>
+      <c r="H166" s="0"/>
+      <c r="AP166" s="19"/>
+      <c r="AQ166" s="0"/>
+      <c r="AR166" s="0"/>
       <c r="AW166" s="20"/>
-    </row>
-    <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="17"/>
-      <c r="L167" s="24"/>
-      <c r="M167" s="24"/>
-      <c r="N167" s="24"/>
-      <c r="O167" s="24"/>
-      <c r="P167" s="24"/>
-      <c r="Q167" s="24"/>
-      <c r="R167" s="24"/>
-      <c r="S167" s="24"/>
-      <c r="T167" s="24"/>
-      <c r="U167" s="24"/>
-      <c r="V167" s="24"/>
-      <c r="W167" s="24"/>
-      <c r="X167" s="24"/>
-      <c r="Y167" s="24"/>
-      <c r="Z167" s="24"/>
-      <c r="AA167" s="24"/>
-      <c r="AB167" s="24"/>
-      <c r="AC167" s="24"/>
-      <c r="AD167" s="24"/>
-      <c r="AF167" s="24"/>
-      <c r="AG167" s="24"/>
-      <c r="AH167" s="24"/>
-      <c r="AI167" s="24"/>
-      <c r="AJ167" s="231"/>
-      <c r="AK167" s="24"/>
-      <c r="AL167" s="24"/>
-      <c r="AM167" s="24"/>
-      <c r="AN167" s="24"/>
-      <c r="AO167" s="24"/>
-      <c r="AP167" s="24"/>
-      <c r="AQ167" s="24"/>
-      <c r="AR167" s="24"/>
-      <c r="AS167" s="24"/>
-      <c r="AT167" s="24"/>
-      <c r="AU167" s="24"/>
-      <c r="AV167" s="19"/>
+      <c r="AX166" s="99"/>
+      <c r="BI166" s="0"/>
+      <c r="AKL166" s="0"/>
+      <c r="AKM166" s="0"/>
+      <c r="AKN166" s="0"/>
+      <c r="AKO166" s="0"/>
+      <c r="AKP166" s="0"/>
+      <c r="AKQ166" s="0"/>
+      <c r="AKR166" s="0"/>
+      <c r="AKS166" s="0"/>
+      <c r="AKT166" s="0"/>
+      <c r="AKU166" s="0"/>
+      <c r="AKV166" s="0"/>
+      <c r="AKW166" s="0"/>
+      <c r="AKX166" s="0"/>
+      <c r="AKY166" s="0"/>
+      <c r="AKZ166" s="0"/>
+      <c r="ALA166" s="0"/>
+      <c r="ALB166" s="0"/>
+      <c r="ALC166" s="0"/>
+      <c r="ALD166" s="0"/>
+      <c r="ALE166" s="0"/>
+      <c r="ALF166" s="0"/>
+      <c r="ALG166" s="0"/>
+      <c r="ALH166" s="0"/>
+      <c r="ALI166" s="0"/>
+      <c r="ALJ166" s="0"/>
+      <c r="ALK166" s="0"/>
+      <c r="ALL166" s="0"/>
+      <c r="ALM166" s="0"/>
+      <c r="ALN166" s="0"/>
+      <c r="ALO166" s="0"/>
+      <c r="ALP166" s="0"/>
+      <c r="ALQ166" s="0"/>
+      <c r="ALR166" s="0"/>
+      <c r="ALS166" s="0"/>
+      <c r="ALT166" s="0"/>
+      <c r="ALU166" s="0"/>
+      <c r="ALV166" s="0"/>
+      <c r="ALW166" s="0"/>
+      <c r="ALX166" s="0"/>
+      <c r="ALY166" s="0"/>
+      <c r="ALZ166" s="0"/>
+      <c r="AMA166" s="0"/>
+      <c r="AMB166" s="0"/>
+      <c r="AMC166" s="0"/>
+      <c r="AMD166" s="0"/>
+      <c r="AME166" s="0"/>
+      <c r="AMF166" s="0"/>
+      <c r="AMG166" s="0"/>
+      <c r="AMH166" s="0"/>
+      <c r="AMI166" s="0"/>
+      <c r="AMJ166" s="0"/>
+    </row>
+    <row r="167" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0"/>
+      <c r="B167" s="0"/>
+      <c r="C167" s="0"/>
+      <c r="D167" s="0"/>
+      <c r="E167" s="0"/>
+      <c r="F167" s="0"/>
+      <c r="G167" s="0"/>
+      <c r="H167" s="0"/>
+      <c r="AP167" s="19"/>
+      <c r="AQ167" s="0"/>
+      <c r="AR167" s="0"/>
       <c r="AW167" s="20"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="17"/>
-      <c r="D168" s="177" t="s">
-        <v>100</v>
-      </c>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24"/>
-      <c r="H168" s="24"/>
-      <c r="I168" s="24"/>
-      <c r="J168" s="24"/>
-      <c r="K168" s="24"/>
-      <c r="L168" s="24"/>
-      <c r="M168" s="24"/>
-      <c r="N168" s="24"/>
-      <c r="O168" s="24"/>
-      <c r="P168" s="24"/>
-      <c r="Q168" s="24"/>
-      <c r="R168" s="24"/>
-      <c r="S168" s="24"/>
-      <c r="T168" s="24"/>
-      <c r="U168" s="24"/>
-      <c r="V168" s="24"/>
-      <c r="W168" s="24"/>
-      <c r="X168" s="24"/>
-      <c r="Y168" s="24"/>
-      <c r="Z168" s="24"/>
-      <c r="AA168" s="24"/>
-      <c r="AB168" s="24"/>
-      <c r="AC168" s="24"/>
-      <c r="AD168" s="24"/>
-      <c r="AF168" s="24"/>
-      <c r="AG168" s="24"/>
-      <c r="AH168" s="24"/>
-      <c r="AI168" s="24"/>
-      <c r="AJ168" s="231"/>
-      <c r="AK168" s="24"/>
-      <c r="AL168" s="24"/>
-      <c r="AM168" s="24"/>
-      <c r="AN168" s="24"/>
-      <c r="AO168" s="24"/>
-      <c r="AP168" s="24"/>
-      <c r="AQ168" s="24"/>
-      <c r="AR168" s="24"/>
-      <c r="AS168" s="24"/>
-      <c r="AT168" s="24"/>
-      <c r="AU168" s="24"/>
-      <c r="AV168" s="19"/>
+      <c r="AX167" s="99"/>
+      <c r="BI167" s="0"/>
+      <c r="AKL167" s="0"/>
+      <c r="AKM167" s="0"/>
+      <c r="AKN167" s="0"/>
+      <c r="AKO167" s="0"/>
+      <c r="AKP167" s="0"/>
+      <c r="AKQ167" s="0"/>
+      <c r="AKR167" s="0"/>
+      <c r="AKS167" s="0"/>
+      <c r="AKT167" s="0"/>
+      <c r="AKU167" s="0"/>
+      <c r="AKV167" s="0"/>
+      <c r="AKW167" s="0"/>
+      <c r="AKX167" s="0"/>
+      <c r="AKY167" s="0"/>
+      <c r="AKZ167" s="0"/>
+      <c r="ALA167" s="0"/>
+      <c r="ALB167" s="0"/>
+      <c r="ALC167" s="0"/>
+      <c r="ALD167" s="0"/>
+      <c r="ALE167" s="0"/>
+      <c r="ALF167" s="0"/>
+      <c r="ALG167" s="0"/>
+      <c r="ALH167" s="0"/>
+      <c r="ALI167" s="0"/>
+      <c r="ALJ167" s="0"/>
+      <c r="ALK167" s="0"/>
+      <c r="ALL167" s="0"/>
+      <c r="ALM167" s="0"/>
+      <c r="ALN167" s="0"/>
+      <c r="ALO167" s="0"/>
+      <c r="ALP167" s="0"/>
+      <c r="ALQ167" s="0"/>
+      <c r="ALR167" s="0"/>
+      <c r="ALS167" s="0"/>
+      <c r="ALT167" s="0"/>
+      <c r="ALU167" s="0"/>
+      <c r="ALV167" s="0"/>
+      <c r="ALW167" s="0"/>
+      <c r="ALX167" s="0"/>
+      <c r="ALY167" s="0"/>
+      <c r="ALZ167" s="0"/>
+      <c r="AMA167" s="0"/>
+      <c r="AMB167" s="0"/>
+      <c r="AMC167" s="0"/>
+      <c r="AMD167" s="0"/>
+      <c r="AME167" s="0"/>
+      <c r="AMF167" s="0"/>
+      <c r="AMG167" s="0"/>
+      <c r="AMH167" s="0"/>
+      <c r="AMI167" s="0"/>
+      <c r="AMJ167" s="0"/>
+    </row>
+    <row r="168" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0"/>
+      <c r="B168" s="0"/>
+      <c r="C168" s="0"/>
+      <c r="D168" s="0"/>
+      <c r="E168" s="0"/>
+      <c r="F168" s="0"/>
+      <c r="G168" s="0"/>
+      <c r="H168" s="0"/>
+      <c r="AP168" s="19"/>
+      <c r="AQ168" s="0"/>
+      <c r="AR168" s="0"/>
       <c r="AW168" s="20"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="17"/>
-      <c r="D169" s="177"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
-      <c r="H169" s="24"/>
-      <c r="I169" s="24"/>
-      <c r="J169" s="24"/>
-      <c r="K169" s="24"/>
-      <c r="L169" s="24"/>
-      <c r="M169" s="24"/>
-      <c r="N169" s="24"/>
-      <c r="O169" s="24"/>
-      <c r="P169" s="24"/>
-      <c r="Q169" s="24"/>
-      <c r="R169" s="24"/>
-      <c r="S169" s="24"/>
-      <c r="T169" s="24"/>
-      <c r="U169" s="24"/>
-      <c r="V169" s="24"/>
-      <c r="W169" s="24"/>
-      <c r="X169" s="24"/>
-      <c r="Y169" s="24"/>
-      <c r="Z169" s="24"/>
-      <c r="AA169" s="24"/>
-      <c r="AB169" s="24"/>
-      <c r="AC169" s="24"/>
-      <c r="AD169" s="24"/>
-      <c r="AF169" s="24"/>
-      <c r="AG169" s="24"/>
-      <c r="AH169" s="24"/>
-      <c r="AI169" s="24"/>
-      <c r="AJ169" s="231"/>
-      <c r="AK169" s="24"/>
-      <c r="AL169" s="24"/>
-      <c r="AM169" s="24"/>
-      <c r="AN169" s="24"/>
-      <c r="AO169" s="24"/>
-      <c r="AP169" s="24"/>
-      <c r="AQ169" s="24"/>
-      <c r="AR169" s="24"/>
-      <c r="AS169" s="24"/>
-      <c r="AT169" s="24"/>
-      <c r="AU169" s="24"/>
-      <c r="AV169" s="19"/>
+      <c r="AX168" s="99"/>
+      <c r="BI168" s="0"/>
+      <c r="AKL168" s="0"/>
+      <c r="AKM168" s="0"/>
+      <c r="AKN168" s="0"/>
+      <c r="AKO168" s="0"/>
+      <c r="AKP168" s="0"/>
+      <c r="AKQ168" s="0"/>
+      <c r="AKR168" s="0"/>
+      <c r="AKS168" s="0"/>
+      <c r="AKT168" s="0"/>
+      <c r="AKU168" s="0"/>
+      <c r="AKV168" s="0"/>
+      <c r="AKW168" s="0"/>
+      <c r="AKX168" s="0"/>
+      <c r="AKY168" s="0"/>
+      <c r="AKZ168" s="0"/>
+      <c r="ALA168" s="0"/>
+      <c r="ALB168" s="0"/>
+      <c r="ALC168" s="0"/>
+      <c r="ALD168" s="0"/>
+      <c r="ALE168" s="0"/>
+      <c r="ALF168" s="0"/>
+      <c r="ALG168" s="0"/>
+      <c r="ALH168" s="0"/>
+      <c r="ALI168" s="0"/>
+      <c r="ALJ168" s="0"/>
+      <c r="ALK168" s="0"/>
+      <c r="ALL168" s="0"/>
+      <c r="ALM168" s="0"/>
+      <c r="ALN168" s="0"/>
+      <c r="ALO168" s="0"/>
+      <c r="ALP168" s="0"/>
+      <c r="ALQ168" s="0"/>
+      <c r="ALR168" s="0"/>
+      <c r="ALS168" s="0"/>
+      <c r="ALT168" s="0"/>
+      <c r="ALU168" s="0"/>
+      <c r="ALV168" s="0"/>
+      <c r="ALW168" s="0"/>
+      <c r="ALX168" s="0"/>
+      <c r="ALY168" s="0"/>
+      <c r="ALZ168" s="0"/>
+      <c r="AMA168" s="0"/>
+      <c r="AMB168" s="0"/>
+      <c r="AMC168" s="0"/>
+      <c r="AMD168" s="0"/>
+      <c r="AME168" s="0"/>
+      <c r="AMF168" s="0"/>
+      <c r="AMG168" s="0"/>
+      <c r="AMH168" s="0"/>
+      <c r="AMI168" s="0"/>
+      <c r="AMJ168" s="0"/>
+    </row>
+    <row r="169" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0"/>
+      <c r="B169" s="0"/>
+      <c r="C169" s="0"/>
+      <c r="D169" s="0"/>
+      <c r="E169" s="0"/>
+      <c r="F169" s="0"/>
+      <c r="G169" s="0"/>
+      <c r="H169" s="0"/>
+      <c r="AP169" s="19"/>
+      <c r="AQ169" s="0"/>
+      <c r="AR169" s="0"/>
       <c r="AW169" s="20"/>
+      <c r="AX169" s="99"/>
+      <c r="BI169" s="0"/>
+      <c r="AKL169" s="0"/>
+      <c r="AKM169" s="0"/>
+      <c r="AKN169" s="0"/>
+      <c r="AKO169" s="0"/>
+      <c r="AKP169" s="0"/>
+      <c r="AKQ169" s="0"/>
+      <c r="AKR169" s="0"/>
+      <c r="AKS169" s="0"/>
+      <c r="AKT169" s="0"/>
+      <c r="AKU169" s="0"/>
+      <c r="AKV169" s="0"/>
+      <c r="AKW169" s="0"/>
+      <c r="AKX169" s="0"/>
+      <c r="AKY169" s="0"/>
+      <c r="AKZ169" s="0"/>
+      <c r="ALA169" s="0"/>
+      <c r="ALB169" s="0"/>
+      <c r="ALC169" s="0"/>
+      <c r="ALD169" s="0"/>
+      <c r="ALE169" s="0"/>
+      <c r="ALF169" s="0"/>
+      <c r="ALG169" s="0"/>
+      <c r="ALH169" s="0"/>
+      <c r="ALI169" s="0"/>
+      <c r="ALJ169" s="0"/>
+      <c r="ALK169" s="0"/>
+      <c r="ALL169" s="0"/>
+      <c r="ALM169" s="0"/>
+      <c r="ALN169" s="0"/>
+      <c r="ALO169" s="0"/>
+      <c r="ALP169" s="0"/>
+      <c r="ALQ169" s="0"/>
+      <c r="ALR169" s="0"/>
+      <c r="ALS169" s="0"/>
+      <c r="ALT169" s="0"/>
+      <c r="ALU169" s="0"/>
+      <c r="ALV169" s="0"/>
+      <c r="ALW169" s="0"/>
+      <c r="ALX169" s="0"/>
+      <c r="ALY169" s="0"/>
+      <c r="ALZ169" s="0"/>
+      <c r="AMA169" s="0"/>
+      <c r="AMB169" s="0"/>
+      <c r="AMC169" s="0"/>
+      <c r="AMD169" s="0"/>
+      <c r="AME169" s="0"/>
+      <c r="AMF169" s="0"/>
+      <c r="AMG169" s="0"/>
+      <c r="AMH169" s="0"/>
+      <c r="AMI169" s="0"/>
+      <c r="AMJ169" s="0"/>
     </row>
     <row r="170" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="25"/>
-      <c r="B170" s="232"/>
-      <c r="C170" s="26"/>
-      <c r="E170" s="233"/>
-      <c r="AV170" s="26"/>
-      <c r="AW170" s="27"/>
+      <c r="A170" s="0"/>
+      <c r="B170" s="0"/>
+      <c r="C170" s="0"/>
+      <c r="D170" s="0"/>
+      <c r="E170" s="0"/>
+      <c r="F170" s="0"/>
+      <c r="G170" s="0"/>
+      <c r="H170" s="0"/>
+      <c r="AP170" s="19"/>
+      <c r="AQ170" s="0"/>
+      <c r="AR170" s="0"/>
+      <c r="AW170" s="20"/>
       <c r="AX170" s="99"/>
+      <c r="BI170" s="0"/>
+      <c r="AKL170" s="0"/>
+      <c r="AKM170" s="0"/>
+      <c r="AKN170" s="0"/>
+      <c r="AKO170" s="0"/>
+      <c r="AKP170" s="0"/>
+      <c r="AKQ170" s="0"/>
+      <c r="AKR170" s="0"/>
+      <c r="AKS170" s="0"/>
+      <c r="AKT170" s="0"/>
+      <c r="AKU170" s="0"/>
+      <c r="AKV170" s="0"/>
+      <c r="AKW170" s="0"/>
+      <c r="AKX170" s="0"/>
+      <c r="AKY170" s="0"/>
+      <c r="AKZ170" s="0"/>
+      <c r="ALA170" s="0"/>
+      <c r="ALB170" s="0"/>
+      <c r="ALC170" s="0"/>
+      <c r="ALD170" s="0"/>
+      <c r="ALE170" s="0"/>
+      <c r="ALF170" s="0"/>
+      <c r="ALG170" s="0"/>
+      <c r="ALH170" s="0"/>
+      <c r="ALI170" s="0"/>
+      <c r="ALJ170" s="0"/>
+      <c r="ALK170" s="0"/>
+      <c r="ALL170" s="0"/>
+      <c r="ALM170" s="0"/>
+      <c r="ALN170" s="0"/>
+      <c r="ALO170" s="0"/>
+      <c r="ALP170" s="0"/>
+      <c r="ALQ170" s="0"/>
+      <c r="ALR170" s="0"/>
+      <c r="ALS170" s="0"/>
+      <c r="ALT170" s="0"/>
+      <c r="ALU170" s="0"/>
+      <c r="ALV170" s="0"/>
+      <c r="ALW170" s="0"/>
+      <c r="ALX170" s="0"/>
+      <c r="ALY170" s="0"/>
+      <c r="ALZ170" s="0"/>
+      <c r="AMA170" s="0"/>
+      <c r="AMB170" s="0"/>
+      <c r="AMC170" s="0"/>
+      <c r="AMD170" s="0"/>
+      <c r="AME170" s="0"/>
+      <c r="AMF170" s="0"/>
+      <c r="AMG170" s="0"/>
+      <c r="AMH170" s="0"/>
+      <c r="AMI170" s="0"/>
+      <c r="AMJ170" s="0"/>
     </row>
     <row r="171" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="9"/>
-      <c r="B171" s="59"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-      <c r="AV171" s="9"/>
-      <c r="AW171" s="9"/>
+      <c r="A171" s="0"/>
+      <c r="B171" s="0"/>
+      <c r="C171" s="0"/>
+      <c r="D171" s="0"/>
+      <c r="E171" s="0"/>
+      <c r="F171" s="0"/>
+      <c r="G171" s="0"/>
+      <c r="H171" s="0"/>
+      <c r="AP171" s="19"/>
+      <c r="AQ171" s="0"/>
+      <c r="AR171" s="0"/>
+      <c r="AW171" s="20"/>
+      <c r="AX171" s="99"/>
+      <c r="BI171" s="0"/>
+      <c r="AKL171" s="0"/>
+      <c r="AKM171" s="0"/>
+      <c r="AKN171" s="0"/>
+      <c r="AKO171" s="0"/>
+      <c r="AKP171" s="0"/>
+      <c r="AKQ171" s="0"/>
+      <c r="AKR171" s="0"/>
+      <c r="AKS171" s="0"/>
+      <c r="AKT171" s="0"/>
+      <c r="AKU171" s="0"/>
+      <c r="AKV171" s="0"/>
+      <c r="AKW171" s="0"/>
+      <c r="AKX171" s="0"/>
+      <c r="AKY171" s="0"/>
+      <c r="AKZ171" s="0"/>
+      <c r="ALA171" s="0"/>
+      <c r="ALB171" s="0"/>
+      <c r="ALC171" s="0"/>
+      <c r="ALD171" s="0"/>
+      <c r="ALE171" s="0"/>
+      <c r="ALF171" s="0"/>
+      <c r="ALG171" s="0"/>
+      <c r="ALH171" s="0"/>
+      <c r="ALI171" s="0"/>
+      <c r="ALJ171" s="0"/>
+      <c r="ALK171" s="0"/>
+      <c r="ALL171" s="0"/>
+      <c r="ALM171" s="0"/>
+      <c r="ALN171" s="0"/>
+      <c r="ALO171" s="0"/>
+      <c r="ALP171" s="0"/>
+      <c r="ALQ171" s="0"/>
+      <c r="ALR171" s="0"/>
+      <c r="ALS171" s="0"/>
+      <c r="ALT171" s="0"/>
+      <c r="ALU171" s="0"/>
+      <c r="ALV171" s="0"/>
+      <c r="ALW171" s="0"/>
+      <c r="ALX171" s="0"/>
+      <c r="ALY171" s="0"/>
+      <c r="ALZ171" s="0"/>
+      <c r="AMA171" s="0"/>
+      <c r="AMB171" s="0"/>
+      <c r="AMC171" s="0"/>
+      <c r="AMD171" s="0"/>
+      <c r="AME171" s="0"/>
+      <c r="AMF171" s="0"/>
+      <c r="AMG171" s="0"/>
+      <c r="AMH171" s="0"/>
+      <c r="AMI171" s="0"/>
+      <c r="AMJ171" s="0"/>
     </row>
     <row r="172" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="9"/>
-      <c r="B172" s="59"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
-      <c r="AV172" s="9"/>
-      <c r="AW172" s="9"/>
+      <c r="A172" s="0"/>
+      <c r="B172" s="0"/>
+      <c r="C172" s="0"/>
+      <c r="D172" s="0"/>
+      <c r="E172" s="0"/>
+      <c r="F172" s="0"/>
+      <c r="G172" s="0"/>
+      <c r="H172" s="0"/>
+      <c r="AP172" s="19"/>
+      <c r="AQ172" s="0"/>
+      <c r="AR172" s="0"/>
+      <c r="AW172" s="20"/>
       <c r="AX172" s="99"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="BI172" s="0"/>
+      <c r="AKL172" s="0"/>
+      <c r="AKM172" s="0"/>
+      <c r="AKN172" s="0"/>
+      <c r="AKO172" s="0"/>
+      <c r="AKP172" s="0"/>
+      <c r="AKQ172" s="0"/>
+      <c r="AKR172" s="0"/>
+      <c r="AKS172" s="0"/>
+      <c r="AKT172" s="0"/>
+      <c r="AKU172" s="0"/>
+      <c r="AKV172" s="0"/>
+      <c r="AKW172" s="0"/>
+      <c r="AKX172" s="0"/>
+      <c r="AKY172" s="0"/>
+      <c r="AKZ172" s="0"/>
+      <c r="ALA172" s="0"/>
+      <c r="ALB172" s="0"/>
+      <c r="ALC172" s="0"/>
+      <c r="ALD172" s="0"/>
+      <c r="ALE172" s="0"/>
+      <c r="ALF172" s="0"/>
+      <c r="ALG172" s="0"/>
+      <c r="ALH172" s="0"/>
+      <c r="ALI172" s="0"/>
+      <c r="ALJ172" s="0"/>
+      <c r="ALK172" s="0"/>
+      <c r="ALL172" s="0"/>
+      <c r="ALM172" s="0"/>
+      <c r="ALN172" s="0"/>
+      <c r="ALO172" s="0"/>
+      <c r="ALP172" s="0"/>
+      <c r="ALQ172" s="0"/>
+      <c r="ALR172" s="0"/>
+      <c r="ALS172" s="0"/>
+      <c r="ALT172" s="0"/>
+      <c r="ALU172" s="0"/>
+      <c r="ALV172" s="0"/>
+      <c r="ALW172" s="0"/>
+      <c r="ALX172" s="0"/>
+      <c r="ALY172" s="0"/>
+      <c r="ALZ172" s="0"/>
+      <c r="AMA172" s="0"/>
+      <c r="AMB172" s="0"/>
+      <c r="AMC172" s="0"/>
+      <c r="AMD172" s="0"/>
+      <c r="AME172" s="0"/>
+      <c r="AMF172" s="0"/>
+      <c r="AMG172" s="0"/>
+      <c r="AMH172" s="0"/>
+      <c r="AMI172" s="0"/>
+      <c r="AMJ172" s="0"/>
+    </row>
+    <row r="173" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0"/>
+      <c r="B173" s="0"/>
+      <c r="C173" s="0"/>
+      <c r="D173" s="0"/>
+      <c r="E173" s="0"/>
+      <c r="F173" s="0"/>
+      <c r="G173" s="0"/>
+      <c r="H173" s="0"/>
+      <c r="AP173" s="19"/>
+      <c r="AQ173" s="0"/>
+      <c r="AR173" s="0"/>
+      <c r="AW173" s="20"/>
+      <c r="AX173" s="99"/>
+      <c r="BI173" s="0"/>
+      <c r="AKL173" s="0"/>
+      <c r="AKM173" s="0"/>
+      <c r="AKN173" s="0"/>
+      <c r="AKO173" s="0"/>
+      <c r="AKP173" s="0"/>
+      <c r="AKQ173" s="0"/>
+      <c r="AKR173" s="0"/>
+      <c r="AKS173" s="0"/>
+      <c r="AKT173" s="0"/>
+      <c r="AKU173" s="0"/>
+      <c r="AKV173" s="0"/>
+      <c r="AKW173" s="0"/>
+      <c r="AKX173" s="0"/>
+      <c r="AKY173" s="0"/>
+      <c r="AKZ173" s="0"/>
+      <c r="ALA173" s="0"/>
+      <c r="ALB173" s="0"/>
+      <c r="ALC173" s="0"/>
+      <c r="ALD173" s="0"/>
+      <c r="ALE173" s="0"/>
+      <c r="ALF173" s="0"/>
+      <c r="ALG173" s="0"/>
+      <c r="ALH173" s="0"/>
+      <c r="ALI173" s="0"/>
+      <c r="ALJ173" s="0"/>
+      <c r="ALK173" s="0"/>
+      <c r="ALL173" s="0"/>
+      <c r="ALM173" s="0"/>
+      <c r="ALN173" s="0"/>
+      <c r="ALO173" s="0"/>
+      <c r="ALP173" s="0"/>
+      <c r="ALQ173" s="0"/>
+      <c r="ALR173" s="0"/>
+      <c r="ALS173" s="0"/>
+      <c r="ALT173" s="0"/>
+      <c r="ALU173" s="0"/>
+      <c r="ALV173" s="0"/>
+      <c r="ALW173" s="0"/>
+      <c r="ALX173" s="0"/>
+      <c r="ALY173" s="0"/>
+      <c r="ALZ173" s="0"/>
+      <c r="AMA173" s="0"/>
+      <c r="AMB173" s="0"/>
+      <c r="AMC173" s="0"/>
+      <c r="AMD173" s="0"/>
+      <c r="AME173" s="0"/>
+      <c r="AMF173" s="0"/>
+      <c r="AMG173" s="0"/>
+      <c r="AMH173" s="0"/>
+      <c r="AMI173" s="0"/>
+      <c r="AMJ173" s="0"/>
+    </row>
+    <row r="174" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0"/>
+      <c r="B174" s="0"/>
+      <c r="C174" s="0"/>
+      <c r="D174" s="0"/>
+      <c r="E174" s="0"/>
+      <c r="F174" s="0"/>
+      <c r="G174" s="0"/>
+      <c r="H174" s="0"/>
+      <c r="AP174" s="19"/>
+      <c r="AQ174" s="0"/>
+      <c r="AR174" s="0"/>
+      <c r="AW174" s="20"/>
+      <c r="AX174" s="99"/>
+      <c r="BI174" s="0"/>
+      <c r="AKL174" s="0"/>
+      <c r="AKM174" s="0"/>
+      <c r="AKN174" s="0"/>
+      <c r="AKO174" s="0"/>
+      <c r="AKP174" s="0"/>
+      <c r="AKQ174" s="0"/>
+      <c r="AKR174" s="0"/>
+      <c r="AKS174" s="0"/>
+      <c r="AKT174" s="0"/>
+      <c r="AKU174" s="0"/>
+      <c r="AKV174" s="0"/>
+      <c r="AKW174" s="0"/>
+      <c r="AKX174" s="0"/>
+      <c r="AKY174" s="0"/>
+      <c r="AKZ174" s="0"/>
+      <c r="ALA174" s="0"/>
+      <c r="ALB174" s="0"/>
+      <c r="ALC174" s="0"/>
+      <c r="ALD174" s="0"/>
+      <c r="ALE174" s="0"/>
+      <c r="ALF174" s="0"/>
+      <c r="ALG174" s="0"/>
+      <c r="ALH174" s="0"/>
+      <c r="ALI174" s="0"/>
+      <c r="ALJ174" s="0"/>
+      <c r="ALK174" s="0"/>
+      <c r="ALL174" s="0"/>
+      <c r="ALM174" s="0"/>
+      <c r="ALN174" s="0"/>
+      <c r="ALO174" s="0"/>
+      <c r="ALP174" s="0"/>
+      <c r="ALQ174" s="0"/>
+      <c r="ALR174" s="0"/>
+      <c r="ALS174" s="0"/>
+      <c r="ALT174" s="0"/>
+      <c r="ALU174" s="0"/>
+      <c r="ALV174" s="0"/>
+      <c r="ALW174" s="0"/>
+      <c r="ALX174" s="0"/>
+      <c r="ALY174" s="0"/>
+      <c r="ALZ174" s="0"/>
+      <c r="AMA174" s="0"/>
+      <c r="AMB174" s="0"/>
+      <c r="AMC174" s="0"/>
+      <c r="AMD174" s="0"/>
+      <c r="AME174" s="0"/>
+      <c r="AMF174" s="0"/>
+      <c r="AMG174" s="0"/>
+      <c r="AMH174" s="0"/>
+      <c r="AMI174" s="0"/>
+      <c r="AMJ174" s="0"/>
+    </row>
+    <row r="175" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0"/>
+      <c r="B175" s="0"/>
+      <c r="C175" s="0"/>
+      <c r="D175" s="0"/>
+      <c r="E175" s="0"/>
+      <c r="F175" s="0"/>
+      <c r="G175" s="0"/>
+      <c r="H175" s="0"/>
+      <c r="AP175" s="19"/>
+      <c r="AQ175" s="0"/>
+      <c r="AR175" s="0"/>
+      <c r="AW175" s="20"/>
+      <c r="AX175" s="99"/>
+      <c r="BI175" s="0"/>
+      <c r="AKL175" s="0"/>
+      <c r="AKM175" s="0"/>
+      <c r="AKN175" s="0"/>
+      <c r="AKO175" s="0"/>
+      <c r="AKP175" s="0"/>
+      <c r="AKQ175" s="0"/>
+      <c r="AKR175" s="0"/>
+      <c r="AKS175" s="0"/>
+      <c r="AKT175" s="0"/>
+      <c r="AKU175" s="0"/>
+      <c r="AKV175" s="0"/>
+      <c r="AKW175" s="0"/>
+      <c r="AKX175" s="0"/>
+      <c r="AKY175" s="0"/>
+      <c r="AKZ175" s="0"/>
+      <c r="ALA175" s="0"/>
+      <c r="ALB175" s="0"/>
+      <c r="ALC175" s="0"/>
+      <c r="ALD175" s="0"/>
+      <c r="ALE175" s="0"/>
+      <c r="ALF175" s="0"/>
+      <c r="ALG175" s="0"/>
+      <c r="ALH175" s="0"/>
+      <c r="ALI175" s="0"/>
+      <c r="ALJ175" s="0"/>
+      <c r="ALK175" s="0"/>
+      <c r="ALL175" s="0"/>
+      <c r="ALM175" s="0"/>
+      <c r="ALN175" s="0"/>
+      <c r="ALO175" s="0"/>
+      <c r="ALP175" s="0"/>
+      <c r="ALQ175" s="0"/>
+      <c r="ALR175" s="0"/>
+      <c r="ALS175" s="0"/>
+      <c r="ALT175" s="0"/>
+      <c r="ALU175" s="0"/>
+      <c r="ALV175" s="0"/>
+      <c r="ALW175" s="0"/>
+      <c r="ALX175" s="0"/>
+      <c r="ALY175" s="0"/>
+      <c r="ALZ175" s="0"/>
+      <c r="AMA175" s="0"/>
+      <c r="AMB175" s="0"/>
+      <c r="AMC175" s="0"/>
+      <c r="AMD175" s="0"/>
+      <c r="AME175" s="0"/>
+      <c r="AMF175" s="0"/>
+      <c r="AMG175" s="0"/>
+      <c r="AMH175" s="0"/>
+      <c r="AMI175" s="0"/>
+      <c r="AMJ175" s="0"/>
+    </row>
+    <row r="176" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0"/>
+      <c r="B176" s="0"/>
+      <c r="C176" s="0"/>
+      <c r="D176" s="0"/>
+      <c r="E176" s="0"/>
+      <c r="F176" s="0"/>
+      <c r="G176" s="0"/>
+      <c r="H176" s="0"/>
+      <c r="AP176" s="19"/>
+      <c r="AQ176" s="0"/>
+      <c r="AR176" s="0"/>
+      <c r="AW176" s="20"/>
+      <c r="AX176" s="99"/>
+      <c r="BI176" s="0"/>
+      <c r="AKL176" s="0"/>
+      <c r="AKM176" s="0"/>
+      <c r="AKN176" s="0"/>
+      <c r="AKO176" s="0"/>
+      <c r="AKP176" s="0"/>
+      <c r="AKQ176" s="0"/>
+      <c r="AKR176" s="0"/>
+      <c r="AKS176" s="0"/>
+      <c r="AKT176" s="0"/>
+      <c r="AKU176" s="0"/>
+      <c r="AKV176" s="0"/>
+      <c r="AKW176" s="0"/>
+      <c r="AKX176" s="0"/>
+      <c r="AKY176" s="0"/>
+      <c r="AKZ176" s="0"/>
+      <c r="ALA176" s="0"/>
+      <c r="ALB176" s="0"/>
+      <c r="ALC176" s="0"/>
+      <c r="ALD176" s="0"/>
+      <c r="ALE176" s="0"/>
+      <c r="ALF176" s="0"/>
+      <c r="ALG176" s="0"/>
+      <c r="ALH176" s="0"/>
+      <c r="ALI176" s="0"/>
+      <c r="ALJ176" s="0"/>
+      <c r="ALK176" s="0"/>
+      <c r="ALL176" s="0"/>
+      <c r="ALM176" s="0"/>
+      <c r="ALN176" s="0"/>
+      <c r="ALO176" s="0"/>
+      <c r="ALP176" s="0"/>
+      <c r="ALQ176" s="0"/>
+      <c r="ALR176" s="0"/>
+      <c r="ALS176" s="0"/>
+      <c r="ALT176" s="0"/>
+      <c r="ALU176" s="0"/>
+      <c r="ALV176" s="0"/>
+      <c r="ALW176" s="0"/>
+      <c r="ALX176" s="0"/>
+      <c r="ALY176" s="0"/>
+      <c r="ALZ176" s="0"/>
+      <c r="AMA176" s="0"/>
+      <c r="AMB176" s="0"/>
+      <c r="AMC176" s="0"/>
+      <c r="AMD176" s="0"/>
+      <c r="AME176" s="0"/>
+      <c r="AMF176" s="0"/>
+      <c r="AMG176" s="0"/>
+      <c r="AMH176" s="0"/>
+      <c r="AMI176" s="0"/>
+      <c r="AMJ176" s="0"/>
+    </row>
+    <row r="177" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0"/>
+      <c r="B177" s="0"/>
+      <c r="C177" s="0"/>
+      <c r="D177" s="0"/>
+      <c r="E177" s="0"/>
+      <c r="F177" s="0"/>
+      <c r="G177" s="0"/>
+      <c r="H177" s="0"/>
+      <c r="AP177" s="19"/>
+      <c r="AQ177" s="0"/>
+      <c r="AR177" s="0"/>
+      <c r="AW177" s="20"/>
+      <c r="AX177" s="99"/>
+      <c r="BI177" s="0"/>
+      <c r="AKL177" s="0"/>
+      <c r="AKM177" s="0"/>
+      <c r="AKN177" s="0"/>
+      <c r="AKO177" s="0"/>
+      <c r="AKP177" s="0"/>
+      <c r="AKQ177" s="0"/>
+      <c r="AKR177" s="0"/>
+      <c r="AKS177" s="0"/>
+      <c r="AKT177" s="0"/>
+      <c r="AKU177" s="0"/>
+      <c r="AKV177" s="0"/>
+      <c r="AKW177" s="0"/>
+      <c r="AKX177" s="0"/>
+      <c r="AKY177" s="0"/>
+      <c r="AKZ177" s="0"/>
+      <c r="ALA177" s="0"/>
+      <c r="ALB177" s="0"/>
+      <c r="ALC177" s="0"/>
+      <c r="ALD177" s="0"/>
+      <c r="ALE177" s="0"/>
+      <c r="ALF177" s="0"/>
+      <c r="ALG177" s="0"/>
+      <c r="ALH177" s="0"/>
+      <c r="ALI177" s="0"/>
+      <c r="ALJ177" s="0"/>
+      <c r="ALK177" s="0"/>
+      <c r="ALL177" s="0"/>
+      <c r="ALM177" s="0"/>
+      <c r="ALN177" s="0"/>
+      <c r="ALO177" s="0"/>
+      <c r="ALP177" s="0"/>
+      <c r="ALQ177" s="0"/>
+      <c r="ALR177" s="0"/>
+      <c r="ALS177" s="0"/>
+      <c r="ALT177" s="0"/>
+      <c r="ALU177" s="0"/>
+      <c r="ALV177" s="0"/>
+      <c r="ALW177" s="0"/>
+      <c r="ALX177" s="0"/>
+      <c r="ALY177" s="0"/>
+      <c r="ALZ177" s="0"/>
+      <c r="AMA177" s="0"/>
+      <c r="AMB177" s="0"/>
+      <c r="AMC177" s="0"/>
+      <c r="AMD177" s="0"/>
+      <c r="AME177" s="0"/>
+      <c r="AMF177" s="0"/>
+      <c r="AMG177" s="0"/>
+      <c r="AMH177" s="0"/>
+      <c r="AMI177" s="0"/>
+      <c r="AMJ177" s="0"/>
+    </row>
+    <row r="178" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0"/>
+      <c r="B178" s="0"/>
+      <c r="C178" s="0"/>
+      <c r="D178" s="0"/>
+      <c r="E178" s="0"/>
+      <c r="F178" s="0"/>
+      <c r="G178" s="0"/>
+      <c r="H178" s="0"/>
+      <c r="AP178" s="19"/>
+      <c r="AQ178" s="0"/>
+      <c r="AR178" s="0"/>
+      <c r="AW178" s="20"/>
+      <c r="AX178" s="99"/>
+      <c r="BI178" s="0"/>
+      <c r="AKL178" s="0"/>
+      <c r="AKM178" s="0"/>
+      <c r="AKN178" s="0"/>
+      <c r="AKO178" s="0"/>
+      <c r="AKP178" s="0"/>
+      <c r="AKQ178" s="0"/>
+      <c r="AKR178" s="0"/>
+      <c r="AKS178" s="0"/>
+      <c r="AKT178" s="0"/>
+      <c r="AKU178" s="0"/>
+      <c r="AKV178" s="0"/>
+      <c r="AKW178" s="0"/>
+      <c r="AKX178" s="0"/>
+      <c r="AKY178" s="0"/>
+      <c r="AKZ178" s="0"/>
+      <c r="ALA178" s="0"/>
+      <c r="ALB178" s="0"/>
+      <c r="ALC178" s="0"/>
+      <c r="ALD178" s="0"/>
+      <c r="ALE178" s="0"/>
+      <c r="ALF178" s="0"/>
+      <c r="ALG178" s="0"/>
+      <c r="ALH178" s="0"/>
+      <c r="ALI178" s="0"/>
+      <c r="ALJ178" s="0"/>
+      <c r="ALK178" s="0"/>
+      <c r="ALL178" s="0"/>
+      <c r="ALM178" s="0"/>
+      <c r="ALN178" s="0"/>
+      <c r="ALO178" s="0"/>
+      <c r="ALP178" s="0"/>
+      <c r="ALQ178" s="0"/>
+      <c r="ALR178" s="0"/>
+      <c r="ALS178" s="0"/>
+      <c r="ALT178" s="0"/>
+      <c r="ALU178" s="0"/>
+      <c r="ALV178" s="0"/>
+      <c r="ALW178" s="0"/>
+      <c r="ALX178" s="0"/>
+      <c r="ALY178" s="0"/>
+      <c r="ALZ178" s="0"/>
+      <c r="AMA178" s="0"/>
+      <c r="AMB178" s="0"/>
+      <c r="AMC178" s="0"/>
+      <c r="AMD178" s="0"/>
+      <c r="AME178" s="0"/>
+      <c r="AMF178" s="0"/>
+      <c r="AMG178" s="0"/>
+      <c r="AMH178" s="0"/>
+      <c r="AMI178" s="0"/>
+      <c r="AMJ178" s="0"/>
+    </row>
+    <row r="179" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0"/>
+      <c r="B179" s="0"/>
+      <c r="C179" s="0"/>
+      <c r="D179" s="0"/>
+      <c r="E179" s="0"/>
+      <c r="F179" s="0"/>
+      <c r="G179" s="0"/>
+      <c r="H179" s="0"/>
+      <c r="AP179" s="19"/>
+      <c r="AQ179" s="0"/>
+      <c r="AR179" s="0"/>
+      <c r="AW179" s="20"/>
+      <c r="AX179" s="99"/>
+      <c r="BI179" s="0"/>
+      <c r="AKL179" s="0"/>
+      <c r="AKM179" s="0"/>
+      <c r="AKN179" s="0"/>
+      <c r="AKO179" s="0"/>
+      <c r="AKP179" s="0"/>
+      <c r="AKQ179" s="0"/>
+      <c r="AKR179" s="0"/>
+      <c r="AKS179" s="0"/>
+      <c r="AKT179" s="0"/>
+      <c r="AKU179" s="0"/>
+      <c r="AKV179" s="0"/>
+      <c r="AKW179" s="0"/>
+      <c r="AKX179" s="0"/>
+      <c r="AKY179" s="0"/>
+      <c r="AKZ179" s="0"/>
+      <c r="ALA179" s="0"/>
+      <c r="ALB179" s="0"/>
+      <c r="ALC179" s="0"/>
+      <c r="ALD179" s="0"/>
+      <c r="ALE179" s="0"/>
+      <c r="ALF179" s="0"/>
+      <c r="ALG179" s="0"/>
+      <c r="ALH179" s="0"/>
+      <c r="ALI179" s="0"/>
+      <c r="ALJ179" s="0"/>
+      <c r="ALK179" s="0"/>
+      <c r="ALL179" s="0"/>
+      <c r="ALM179" s="0"/>
+      <c r="ALN179" s="0"/>
+      <c r="ALO179" s="0"/>
+      <c r="ALP179" s="0"/>
+      <c r="ALQ179" s="0"/>
+      <c r="ALR179" s="0"/>
+      <c r="ALS179" s="0"/>
+      <c r="ALT179" s="0"/>
+      <c r="ALU179" s="0"/>
+      <c r="ALV179" s="0"/>
+      <c r="ALW179" s="0"/>
+      <c r="ALX179" s="0"/>
+      <c r="ALY179" s="0"/>
+      <c r="ALZ179" s="0"/>
+      <c r="AMA179" s="0"/>
+      <c r="AMB179" s="0"/>
+      <c r="AMC179" s="0"/>
+      <c r="AMD179" s="0"/>
+      <c r="AME179" s="0"/>
+      <c r="AMF179" s="0"/>
+      <c r="AMG179" s="0"/>
+      <c r="AMH179" s="0"/>
+      <c r="AMI179" s="0"/>
+      <c r="AMJ179" s="0"/>
+    </row>
+    <row r="180" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0"/>
+      <c r="B180" s="0"/>
+      <c r="C180" s="0"/>
+      <c r="D180" s="0"/>
+      <c r="E180" s="0"/>
+      <c r="F180" s="0"/>
+      <c r="G180" s="0"/>
+      <c r="H180" s="0"/>
+      <c r="AP180" s="19"/>
+      <c r="AQ180" s="0"/>
+      <c r="AR180" s="0"/>
+      <c r="AV180" s="26"/>
+      <c r="AW180" s="27"/>
+      <c r="AX180" s="99"/>
+      <c r="BI180" s="0"/>
+      <c r="AKL180" s="0"/>
+      <c r="AKM180" s="0"/>
+      <c r="AKN180" s="0"/>
+      <c r="AKO180" s="0"/>
+      <c r="AKP180" s="0"/>
+      <c r="AKQ180" s="0"/>
+      <c r="AKR180" s="0"/>
+      <c r="AKS180" s="0"/>
+      <c r="AKT180" s="0"/>
+      <c r="AKU180" s="0"/>
+      <c r="AKV180" s="0"/>
+      <c r="AKW180" s="0"/>
+      <c r="AKX180" s="0"/>
+      <c r="AKY180" s="0"/>
+      <c r="AKZ180" s="0"/>
+      <c r="ALA180" s="0"/>
+      <c r="ALB180" s="0"/>
+      <c r="ALC180" s="0"/>
+      <c r="ALD180" s="0"/>
+      <c r="ALE180" s="0"/>
+      <c r="ALF180" s="0"/>
+      <c r="ALG180" s="0"/>
+      <c r="ALH180" s="0"/>
+      <c r="ALI180" s="0"/>
+      <c r="ALJ180" s="0"/>
+      <c r="ALK180" s="0"/>
+      <c r="ALL180" s="0"/>
+      <c r="ALM180" s="0"/>
+      <c r="ALN180" s="0"/>
+      <c r="ALO180" s="0"/>
+      <c r="ALP180" s="0"/>
+      <c r="ALQ180" s="0"/>
+      <c r="ALR180" s="0"/>
+      <c r="ALS180" s="0"/>
+      <c r="ALT180" s="0"/>
+      <c r="ALU180" s="0"/>
+      <c r="ALV180" s="0"/>
+      <c r="ALW180" s="0"/>
+      <c r="ALX180" s="0"/>
+      <c r="ALY180" s="0"/>
+      <c r="ALZ180" s="0"/>
+      <c r="AMA180" s="0"/>
+      <c r="AMB180" s="0"/>
+      <c r="AMC180" s="0"/>
+      <c r="AMD180" s="0"/>
+      <c r="AME180" s="0"/>
+      <c r="AMF180" s="0"/>
+      <c r="AMG180" s="0"/>
+      <c r="AMH180" s="0"/>
+      <c r="AMI180" s="0"/>
+      <c r="AMJ180" s="0"/>
+    </row>
+    <row r="181" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="25"/>
+      <c r="B181" s="166"/>
+      <c r="C181" s="26"/>
+      <c r="E181" s="167"/>
+      <c r="AQ181" s="0"/>
+      <c r="AR181" s="0"/>
+      <c r="AS181" s="0"/>
+      <c r="AT181" s="0"/>
+      <c r="AU181" s="0"/>
+      <c r="AV181" s="0"/>
+      <c r="AW181" s="0"/>
+      <c r="AX181" s="0"/>
+      <c r="AY181" s="0"/>
+      <c r="AZ181" s="0"/>
+      <c r="BI181" s="0"/>
+    </row>
+    <row r="182" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="9"/>
+      <c r="B182" s="59"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="AQ182" s="0"/>
+      <c r="AR182" s="0"/>
+      <c r="AU182" s="9"/>
+      <c r="AV182" s="9"/>
+      <c r="BI182" s="0"/>
+    </row>
+    <row r="183" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="9"/>
+      <c r="B183" s="59"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="AQ183" s="0"/>
+      <c r="AR183" s="0"/>
+      <c r="AU183" s="9"/>
+      <c r="AV183" s="9"/>
+      <c r="AW183" s="99"/>
+      <c r="BI183" s="0"/>
+    </row>
   </sheetData>
   <mergeCells count="104">
     <mergeCell ref="A1:I3"/>
@@ -17221,66 +18389,66 @@
     <mergeCell ref="AD48:AV48"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="T50:U50"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="N56:W56"/>
-    <mergeCell ref="X56:AV56"/>
-    <mergeCell ref="A82:I84"/>
-    <mergeCell ref="J82:O84"/>
-    <mergeCell ref="P82:U84"/>
-    <mergeCell ref="V82:Z83"/>
-    <mergeCell ref="AA82:AL83"/>
-    <mergeCell ref="AM82:AN82"/>
-    <mergeCell ref="AO82:AQ82"/>
-    <mergeCell ref="AR82:AS82"/>
-    <mergeCell ref="AT82:AW82"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="N57:W57"/>
+    <mergeCell ref="X57:AV57"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="N65:W65"/>
+    <mergeCell ref="X65:AV65"/>
+    <mergeCell ref="A83:I85"/>
+    <mergeCell ref="J83:O85"/>
+    <mergeCell ref="P83:U85"/>
+    <mergeCell ref="V83:Z84"/>
+    <mergeCell ref="AA83:AL84"/>
     <mergeCell ref="AM83:AN83"/>
     <mergeCell ref="AO83:AQ83"/>
     <mergeCell ref="AR83:AS83"/>
     <mergeCell ref="AT83:AW83"/>
-    <mergeCell ref="V84:Z84"/>
-    <mergeCell ref="AA84:AG84"/>
-    <mergeCell ref="AH84:AL84"/>
-    <mergeCell ref="AM84:AW84"/>
-    <mergeCell ref="A122:I124"/>
-    <mergeCell ref="J122:O124"/>
-    <mergeCell ref="P122:U124"/>
-    <mergeCell ref="V122:Z123"/>
-    <mergeCell ref="AA122:AL123"/>
-    <mergeCell ref="AM122:AN122"/>
-    <mergeCell ref="AO122:AQ122"/>
-    <mergeCell ref="AR122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AM84:AN84"/>
+    <mergeCell ref="AO84:AQ84"/>
+    <mergeCell ref="AR84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="V85:Z85"/>
+    <mergeCell ref="AA85:AG85"/>
+    <mergeCell ref="AH85:AL85"/>
+    <mergeCell ref="AM85:AW85"/>
+    <mergeCell ref="A123:I125"/>
+    <mergeCell ref="J123:O125"/>
+    <mergeCell ref="P123:U125"/>
+    <mergeCell ref="V123:Z124"/>
+    <mergeCell ref="AA123:AL124"/>
     <mergeCell ref="AM123:AN123"/>
     <mergeCell ref="AO123:AQ123"/>
     <mergeCell ref="AR123:AS123"/>
     <mergeCell ref="AT123:AW123"/>
-    <mergeCell ref="V124:Z124"/>
-    <mergeCell ref="AA124:AG124"/>
-    <mergeCell ref="AH124:AL124"/>
-    <mergeCell ref="AM124:AW124"/>
-    <mergeCell ref="F131:K131"/>
-    <mergeCell ref="L131:O131"/>
-    <mergeCell ref="P131:R131"/>
-    <mergeCell ref="S131:U131"/>
-    <mergeCell ref="V131:W131"/>
-    <mergeCell ref="X131:AA131"/>
-    <mergeCell ref="AB131:AE131"/>
-    <mergeCell ref="AF131:AX131"/>
-    <mergeCell ref="V132:W132"/>
-    <mergeCell ref="F137:O137"/>
-    <mergeCell ref="P137:Y137"/>
-    <mergeCell ref="Z137:AX137"/>
-    <mergeCell ref="F145:M145"/>
-    <mergeCell ref="N145:AI145"/>
-    <mergeCell ref="AJ145:AU145"/>
-    <mergeCell ref="AY148:BJ148"/>
-    <mergeCell ref="E153:K153"/>
-    <mergeCell ref="L153:AU153"/>
-    <mergeCell ref="E154:K157"/>
-    <mergeCell ref="I160:AI160"/>
-    <mergeCell ref="AJ160:AT160"/>
-    <mergeCell ref="E161:H161"/>
-    <mergeCell ref="E162:H162"/>
+    <mergeCell ref="AM124:AN124"/>
+    <mergeCell ref="AO124:AQ124"/>
+    <mergeCell ref="AR124:AS124"/>
+    <mergeCell ref="AT124:AW124"/>
+    <mergeCell ref="V125:Z125"/>
+    <mergeCell ref="AA125:AG125"/>
+    <mergeCell ref="AH125:AL125"/>
+    <mergeCell ref="AM125:AW125"/>
+    <mergeCell ref="D131:I131"/>
+    <mergeCell ref="J131:M131"/>
+    <mergeCell ref="N131:P131"/>
+    <mergeCell ref="Q131:S131"/>
+    <mergeCell ref="T131:U131"/>
+    <mergeCell ref="V131:Y131"/>
+    <mergeCell ref="Z131:AC131"/>
+    <mergeCell ref="AD131:AV131"/>
+    <mergeCell ref="T132:U132"/>
+    <mergeCell ref="T133:U133"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="D140:M140"/>
+    <mergeCell ref="N140:W140"/>
+    <mergeCell ref="X140:AV140"/>
+    <mergeCell ref="D148:M148"/>
+    <mergeCell ref="N148:W148"/>
+    <mergeCell ref="X148:AV148"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/design/chitiet/Cart.xlsx
+++ b/design/chitiet/Cart.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="117">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -536,6 +536,24 @@
     <t xml:space="preserve">1. Thực hiện khởi tạo màn hình ban đầu</t>
   </si>
   <si>
+    <t xml:space="preserve">a. Check hạng mục</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nội dung check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user chưa login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chuyển trang login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“empty_token_err”</t>
+  </si>
+  <si>
     <t xml:space="preserve">(2) Xử lý xóa sản phẩm </t>
   </si>
   <si>
@@ -557,7 +575,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\年m\月d\日;@"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -669,8 +687,17 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="9"/>
+      <color rgb="FF660E7A"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,8 +728,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1053,6 +1086,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1091,7 +1131,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="199">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1756,13 +1796,137 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="47" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="47" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="50" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1776,6 +1940,66 @@
     <cellStyle name="標準_基本要件仕様書_20061109" xfId="21"/>
     <cellStyle name="標準_基本設計書(FWIH105)" xfId="22"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660E7A"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1790,9 +2014,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>35640</xdr:colOff>
+      <xdr:colOff>35280</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1806,7 +2030,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="675000" cy="969120"/>
+          <a:ext cx="674640" cy="968760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1827,9 +2051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>155520</xdr:colOff>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1839,7 +2063,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2177280" y="24338880"/>
-          <a:ext cx="955080" cy="645120"/>
+          <a:ext cx="954720" cy="644760"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -1894,13 +2118,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>163800</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1909,8 +2133,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2582640" y="23725800"/>
-          <a:ext cx="1207440" cy="617760"/>
+          <a:off x="2582640" y="23725080"/>
+          <a:ext cx="1207080" cy="617400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1955,9 +2179,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>121320</xdr:colOff>
+      <xdr:colOff>120960</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1967,7 +2191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2778840" cy="2607480"/>
+          <a:ext cx="2778480" cy="2607120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1999,9 +2223,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2011,7 +2235,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1187640" cy="426240"/>
+          <a:ext cx="1187280" cy="425880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2069,9 +2293,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64080</xdr:colOff>
+      <xdr:colOff>63720</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2081,7 +2305,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="994320" cy="397440"/>
+          <a:ext cx="993960" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2243,9 +2467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>178200</xdr:colOff>
+      <xdr:colOff>177840</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2255,7 +2479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="912960" cy="397800"/>
+          <a:ext cx="912600" cy="397440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2311,9 +2535,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>83160</xdr:colOff>
+      <xdr:colOff>82800</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2327,7 +2551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="675000" cy="969120"/>
+          <a:ext cx="674640" cy="968760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2342,15 +2566,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
+      <xdr:colOff>84240</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>30600</xdr:colOff>
+      <xdr:colOff>29880</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2359,8 +2583,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3805560" y="23691240"/>
-          <a:ext cx="1248480" cy="578880"/>
+          <a:off x="3804840" y="23690520"/>
+          <a:ext cx="1248120" cy="578520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2405,9 +2629,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>167400</xdr:colOff>
+      <xdr:colOff>167040</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2417,7 +2641,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4608000" y="24268680"/>
-          <a:ext cx="955080" cy="645120"/>
+          <a:ext cx="954720" cy="644760"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2476,9 +2700,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>26640</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2488,7 +2712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3351240" y="24373800"/>
-          <a:ext cx="955080" cy="645120"/>
+          <a:ext cx="954720" cy="644760"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2543,13 +2767,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>20520</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>51120</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2558,8 +2782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3741480" y="23745600"/>
-          <a:ext cx="30960" cy="685440"/>
+          <a:off x="3741480" y="23744880"/>
+          <a:ext cx="30600" cy="685080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2609,9 +2833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>92880</xdr:colOff>
+      <xdr:colOff>92520</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2621,7 +2845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1451880"/>
-          <a:ext cx="4816080" cy="416520"/>
+          <a:ext cx="4815720" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2657,9 +2881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
+      <xdr:colOff>82080</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2673,7 +2897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="186120" y="1038240"/>
-          <a:ext cx="8730360" cy="5398560"/>
+          <a:ext cx="8730000" cy="5398200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2695,7 +2919,7 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E149" activeCellId="0" sqref="E149"/>
     </sheetView>
   </sheetViews>
@@ -10601,10 +10825,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ183"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A123" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C163" activeCellId="0" sqref="C163"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC156" activeCellId="0" sqref="AC156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16682,49 +16906,51 @@
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
-      <c r="C156" s="0"/>
-      <c r="D156" s="0"/>
-      <c r="E156" s="0"/>
-      <c r="F156" s="0"/>
-      <c r="G156" s="0"/>
-      <c r="H156" s="0"/>
-      <c r="I156" s="0"/>
-      <c r="J156" s="0"/>
-      <c r="K156" s="0"/>
-      <c r="L156" s="0"/>
-      <c r="M156" s="0"/>
-      <c r="N156" s="0"/>
-      <c r="O156" s="0"/>
-      <c r="P156" s="0"/>
-      <c r="Q156" s="0"/>
-      <c r="R156" s="0"/>
-      <c r="S156" s="0"/>
-      <c r="T156" s="0"/>
-      <c r="U156" s="0"/>
-      <c r="V156" s="0"/>
-      <c r="W156" s="0"/>
-      <c r="X156" s="0"/>
-      <c r="Y156" s="0"/>
-      <c r="Z156" s="0"/>
-      <c r="AA156" s="0"/>
-      <c r="AB156" s="0"/>
-      <c r="AC156" s="0"/>
-      <c r="AD156" s="0"/>
-      <c r="AE156" s="0"/>
-      <c r="AF156" s="0"/>
-      <c r="AG156" s="0"/>
-      <c r="AH156" s="0"/>
-      <c r="AI156" s="0"/>
-      <c r="AJ156" s="0"/>
-      <c r="AK156" s="0"/>
-      <c r="AL156" s="0"/>
-      <c r="AM156" s="0"/>
-      <c r="AN156" s="0"/>
-      <c r="AO156" s="0"/>
-      <c r="AP156" s="0"/>
-      <c r="AQ156" s="0"/>
-      <c r="AR156" s="0"/>
-      <c r="AS156" s="0"/>
+      <c r="C156" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+      <c r="N156" s="19"/>
+      <c r="O156" s="19"/>
+      <c r="P156" s="19"/>
+      <c r="Q156" s="19"/>
+      <c r="R156" s="19"/>
+      <c r="S156" s="19"/>
+      <c r="T156" s="19"/>
+      <c r="U156" s="19"/>
+      <c r="V156" s="19"/>
+      <c r="W156" s="19"/>
+      <c r="X156" s="19"/>
+      <c r="Y156" s="19"/>
+      <c r="Z156" s="19"/>
+      <c r="AA156" s="19"/>
+      <c r="AB156" s="19"/>
+      <c r="AC156" s="1"/>
+      <c r="AD156" s="19"/>
+      <c r="AE156" s="19"/>
+      <c r="AF156" s="19"/>
+      <c r="AG156" s="19"/>
+      <c r="AH156" s="19"/>
+      <c r="AI156" s="19"/>
+      <c r="AJ156" s="19"/>
+      <c r="AK156" s="19"/>
+      <c r="AL156" s="19"/>
+      <c r="AM156" s="19"/>
+      <c r="AN156" s="19"/>
+      <c r="AO156" s="19"/>
+      <c r="AP156" s="19"/>
+      <c r="AQ156" s="19"/>
+      <c r="AR156" s="19"/>
+      <c r="AS156" s="19"/>
       <c r="AT156" s="0"/>
       <c r="AU156" s="0"/>
       <c r="AV156" s="0"/>
@@ -16745,49 +16971,57 @@
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="17"/>
-      <c r="C157" s="0"/>
-      <c r="D157" s="0"/>
-      <c r="E157" s="0"/>
-      <c r="F157" s="0"/>
-      <c r="G157" s="0"/>
-      <c r="H157" s="0"/>
-      <c r="I157" s="0"/>
-      <c r="J157" s="0"/>
-      <c r="K157" s="0"/>
-      <c r="L157" s="0"/>
-      <c r="M157" s="0"/>
-      <c r="N157" s="0"/>
-      <c r="O157" s="0"/>
-      <c r="P157" s="0"/>
-      <c r="Q157" s="0"/>
-      <c r="R157" s="0"/>
-      <c r="S157" s="0"/>
-      <c r="T157" s="0"/>
-      <c r="U157" s="0"/>
-      <c r="V157" s="0"/>
-      <c r="W157" s="0"/>
-      <c r="X157" s="0"/>
-      <c r="Y157" s="0"/>
-      <c r="Z157" s="0"/>
-      <c r="AA157" s="0"/>
-      <c r="AB157" s="0"/>
-      <c r="AC157" s="0"/>
-      <c r="AD157" s="0"/>
-      <c r="AE157" s="0"/>
-      <c r="AF157" s="0"/>
-      <c r="AG157" s="0"/>
-      <c r="AH157" s="0"/>
-      <c r="AI157" s="0"/>
-      <c r="AJ157" s="0"/>
-      <c r="AK157" s="0"/>
-      <c r="AL157" s="0"/>
-      <c r="AM157" s="0"/>
-      <c r="AN157" s="0"/>
-      <c r="AO157" s="0"/>
-      <c r="AP157" s="0"/>
-      <c r="AQ157" s="0"/>
-      <c r="AR157" s="0"/>
-      <c r="AS157" s="0"/>
+      <c r="C157" s="166" t="s">
+        <v>49</v>
+      </c>
+      <c r="D157" s="167" t="s">
+        <v>68</v>
+      </c>
+      <c r="E157" s="167"/>
+      <c r="F157" s="167"/>
+      <c r="G157" s="167"/>
+      <c r="H157" s="167"/>
+      <c r="I157" s="167"/>
+      <c r="J157" s="167"/>
+      <c r="K157" s="167"/>
+      <c r="L157" s="167" t="s">
+        <v>109</v>
+      </c>
+      <c r="M157" s="167"/>
+      <c r="N157" s="167"/>
+      <c r="O157" s="167"/>
+      <c r="P157" s="167"/>
+      <c r="Q157" s="167"/>
+      <c r="R157" s="167"/>
+      <c r="S157" s="167"/>
+      <c r="T157" s="167"/>
+      <c r="U157" s="167"/>
+      <c r="V157" s="167"/>
+      <c r="W157" s="167"/>
+      <c r="X157" s="167"/>
+      <c r="Y157" s="167"/>
+      <c r="Z157" s="167"/>
+      <c r="AA157" s="167"/>
+      <c r="AB157" s="167"/>
+      <c r="AC157" s="167"/>
+      <c r="AD157" s="167"/>
+      <c r="AE157" s="167"/>
+      <c r="AF157" s="167"/>
+      <c r="AG157" s="167"/>
+      <c r="AH157" s="168" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI157" s="168"/>
+      <c r="AJ157" s="168"/>
+      <c r="AK157" s="168"/>
+      <c r="AL157" s="168"/>
+      <c r="AM157" s="168"/>
+      <c r="AN157" s="168"/>
+      <c r="AO157" s="168"/>
+      <c r="AP157" s="168"/>
+      <c r="AQ157" s="168"/>
+      <c r="AR157" s="168"/>
+      <c r="AS157" s="168"/>
       <c r="AT157" s="0"/>
       <c r="AU157" s="0"/>
       <c r="AV157" s="0"/>
@@ -16808,49 +17042,57 @@
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="17"/>
-      <c r="C158" s="0"/>
-      <c r="D158" s="0"/>
-      <c r="E158" s="0"/>
-      <c r="F158" s="0"/>
-      <c r="G158" s="0"/>
-      <c r="H158" s="0"/>
-      <c r="I158" s="0"/>
-      <c r="J158" s="0"/>
-      <c r="K158" s="0"/>
-      <c r="L158" s="0"/>
-      <c r="M158" s="0"/>
-      <c r="N158" s="0"/>
-      <c r="O158" s="0"/>
-      <c r="P158" s="0"/>
-      <c r="Q158" s="0"/>
-      <c r="R158" s="0"/>
-      <c r="S158" s="0"/>
-      <c r="T158" s="0"/>
-      <c r="U158" s="0"/>
-      <c r="V158" s="0"/>
-      <c r="W158" s="0"/>
-      <c r="X158" s="0"/>
-      <c r="Y158" s="0"/>
-      <c r="Z158" s="0"/>
-      <c r="AA158" s="0"/>
-      <c r="AB158" s="0"/>
-      <c r="AC158" s="0"/>
-      <c r="AD158" s="0"/>
-      <c r="AE158" s="0"/>
-      <c r="AF158" s="0"/>
-      <c r="AG158" s="0"/>
-      <c r="AH158" s="0"/>
-      <c r="AI158" s="0"/>
-      <c r="AJ158" s="0"/>
-      <c r="AK158" s="0"/>
-      <c r="AL158" s="0"/>
-      <c r="AM158" s="0"/>
-      <c r="AN158" s="0"/>
-      <c r="AO158" s="0"/>
-      <c r="AP158" s="0"/>
-      <c r="AQ158" s="0"/>
-      <c r="AR158" s="0"/>
-      <c r="AS158" s="0"/>
+      <c r="C158" s="169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" s="170" t="s">
+        <v>111</v>
+      </c>
+      <c r="E158" s="171"/>
+      <c r="F158" s="171"/>
+      <c r="G158" s="172"/>
+      <c r="H158" s="172"/>
+      <c r="I158" s="172"/>
+      <c r="J158" s="172"/>
+      <c r="K158" s="173"/>
+      <c r="L158" s="174" t="s">
+        <v>112</v>
+      </c>
+      <c r="M158" s="171"/>
+      <c r="N158" s="171"/>
+      <c r="O158" s="172"/>
+      <c r="P158" s="172"/>
+      <c r="Q158" s="172"/>
+      <c r="R158" s="172"/>
+      <c r="S158" s="172"/>
+      <c r="T158" s="175"/>
+      <c r="U158" s="175"/>
+      <c r="V158" s="175"/>
+      <c r="W158" s="175"/>
+      <c r="X158" s="175"/>
+      <c r="Y158" s="175"/>
+      <c r="Z158" s="175"/>
+      <c r="AA158" s="175"/>
+      <c r="AB158" s="175"/>
+      <c r="AC158" s="175"/>
+      <c r="AD158" s="175"/>
+      <c r="AE158" s="175"/>
+      <c r="AF158" s="175"/>
+      <c r="AG158" s="176"/>
+      <c r="AH158" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI158" s="178"/>
+      <c r="AJ158" s="178"/>
+      <c r="AK158" s="178"/>
+      <c r="AL158" s="178"/>
+      <c r="AM158" s="178"/>
+      <c r="AN158" s="178"/>
+      <c r="AO158" s="178"/>
+      <c r="AP158" s="178"/>
+      <c r="AQ158" s="178"/>
+      <c r="AR158" s="178"/>
+      <c r="AS158" s="179"/>
       <c r="AT158" s="0"/>
       <c r="AU158" s="0"/>
       <c r="AV158" s="0"/>
@@ -16871,50 +17113,49 @@
     </row>
     <row r="159" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="17"/>
-      <c r="C159" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D159" s="19"/>
-      <c r="E159" s="141"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="24"/>
-      <c r="L159" s="24"/>
-      <c r="M159" s="24"/>
-      <c r="N159" s="24"/>
-      <c r="O159" s="24"/>
-      <c r="P159" s="24"/>
-      <c r="Q159" s="24"/>
-      <c r="R159" s="24"/>
-      <c r="S159" s="24"/>
-      <c r="T159" s="24"/>
-      <c r="U159" s="24"/>
-      <c r="V159" s="24"/>
-      <c r="W159" s="24"/>
-      <c r="X159" s="24"/>
-      <c r="Y159" s="24"/>
-      <c r="Z159" s="24"/>
-      <c r="AA159" s="24"/>
-      <c r="AB159" s="24"/>
-      <c r="AC159" s="24"/>
-      <c r="AD159" s="24"/>
-      <c r="AF159" s="24"/>
-      <c r="AG159" s="24"/>
-      <c r="AH159" s="24"/>
-      <c r="AI159" s="24"/>
-      <c r="AJ159" s="24"/>
-      <c r="AK159" s="24"/>
-      <c r="AL159" s="24"/>
-      <c r="AM159" s="24"/>
-      <c r="AN159" s="24"/>
-      <c r="AO159" s="24"/>
-      <c r="AP159" s="24"/>
-      <c r="AQ159" s="24"/>
-      <c r="AR159" s="24"/>
-      <c r="AS159" s="24"/>
+      <c r="C159" s="180"/>
+      <c r="D159" s="181"/>
+      <c r="E159" s="182"/>
+      <c r="F159" s="182"/>
+      <c r="G159" s="183"/>
+      <c r="H159" s="183"/>
+      <c r="I159" s="183"/>
+      <c r="J159" s="183"/>
+      <c r="K159" s="184"/>
+      <c r="L159" s="181"/>
+      <c r="M159" s="182"/>
+      <c r="N159" s="182"/>
+      <c r="O159" s="183"/>
+      <c r="P159" s="183"/>
+      <c r="Q159" s="183"/>
+      <c r="R159" s="183"/>
+      <c r="S159" s="183"/>
+      <c r="T159" s="185"/>
+      <c r="U159" s="185"/>
+      <c r="V159" s="185"/>
+      <c r="W159" s="185"/>
+      <c r="X159" s="185"/>
+      <c r="Y159" s="185"/>
+      <c r="Z159" s="185"/>
+      <c r="AA159" s="185"/>
+      <c r="AB159" s="185"/>
+      <c r="AC159" s="185"/>
+      <c r="AD159" s="185"/>
+      <c r="AE159" s="185"/>
+      <c r="AF159" s="185"/>
+      <c r="AG159" s="186"/>
+      <c r="AH159" s="187"/>
+      <c r="AI159" s="188"/>
+      <c r="AJ159" s="188"/>
+      <c r="AK159" s="188"/>
+      <c r="AL159" s="188"/>
+      <c r="AM159" s="188"/>
+      <c r="AN159" s="188"/>
+      <c r="AO159" s="188"/>
+      <c r="AP159" s="188"/>
+      <c r="AQ159" s="188"/>
+      <c r="AR159" s="188"/>
+      <c r="AS159" s="189"/>
       <c r="AT159" s="24"/>
       <c r="AU159" s="24"/>
       <c r="AV159" s="19"/>
@@ -16935,48 +17176,49 @@
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="17"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="141"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="19"/>
-      <c r="L160" s="19"/>
-      <c r="M160" s="19"/>
-      <c r="N160" s="19"/>
-      <c r="O160" s="19"/>
-      <c r="P160" s="19"/>
-      <c r="Q160" s="19"/>
-      <c r="R160" s="19"/>
-      <c r="S160" s="19"/>
-      <c r="T160" s="19"/>
-      <c r="U160" s="19"/>
-      <c r="V160" s="19"/>
-      <c r="W160" s="19"/>
-      <c r="X160" s="19"/>
-      <c r="Y160" s="19"/>
-      <c r="Z160" s="19"/>
-      <c r="AA160" s="19"/>
-      <c r="AB160" s="19"/>
-      <c r="AC160" s="19"/>
-      <c r="AD160" s="19"/>
-      <c r="AE160" s="1"/>
-      <c r="AF160" s="19"/>
-      <c r="AG160" s="19"/>
-      <c r="AH160" s="19"/>
-      <c r="AI160" s="19"/>
-      <c r="AJ160" s="19"/>
-      <c r="AK160" s="19"/>
-      <c r="AL160" s="19"/>
-      <c r="AM160" s="19"/>
-      <c r="AN160" s="19"/>
-      <c r="AO160" s="0"/>
-      <c r="AP160" s="0"/>
-      <c r="AQ160" s="0"/>
-      <c r="AR160" s="0"/>
-      <c r="AS160" s="0"/>
+      <c r="C160" s="190"/>
+      <c r="D160" s="191"/>
+      <c r="E160" s="192"/>
+      <c r="F160" s="192"/>
+      <c r="G160" s="193"/>
+      <c r="H160" s="193"/>
+      <c r="I160" s="193"/>
+      <c r="J160" s="193"/>
+      <c r="K160" s="194"/>
+      <c r="L160" s="195"/>
+      <c r="M160" s="195"/>
+      <c r="N160" s="195"/>
+      <c r="O160" s="195"/>
+      <c r="P160" s="195"/>
+      <c r="Q160" s="195"/>
+      <c r="R160" s="195"/>
+      <c r="S160" s="195"/>
+      <c r="T160" s="195"/>
+      <c r="U160" s="195"/>
+      <c r="V160" s="195"/>
+      <c r="W160" s="195"/>
+      <c r="X160" s="195"/>
+      <c r="Y160" s="195"/>
+      <c r="Z160" s="195"/>
+      <c r="AA160" s="195"/>
+      <c r="AB160" s="195"/>
+      <c r="AC160" s="195"/>
+      <c r="AD160" s="195"/>
+      <c r="AE160" s="195"/>
+      <c r="AF160" s="195"/>
+      <c r="AG160" s="195"/>
+      <c r="AH160" s="196"/>
+      <c r="AI160" s="197"/>
+      <c r="AJ160" s="197"/>
+      <c r="AK160" s="197"/>
+      <c r="AL160" s="197"/>
+      <c r="AM160" s="197"/>
+      <c r="AN160" s="197"/>
+      <c r="AO160" s="197"/>
+      <c r="AP160" s="197"/>
+      <c r="AQ160" s="197"/>
+      <c r="AR160" s="197"/>
+      <c r="AS160" s="198"/>
       <c r="AT160" s="19"/>
       <c r="AU160" s="19"/>
       <c r="AV160" s="19"/>
@@ -16984,51 +17226,49 @@
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="17"/>
-      <c r="C161" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D161" s="19"/>
-      <c r="E161" s="141"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="19"/>
-      <c r="K161" s="19"/>
-      <c r="L161" s="19"/>
-      <c r="M161" s="19"/>
-      <c r="N161" s="19"/>
-      <c r="O161" s="19"/>
-      <c r="P161" s="19"/>
-      <c r="Q161" s="19"/>
-      <c r="R161" s="19"/>
-      <c r="S161" s="19"/>
-      <c r="T161" s="19"/>
-      <c r="U161" s="19"/>
-      <c r="V161" s="19"/>
-      <c r="W161" s="19"/>
-      <c r="X161" s="19"/>
-      <c r="Y161" s="19"/>
-      <c r="Z161" s="19"/>
-      <c r="AA161" s="19"/>
-      <c r="AB161" s="19"/>
-      <c r="AC161" s="19"/>
-      <c r="AD161" s="19"/>
-      <c r="AE161" s="1"/>
-      <c r="AF161" s="19"/>
-      <c r="AG161" s="19"/>
-      <c r="AH161" s="19"/>
-      <c r="AI161" s="19"/>
-      <c r="AJ161" s="19"/>
-      <c r="AK161" s="19"/>
-      <c r="AL161" s="19"/>
-      <c r="AM161" s="19"/>
-      <c r="AN161" s="19"/>
-      <c r="AO161" s="0"/>
-      <c r="AP161" s="0"/>
-      <c r="AQ161" s="0"/>
-      <c r="AR161" s="0"/>
-      <c r="AS161" s="0"/>
+      <c r="C161" s="180"/>
+      <c r="D161" s="181"/>
+      <c r="E161" s="182"/>
+      <c r="F161" s="182"/>
+      <c r="G161" s="183"/>
+      <c r="H161" s="183"/>
+      <c r="I161" s="183"/>
+      <c r="J161" s="183"/>
+      <c r="K161" s="184"/>
+      <c r="L161" s="181"/>
+      <c r="M161" s="182"/>
+      <c r="N161" s="182"/>
+      <c r="O161" s="183"/>
+      <c r="P161" s="183"/>
+      <c r="Q161" s="183"/>
+      <c r="R161" s="183"/>
+      <c r="S161" s="183"/>
+      <c r="T161" s="185"/>
+      <c r="U161" s="185"/>
+      <c r="V161" s="185"/>
+      <c r="W161" s="185"/>
+      <c r="X161" s="185"/>
+      <c r="Y161" s="185"/>
+      <c r="Z161" s="185"/>
+      <c r="AA161" s="185"/>
+      <c r="AB161" s="185"/>
+      <c r="AC161" s="185"/>
+      <c r="AD161" s="185"/>
+      <c r="AE161" s="185"/>
+      <c r="AF161" s="185"/>
+      <c r="AG161" s="186"/>
+      <c r="AH161" s="187"/>
+      <c r="AI161" s="188"/>
+      <c r="AJ161" s="188"/>
+      <c r="AK161" s="188"/>
+      <c r="AL161" s="188"/>
+      <c r="AM161" s="188"/>
+      <c r="AN161" s="188"/>
+      <c r="AO161" s="188"/>
+      <c r="AP161" s="188"/>
+      <c r="AQ161" s="188"/>
+      <c r="AR161" s="188"/>
+      <c r="AS161" s="189"/>
       <c r="AT161" s="19"/>
       <c r="AU161" s="19"/>
       <c r="AV161" s="19"/>
@@ -17042,47 +17282,49 @@
     <row r="162" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="17"/>
       <c r="B162" s="59"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="165"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="19"/>
-      <c r="L162" s="19"/>
-      <c r="M162" s="19"/>
-      <c r="N162" s="19"/>
-      <c r="O162" s="19"/>
-      <c r="P162" s="19"/>
-      <c r="Q162" s="19"/>
-      <c r="R162" s="19"/>
-      <c r="S162" s="19"/>
-      <c r="T162" s="19"/>
-      <c r="U162" s="19"/>
-      <c r="V162" s="19"/>
-      <c r="W162" s="19"/>
-      <c r="X162" s="19"/>
-      <c r="Y162" s="19"/>
-      <c r="Z162" s="19"/>
-      <c r="AA162" s="19"/>
-      <c r="AB162" s="19"/>
-      <c r="AC162" s="19"/>
-      <c r="AD162" s="19"/>
-      <c r="AF162" s="19"/>
-      <c r="AG162" s="19"/>
-      <c r="AH162" s="19"/>
-      <c r="AI162" s="19"/>
-      <c r="AJ162" s="19"/>
-      <c r="AK162" s="19"/>
-      <c r="AL162" s="19"/>
-      <c r="AM162" s="19"/>
-      <c r="AN162" s="19"/>
-      <c r="AO162" s="0"/>
-      <c r="AP162" s="0"/>
-      <c r="AQ162" s="0"/>
-      <c r="AR162" s="0"/>
+      <c r="C162" s="190"/>
+      <c r="D162" s="191"/>
+      <c r="E162" s="192"/>
+      <c r="F162" s="192"/>
+      <c r="G162" s="193"/>
+      <c r="H162" s="193"/>
+      <c r="I162" s="193"/>
+      <c r="J162" s="193"/>
+      <c r="K162" s="194"/>
+      <c r="L162" s="195"/>
+      <c r="M162" s="195"/>
+      <c r="N162" s="195"/>
+      <c r="O162" s="195"/>
+      <c r="P162" s="195"/>
+      <c r="Q162" s="195"/>
+      <c r="R162" s="195"/>
+      <c r="S162" s="195"/>
+      <c r="T162" s="195"/>
+      <c r="U162" s="195"/>
+      <c r="V162" s="195"/>
+      <c r="W162" s="195"/>
+      <c r="X162" s="195"/>
+      <c r="Y162" s="195"/>
+      <c r="Z162" s="195"/>
+      <c r="AA162" s="195"/>
+      <c r="AB162" s="195"/>
+      <c r="AC162" s="195"/>
+      <c r="AD162" s="195"/>
+      <c r="AE162" s="195"/>
+      <c r="AF162" s="195"/>
+      <c r="AG162" s="195"/>
+      <c r="AH162" s="196"/>
+      <c r="AI162" s="197"/>
+      <c r="AJ162" s="197"/>
+      <c r="AK162" s="197"/>
+      <c r="AL162" s="197"/>
+      <c r="AM162" s="197"/>
+      <c r="AN162" s="197"/>
+      <c r="AO162" s="197"/>
+      <c r="AP162" s="197"/>
+      <c r="AQ162" s="197"/>
+      <c r="AR162" s="197"/>
+      <c r="AS162" s="198"/>
       <c r="AW162" s="20"/>
       <c r="AX162" s="99"/>
       <c r="BI162" s="0"/>
@@ -17095,14 +17337,15 @@
     <row r="163" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="0"/>
       <c r="B163" s="0"/>
-      <c r="C163" s="0" t="s">
-        <v>110</v>
-      </c>
+      <c r="C163" s="0"/>
       <c r="D163" s="0"/>
       <c r="E163" s="0"/>
       <c r="F163" s="0"/>
       <c r="G163" s="0"/>
       <c r="H163" s="0"/>
+      <c r="I163" s="0"/>
+      <c r="J163" s="0"/>
+      <c r="K163" s="0"/>
       <c r="AP163" s="19"/>
       <c r="AQ163" s="0"/>
       <c r="AR163" s="0"/>
@@ -17432,12 +17675,17 @@
     <row r="168" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="0"/>
       <c r="B168" s="0"/>
-      <c r="C168" s="0"/>
-      <c r="D168" s="0"/>
-      <c r="E168" s="0"/>
-      <c r="F168" s="0"/>
-      <c r="G168" s="0"/>
-      <c r="H168" s="0"/>
+      <c r="C168" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D168" s="19"/>
+      <c r="E168" s="141"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="24"/>
       <c r="AP168" s="19"/>
       <c r="AQ168" s="0"/>
       <c r="AR168" s="0"/>
@@ -17499,12 +17747,15 @@
     <row r="169" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="0"/>
       <c r="B169" s="0"/>
-      <c r="C169" s="0"/>
-      <c r="D169" s="0"/>
-      <c r="E169" s="0"/>
-      <c r="F169" s="0"/>
-      <c r="G169" s="0"/>
-      <c r="H169" s="0"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="141"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="19"/>
       <c r="AP169" s="19"/>
       <c r="AQ169" s="0"/>
       <c r="AR169" s="0"/>
@@ -17566,12 +17817,17 @@
     <row r="170" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="0"/>
       <c r="B170" s="0"/>
-      <c r="C170" s="0"/>
-      <c r="D170" s="0"/>
-      <c r="E170" s="0"/>
-      <c r="F170" s="0"/>
-      <c r="G170" s="0"/>
-      <c r="H170" s="0"/>
+      <c r="C170" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D170" s="19"/>
+      <c r="E170" s="141"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="19"/>
+      <c r="K170" s="19"/>
       <c r="AP170" s="19"/>
       <c r="AQ170" s="0"/>
       <c r="AR170" s="0"/>
@@ -17633,12 +17889,15 @@
     <row r="171" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="0"/>
       <c r="B171" s="0"/>
-      <c r="C171" s="0"/>
-      <c r="D171" s="0"/>
-      <c r="E171" s="0"/>
-      <c r="F171" s="0"/>
-      <c r="G171" s="0"/>
-      <c r="H171" s="0"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="165"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="19"/>
+      <c r="K171" s="19"/>
       <c r="AP171" s="19"/>
       <c r="AQ171" s="0"/>
       <c r="AR171" s="0"/>
@@ -17700,7 +17959,9 @@
     <row r="172" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="0"/>
       <c r="B172" s="0"/>
-      <c r="C172" s="0"/>
+      <c r="C172" s="0" t="s">
+        <v>116</v>
+      </c>
       <c r="D172" s="0"/>
       <c r="E172" s="0"/>
       <c r="F172" s="0"/>
@@ -18233,21 +18494,56 @@
       <c r="AMI179" s="0"/>
       <c r="AMJ179" s="0"/>
     </row>
-    <row r="180" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0"/>
-      <c r="B180" s="0"/>
-      <c r="C180" s="0"/>
-      <c r="D180" s="0"/>
-      <c r="E180" s="0"/>
-      <c r="F180" s="0"/>
-      <c r="G180" s="0"/>
-      <c r="H180" s="0"/>
-      <c r="AP180" s="19"/>
-      <c r="AQ180" s="0"/>
-      <c r="AR180" s="0"/>
+    <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="26"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="26"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="26"/>
+      <c r="I180" s="26"/>
+      <c r="J180" s="26"/>
+      <c r="K180" s="26"/>
+      <c r="L180" s="26"/>
+      <c r="M180" s="26"/>
+      <c r="N180" s="26"/>
+      <c r="O180" s="26"/>
+      <c r="P180" s="26"/>
+      <c r="Q180" s="26"/>
+      <c r="R180" s="26"/>
+      <c r="S180" s="26"/>
+      <c r="T180" s="26"/>
+      <c r="U180" s="26"/>
+      <c r="V180" s="26"/>
+      <c r="W180" s="26"/>
+      <c r="X180" s="26"/>
+      <c r="Y180" s="26"/>
+      <c r="Z180" s="26"/>
+      <c r="AA180" s="26"/>
+      <c r="AB180" s="26"/>
+      <c r="AC180" s="26"/>
+      <c r="AD180" s="26"/>
+      <c r="AE180" s="26"/>
+      <c r="AF180" s="26"/>
+      <c r="AG180" s="26"/>
+      <c r="AH180" s="26"/>
+      <c r="AI180" s="26"/>
+      <c r="AJ180" s="26"/>
+      <c r="AK180" s="26"/>
+      <c r="AL180" s="26"/>
+      <c r="AM180" s="26"/>
+      <c r="AN180" s="26"/>
+      <c r="AO180" s="26"/>
+      <c r="AP180" s="26"/>
+      <c r="AQ180" s="26"/>
+      <c r="AR180" s="26"/>
+      <c r="AS180" s="26"/>
+      <c r="AT180" s="26"/>
+      <c r="AU180" s="26"/>
       <c r="AV180" s="26"/>
       <c r="AW180" s="27"/>
-      <c r="AX180" s="99"/>
       <c r="BI180" s="0"/>
       <c r="AKL180" s="0"/>
       <c r="AKM180" s="0"/>
@@ -18302,20 +18598,15 @@
       <c r="AMJ180" s="0"/>
     </row>
     <row r="181" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="25"/>
-      <c r="B181" s="166"/>
-      <c r="C181" s="26"/>
-      <c r="E181" s="167"/>
+      <c r="A181" s="9"/>
+      <c r="B181" s="59"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
       <c r="AQ181" s="0"/>
       <c r="AR181" s="0"/>
-      <c r="AS181" s="0"/>
-      <c r="AT181" s="0"/>
-      <c r="AU181" s="0"/>
-      <c r="AV181" s="0"/>
-      <c r="AW181" s="0"/>
-      <c r="AX181" s="0"/>
-      <c r="AY181" s="0"/>
-      <c r="AZ181" s="0"/>
+      <c r="AU181" s="9"/>
+      <c r="AV181" s="9"/>
       <c r="BI181" s="0"/>
     </row>
     <row r="182" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18328,23 +18619,12 @@
       <c r="AR182" s="0"/>
       <c r="AU182" s="9"/>
       <c r="AV182" s="9"/>
+      <c r="AW182" s="99"/>
       <c r="BI182" s="0"/>
     </row>
-    <row r="183" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="9"/>
-      <c r="B183" s="59"/>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9"/>
-      <c r="AQ183" s="0"/>
-      <c r="AR183" s="0"/>
-      <c r="AU183" s="9"/>
-      <c r="AV183" s="9"/>
-      <c r="AW183" s="99"/>
-      <c r="BI183" s="0"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="109">
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -18449,6 +18729,11 @@
     <mergeCell ref="D148:M148"/>
     <mergeCell ref="N148:W148"/>
     <mergeCell ref="X148:AV148"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="L157:AG157"/>
+    <mergeCell ref="AH157:AS157"/>
+    <mergeCell ref="L160:AG160"/>
+    <mergeCell ref="L162:AG162"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/design/chitiet/Cart.xlsx
+++ b/design/chitiet/Cart.xlsx
@@ -3287,7 +3287,7 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AE86" activeCellId="0" sqref="AE86"/>
     </sheetView>
   </sheetViews>
